--- a/Jogos_da_Semana_FlashScore_2025-05-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-14.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ65"/>
+  <dimension ref="A1:AJ68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -646,36 +646,96 @@
           <t>Guingamp</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
-      <c r="AB2" t="inlineStr"/>
-      <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="inlineStr"/>
-      <c r="AE2" t="inlineStr"/>
-      <c r="AF2" t="inlineStr"/>
-      <c r="AG2" t="inlineStr"/>
-      <c r="AH2" t="inlineStr"/>
-      <c r="AI2" t="inlineStr"/>
-      <c r="AJ2" t="inlineStr"/>
+      <c r="G2" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I2" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="K2" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="N2" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="S2" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="T2" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="U2" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="W2" t="n">
+        <v>27</v>
+      </c>
+      <c r="X2" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>65</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>500</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>45</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>28</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -709,13 +769,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="H3" t="n">
         <v>3.5</v>
       </c>
       <c r="I3" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="J3" t="n">
         <v>1.04</v>
@@ -724,16 +784,16 @@
         <v>13</v>
       </c>
       <c r="L3" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M3" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N3" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="O3" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="P3" t="n">
         <v>1.33</v>
@@ -742,25 +802,25 @@
         <v>3.25</v>
       </c>
       <c r="R3" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S3" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T3" t="n">
+        <v>10</v>
+      </c>
+      <c r="U3" t="n">
+        <v>12</v>
+      </c>
+      <c r="V3" t="n">
         <v>9</v>
       </c>
-      <c r="U3" t="n">
-        <v>11</v>
-      </c>
-      <c r="V3" t="n">
-        <v>8.5</v>
-      </c>
       <c r="W3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y3" t="n">
         <v>23</v>
@@ -769,10 +829,10 @@
         <v>13</v>
       </c>
       <c r="AA3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC3" t="n">
         <v>41</v>
@@ -781,22 +841,22 @@
         <v>151</v>
       </c>
       <c r="AE3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ3" t="n">
         <v>26</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>29</v>
       </c>
     </row>
     <row r="4">
@@ -831,82 +891,82 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="H4" t="n">
+        <v>10</v>
+      </c>
+      <c r="I4" t="n">
+        <v>17</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K4" t="n">
+        <v>29</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="M4" t="n">
+        <v>9</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="O4" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="T4" t="n">
+        <v>12</v>
+      </c>
+      <c r="U4" t="n">
         <v>7.5</v>
-      </c>
-      <c r="I4" t="n">
-        <v>19</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="K4" t="n">
-        <v>17</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="M4" t="n">
-        <v>6</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="O4" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>4</v>
-      </c>
-      <c r="R4" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T4" t="n">
-        <v>9</v>
-      </c>
-      <c r="U4" t="n">
-        <v>6</v>
       </c>
       <c r="V4" t="n">
         <v>11</v>
       </c>
       <c r="W4" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X4" t="n">
         <v>11</v>
       </c>
       <c r="Y4" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z4" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AA4" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AB4" t="n">
         <v>34</v>
       </c>
       <c r="AC4" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AD4" t="n">
-        <v>501</v>
+        <v>351</v>
       </c>
       <c r="AE4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AF4" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG4" t="n">
         <v>41</v>
@@ -915,10 +975,10 @@
         <v>251</v>
       </c>
       <c r="AI4" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AJ4" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
@@ -953,13 +1013,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.05</v>
+        <v>2.55</v>
       </c>
       <c r="H5" t="n">
         <v>3.75</v>
       </c>
       <c r="I5" t="n">
-        <v>3.25</v>
+        <v>2.55</v>
       </c>
       <c r="J5" t="n">
         <v>1.03</v>
@@ -986,31 +1046,31 @@
         <v>3.75</v>
       </c>
       <c r="R5" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="S5" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="T5" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="U5" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="V5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W5" t="n">
+        <v>26</v>
+      </c>
+      <c r="X5" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z5" t="n">
         <v>19</v>
-      </c>
-      <c r="X5" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>17</v>
       </c>
       <c r="AA5" t="n">
         <v>7.5</v>
@@ -1025,22 +1085,22 @@
         <v>101</v>
       </c>
       <c r="AE5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF5" t="n">
         <v>15</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="AG5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ5" t="n">
         <v>21</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>26</v>
       </c>
     </row>
     <row r="6">
@@ -1075,37 +1135,37 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="H6" t="n">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="I6" t="n">
-        <v>1.45</v>
+        <v>1.65</v>
       </c>
       <c r="J6" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K6" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="L6" t="n">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="M6" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="N6" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="O6" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="P6" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="Q6" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="R6" t="n">
         <v>1.67</v>
@@ -1114,28 +1174,28 @@
         <v>2.1</v>
       </c>
       <c r="T6" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="U6" t="n">
+        <v>26</v>
+      </c>
+      <c r="V6" t="n">
+        <v>15</v>
+      </c>
+      <c r="W6" t="n">
+        <v>51</v>
+      </c>
+      <c r="X6" t="n">
         <v>34</v>
       </c>
-      <c r="V6" t="n">
-        <v>19</v>
-      </c>
-      <c r="W6" t="n">
-        <v>67</v>
-      </c>
-      <c r="X6" t="n">
-        <v>41</v>
-      </c>
       <c r="Y6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z6" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AA6" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AB6" t="n">
         <v>15</v>
@@ -1147,19 +1207,19 @@
         <v>151</v>
       </c>
       <c r="AE6" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AG6" t="n">
         <v>8.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AI6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ6" t="n">
         <v>21</v>
@@ -1197,67 +1257,67 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.25</v>
+        <v>1.83</v>
       </c>
       <c r="H7" t="n">
-        <v>3.25</v>
+        <v>3.7</v>
       </c>
       <c r="I7" t="n">
-        <v>3.25</v>
+        <v>4.33</v>
       </c>
       <c r="J7" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="K7" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="L7" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="M7" t="n">
-        <v>3.5</v>
+        <v>4.33</v>
       </c>
       <c r="N7" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="O7" t="n">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="P7" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="R7" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="S7" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T7" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U7" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="V7" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="W7" t="n">
+        <v>15</v>
+      </c>
+      <c r="X7" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y7" t="n">
         <v>21</v>
       </c>
-      <c r="X7" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>26</v>
-      </c>
       <c r="Z7" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AA7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AB7" t="n">
         <v>13</v>
@@ -1266,22 +1326,22 @@
         <v>41</v>
       </c>
       <c r="AD7" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE7" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AF7" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AH7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI7" t="n">
         <v>34</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>26</v>
       </c>
       <c r="AJ7" t="n">
         <v>34</v>
@@ -1319,37 +1379,37 @@
         </is>
       </c>
       <c r="G8" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="H8" t="n">
+        <v>12</v>
+      </c>
+      <c r="I8" t="n">
+        <v>29</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K8" t="n">
+        <v>34</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="M8" t="n">
+        <v>11</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="O8" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="P8" t="n">
         <v>1.13</v>
       </c>
-      <c r="H8" t="n">
-        <v>8</v>
-      </c>
-      <c r="I8" t="n">
-        <v>21</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="K8" t="n">
-        <v>21</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="M8" t="n">
-        <v>7</v>
-      </c>
-      <c r="N8" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="O8" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1.2</v>
-      </c>
       <c r="Q8" t="n">
-        <v>4.33</v>
+        <v>6</v>
       </c>
       <c r="R8" t="n">
         <v>2.1</v>
@@ -1358,55 +1418,55 @@
         <v>1.67</v>
       </c>
       <c r="T8" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="U8" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="V8" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="W8" t="n">
         <v>7</v>
       </c>
       <c r="X8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y8" t="n">
         <v>34</v>
       </c>
       <c r="Z8" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AA8" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AB8" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AC8" t="n">
         <v>81</v>
       </c>
       <c r="AD8" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AE8" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AF8" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="AG8" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AH8" t="n">
-        <v>301</v>
+        <v>501</v>
       </c>
       <c r="AI8" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AJ8" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9">
@@ -1441,13 +1501,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="H9" t="n">
         <v>3.5</v>
       </c>
       <c r="I9" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="J9" t="n">
         <v>1.04</v>
@@ -1483,13 +1543,13 @@
         <v>10</v>
       </c>
       <c r="U9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V9" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X9" t="n">
         <v>17</v>
@@ -1501,7 +1561,7 @@
         <v>13</v>
       </c>
       <c r="AA9" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB9" t="n">
         <v>12</v>
@@ -1513,16 +1573,16 @@
         <v>126</v>
       </c>
       <c r="AE9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG9" t="n">
         <v>11</v>
       </c>
       <c r="AH9" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI9" t="n">
         <v>21</v>
@@ -1563,13 +1623,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.67</v>
+        <v>1.85</v>
       </c>
       <c r="H10" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="I10" t="n">
-        <v>5.25</v>
+        <v>4.2</v>
       </c>
       <c r="J10" t="n">
         <v>1.03</v>
@@ -1578,16 +1638,16 @@
         <v>15</v>
       </c>
       <c r="L10" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="M10" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N10" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="O10" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="P10" t="n">
         <v>1.29</v>
@@ -1596,25 +1656,25 @@
         <v>3.5</v>
       </c>
       <c r="R10" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S10" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T10" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V10" t="n">
         <v>8.5</v>
       </c>
       <c r="W10" t="n">
+        <v>17</v>
+      </c>
+      <c r="X10" t="n">
         <v>13</v>
-      </c>
-      <c r="X10" t="n">
-        <v>12</v>
       </c>
       <c r="Y10" t="n">
         <v>21</v>
@@ -1623,34 +1683,34 @@
         <v>15</v>
       </c>
       <c r="AA10" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC10" t="n">
         <v>41</v>
       </c>
       <c r="AD10" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AE10" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AF10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI10" t="n">
         <v>29</v>
       </c>
-      <c r="AG10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>41</v>
-      </c>
       <c r="AJ10" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11">
@@ -1685,13 +1745,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="H11" t="n">
         <v>3.4</v>
       </c>
       <c r="I11" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="J11" t="n">
         <v>1.05</v>
@@ -1706,10 +1766,10 @@
         <v>3.75</v>
       </c>
       <c r="N11" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="O11" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="P11" t="n">
         <v>1.36</v>
@@ -1718,10 +1778,10 @@
         <v>3</v>
       </c>
       <c r="R11" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S11" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T11" t="n">
         <v>9.5</v>
@@ -1733,7 +1793,7 @@
         <v>10</v>
       </c>
       <c r="W11" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="X11" t="n">
         <v>21</v>
@@ -1754,10 +1814,10 @@
         <v>41</v>
       </c>
       <c r="AD11" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE11" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF11" t="n">
         <v>13</v>
@@ -1766,13 +1826,13 @@
         <v>10</v>
       </c>
       <c r="AH11" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI11" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ11" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12">
@@ -1807,13 +1867,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H12" t="n">
         <v>3.2</v>
       </c>
       <c r="I12" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="J12" t="n">
         <v>1.08</v>
@@ -1822,28 +1882,28 @@
         <v>8</v>
       </c>
       <c r="L12" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M12" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N12" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O12" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="P12" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R12" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S12" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T12" t="n">
         <v>6.5</v>
@@ -1858,13 +1918,13 @@
         <v>19</v>
       </c>
       <c r="X12" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y12" t="n">
         <v>34</v>
       </c>
       <c r="Z12" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA12" t="n">
         <v>6</v>
@@ -1873,13 +1933,13 @@
         <v>17</v>
       </c>
       <c r="AC12" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD12" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AE12" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF12" t="n">
         <v>17</v>
@@ -1932,28 +1992,28 @@
         <v>1.33</v>
       </c>
       <c r="H13" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I13" t="n">
+        <v>9</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K13" t="n">
+        <v>17</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="M13" t="n">
         <v>5</v>
       </c>
-      <c r="I13" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="K13" t="n">
-        <v>13</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="M13" t="n">
-        <v>4.5</v>
-      </c>
       <c r="N13" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="O13" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="P13" t="n">
         <v>1.29</v>
@@ -1971,7 +2031,7 @@
         <v>8</v>
       </c>
       <c r="U13" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="V13" t="n">
         <v>9</v>
@@ -1986,10 +2046,10 @@
         <v>26</v>
       </c>
       <c r="Z13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA13" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB13" t="n">
         <v>21</v>
@@ -1998,7 +2058,7 @@
         <v>51</v>
       </c>
       <c r="AD13" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE13" t="n">
         <v>21</v>
@@ -2051,19 +2111,19 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="H14" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="I14" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J14" t="n">
         <v>1.03</v>
       </c>
       <c r="K14" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L14" t="n">
         <v>1.17</v>
@@ -2078,64 +2138,64 @@
         <v>2.38</v>
       </c>
       <c r="P14" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="Q14" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="R14" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="S14" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="T14" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U14" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="V14" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W14" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="X14" t="n">
         <v>11</v>
       </c>
       <c r="Y14" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z14" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA14" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AB14" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AC14" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AD14" t="n">
-        <v>501</v>
+        <v>301</v>
       </c>
       <c r="AE14" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>101</v>
+      </c>
+      <c r="AI14" t="n">
         <v>51</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>26</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>126</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>67</v>
       </c>
       <c r="AJ14" t="n">
         <v>51</v>
@@ -2172,36 +2232,96 @@
           <t>CSKA 1948 Sofia</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="inlineStr"/>
-      <c r="AA15" t="inlineStr"/>
-      <c r="AB15" t="inlineStr"/>
-      <c r="AC15" t="inlineStr"/>
-      <c r="AD15" t="inlineStr"/>
-      <c r="AE15" t="inlineStr"/>
-      <c r="AF15" t="inlineStr"/>
-      <c r="AG15" t="inlineStr"/>
-      <c r="AH15" t="inlineStr"/>
-      <c r="AI15" t="inlineStr"/>
-      <c r="AJ15" t="inlineStr"/>
+      <c r="G15" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="K15" t="n">
+        <v>9</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T15" t="n">
+        <v>7</v>
+      </c>
+      <c r="U15" t="n">
+        <v>11</v>
+      </c>
+      <c r="V15" t="n">
+        <v>10</v>
+      </c>
+      <c r="W15" t="n">
+        <v>23</v>
+      </c>
+      <c r="X15" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>351</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2256,10 +2376,10 @@
         <v>2.75</v>
       </c>
       <c r="N16" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="O16" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="P16" t="n">
         <v>1.5</v>
@@ -2268,13 +2388,13 @@
         <v>2.5</v>
       </c>
       <c r="R16" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="S16" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="T16" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U16" t="n">
         <v>13</v>
@@ -2316,13 +2436,13 @@
         <v>10</v>
       </c>
       <c r="AH16" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI16" t="n">
         <v>23</v>
       </c>
       <c r="AJ16" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17">
@@ -2369,19 +2489,19 @@
         <v>1.07</v>
       </c>
       <c r="K17" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L17" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M17" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N17" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O17" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="P17" t="n">
         <v>1.44</v>
@@ -2396,7 +2516,7 @@
         <v>1.83</v>
       </c>
       <c r="T17" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="U17" t="n">
         <v>15</v>
@@ -2411,10 +2531,10 @@
         <v>26</v>
       </c>
       <c r="Y17" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z17" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA17" t="n">
         <v>6</v>
@@ -2426,7 +2546,7 @@
         <v>51</v>
       </c>
       <c r="AD17" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE17" t="n">
         <v>7.5</v>
@@ -2444,7 +2564,7 @@
         <v>21</v>
       </c>
       <c r="AJ17" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18">
@@ -2478,36 +2598,96 @@
           <t>Puntarenas FC</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr"/>
-      <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr"/>
-      <c r="Z18" t="inlineStr"/>
-      <c r="AA18" t="inlineStr"/>
-      <c r="AB18" t="inlineStr"/>
-      <c r="AC18" t="inlineStr"/>
-      <c r="AD18" t="inlineStr"/>
-      <c r="AE18" t="inlineStr"/>
-      <c r="AF18" t="inlineStr"/>
-      <c r="AG18" t="inlineStr"/>
-      <c r="AH18" t="inlineStr"/>
-      <c r="AI18" t="inlineStr"/>
-      <c r="AJ18" t="inlineStr"/>
+      <c r="G18" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="H18" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="I18" t="n">
+        <v>7</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K18" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="R18" t="n">
+        <v>2</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="T18" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="U18" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="V18" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="W18" t="n">
+        <v>9</v>
+      </c>
+      <c r="X18" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>900</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>22</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>175</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2540,36 +2720,96 @@
           <t>Saprissa</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr"/>
-      <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr"/>
-      <c r="V19" t="inlineStr"/>
-      <c r="W19" t="inlineStr"/>
-      <c r="X19" t="inlineStr"/>
-      <c r="Y19" t="inlineStr"/>
-      <c r="Z19" t="inlineStr"/>
-      <c r="AA19" t="inlineStr"/>
-      <c r="AB19" t="inlineStr"/>
-      <c r="AC19" t="inlineStr"/>
-      <c r="AD19" t="inlineStr"/>
-      <c r="AE19" t="inlineStr"/>
-      <c r="AF19" t="inlineStr"/>
-      <c r="AG19" t="inlineStr"/>
-      <c r="AH19" t="inlineStr"/>
-      <c r="AI19" t="inlineStr"/>
-      <c r="AJ19" t="inlineStr"/>
+      <c r="G19" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="H19" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="K19" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="N19" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="T19" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="U19" t="n">
+        <v>11</v>
+      </c>
+      <c r="V19" t="n">
+        <v>9</v>
+      </c>
+      <c r="W19" t="n">
+        <v>23</v>
+      </c>
+      <c r="X19" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>65</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>500</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>45</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>28</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2733,7 +2973,7 @@
         <v>3.6</v>
       </c>
       <c r="I22" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="J22" t="n">
         <v>1.06</v>
@@ -2760,10 +3000,10 @@
         <v>3</v>
       </c>
       <c r="R22" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="S22" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="T22" t="n">
         <v>7.5</v>
@@ -2882,7 +3122,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>pnH7hYkf</t>
+          <t>lvEOljkJ</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2892,7 +3132,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -2902,109 +3142,107 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Athens Kallithea</t>
+          <t>Levadiakos</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Panserraikos</t>
+          <t>Panetolikos</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
       <c r="H24" t="n">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="I24" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J24" t="n">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="K24" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="N24" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R24" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="T24" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U24" t="n">
         <v>7.5</v>
       </c>
-      <c r="L24" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M24" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="N24" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="P24" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="S24" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="T24" t="n">
+      <c r="V24" t="n">
+        <v>9</v>
+      </c>
+      <c r="W24" t="n">
+        <v>15</v>
+      </c>
+      <c r="X24" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z24" t="n">
         <v>7</v>
       </c>
-      <c r="U24" t="n">
-        <v>8</v>
-      </c>
-      <c r="V24" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="W24" t="n">
-        <v>13</v>
-      </c>
-      <c r="X24" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>11</v>
-      </c>
       <c r="AA24" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB24" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>81</v>
+      </c>
+      <c r="AD24" t="inlineStr"/>
+      <c r="AE24" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG24" t="n">
         <v>17</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>51</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>251</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>15</v>
       </c>
       <c r="AH24" t="n">
         <v>51</v>
       </c>
       <c r="AI24" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ24" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>lvEOljkJ</t>
+          <t>pnH7hYkf</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3024,101 +3262,103 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Levadiakos</t>
+          <t>Athens Kallithea</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Panetolikos</t>
+          <t>Panserraikos</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
       <c r="H25" t="n">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="I25" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="J25" t="n">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="K25" t="n">
-        <v>5.5</v>
+        <v>7.1</v>
       </c>
       <c r="L25" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="M25" t="n">
-        <v>2.42</v>
+        <v>3.25</v>
       </c>
       <c r="N25" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q25" t="n">
         <v>2.6</v>
       </c>
-      <c r="O25" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="P25" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>2.35</v>
-      </c>
       <c r="R25" t="n">
-        <v>2.22</v>
+        <v>1.78</v>
       </c>
       <c r="S25" t="n">
-        <v>1.6</v>
+        <v>1.93</v>
       </c>
       <c r="T25" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="U25" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="V25" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="W25" t="n">
+        <v>13</v>
+      </c>
+      <c r="X25" t="n">
         <v>15</v>
       </c>
-      <c r="X25" t="n">
-        <v>19</v>
-      </c>
       <c r="Y25" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="Z25" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AA25" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AB25" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AC25" t="n">
-        <v>81</v>
-      </c>
-      <c r="AD25" t="inlineStr"/>
+        <v>51</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>251</v>
+      </c>
       <c r="AE25" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="AF25" t="n">
         <v>23</v>
       </c>
       <c r="AG25" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH25" t="n">
         <v>51</v>
       </c>
       <c r="AI25" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ25" t="n">
         <v>41</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="26">
@@ -3153,13 +3393,13 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="H26" t="n">
         <v>4.75</v>
       </c>
       <c r="I26" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="J26" t="n">
         <v>1.05</v>
@@ -3174,10 +3414,10 @@
         <v>3.5</v>
       </c>
       <c r="N26" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="O26" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="P26" t="n">
         <v>1.39</v>
@@ -3192,25 +3432,25 @@
         <v>1.62</v>
       </c>
       <c r="T26" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U26" t="n">
         <v>5.5</v>
       </c>
       <c r="V26" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W26" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y26" t="n">
         <v>34</v>
       </c>
       <c r="Z26" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA26" t="n">
         <v>9</v>
@@ -3223,22 +3463,22 @@
       </c>
       <c r="AD26" t="inlineStr"/>
       <c r="AE26" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AF26" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG26" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AH26" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AI26" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AJ26" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27">
@@ -3583,94 +3823,94 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="H32" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="I32" t="n">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="J32" t="n">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="K32" t="n">
-        <v>7.6</v>
+        <v>9</v>
       </c>
       <c r="L32" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="M32" t="n">
         <v>3</v>
       </c>
       <c r="N32" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="O32" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="P32" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.72</v>
+        <v>2.63</v>
       </c>
       <c r="R32" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S32" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="T32" t="n">
-        <v>6.2</v>
+        <v>6.5</v>
       </c>
       <c r="U32" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V32" t="n">
         <v>9</v>
       </c>
       <c r="W32" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="X32" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Y32" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="Z32" t="n">
-        <v>7.6</v>
+        <v>8.5</v>
       </c>
       <c r="AA32" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AB32" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AC32" t="n">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="AD32" t="n">
-        <v>900</v>
+        <v>401</v>
       </c>
       <c r="AE32" t="n">
         <v>10</v>
       </c>
       <c r="AF32" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AG32" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH32" t="n">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="AI32" t="n">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="AJ32" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33">
@@ -3705,28 +3945,28 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="H33" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I33" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="K33" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M33" t="n">
         <v>3.25</v>
       </c>
-      <c r="I33" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="K33" t="n">
-        <v>8</v>
-      </c>
-      <c r="L33" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M33" t="n">
-        <v>3.15</v>
-      </c>
       <c r="N33" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="O33" t="n">
         <v>1.75</v>
@@ -3735,64 +3975,64 @@
         <v>1.4</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.87</v>
+        <v>2.75</v>
       </c>
       <c r="R33" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="S33" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="T33" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="U33" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="V33" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="W33" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="X33" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y33" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Z33" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AA33" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AB33" t="n">
         <v>15</v>
       </c>
       <c r="AC33" t="n">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="AD33" t="n">
-        <v>600</v>
+        <v>251</v>
       </c>
       <c r="AE33" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AF33" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AG33" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH33" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="AI33" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AJ33" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34">
@@ -3922,7 +4162,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>hbHcd81K</t>
+          <t>zelrN2kn</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -3932,22 +4172,22 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>PARAGUAY - DIVISION INTERMEDIA</t>
+          <t>MEXICO - LIGA MX</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Dep. Capiata</t>
+          <t>Cruz Azul</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Guarani de Fram</t>
+          <t>Club America</t>
         </is>
       </c>
       <c r="G36" t="inlineStr"/>
@@ -3984,7 +4224,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>xWhUjnPs</t>
+          <t>AD2QZuZi</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -3994,22 +4234,22 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>PARAGUAY - DIVISION INTERMEDIA</t>
+          <t>MEXICO - LIGA MX</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Independiente FBC</t>
+          <t>Tigres UANL</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Tacuary</t>
+          <t>Toluca</t>
         </is>
       </c>
       <c r="G37" t="inlineStr"/>
@@ -4046,7 +4286,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>z5gdr8dJ</t>
+          <t>hbHcd81K</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -4056,119 +4296,59 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>PARAGUAY - DIVISION INTERMEDIA</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Pogon Szczecin</t>
+          <t>Dep. Capiata</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Motor Lublin</t>
-        </is>
-      </c>
-      <c r="G38" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="H38" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="I38" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="K38" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="L38" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="M38" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="N38" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="O38" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="P38" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="R38" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S38" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="T38" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="U38" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="V38" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="W38" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="X38" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z38" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AA38" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AB38" t="n">
-        <v>18</v>
-      </c>
-      <c r="AC38" t="n">
-        <v>65</v>
-      </c>
-      <c r="AD38" t="n">
-        <v>450</v>
-      </c>
-      <c r="AE38" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF38" t="n">
-        <v>55</v>
-      </c>
-      <c r="AG38" t="n">
-        <v>22</v>
-      </c>
-      <c r="AH38" t="n">
-        <v>175</v>
-      </c>
-      <c r="AI38" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ38" t="n">
-        <v>50</v>
-      </c>
+          <t>Guarani de Fram</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr"/>
+      <c r="T38" t="inlineStr"/>
+      <c r="U38" t="inlineStr"/>
+      <c r="V38" t="inlineStr"/>
+      <c r="W38" t="inlineStr"/>
+      <c r="X38" t="inlineStr"/>
+      <c r="Y38" t="inlineStr"/>
+      <c r="Z38" t="inlineStr"/>
+      <c r="AA38" t="inlineStr"/>
+      <c r="AB38" t="inlineStr"/>
+      <c r="AC38" t="inlineStr"/>
+      <c r="AD38" t="inlineStr"/>
+      <c r="AE38" t="inlineStr"/>
+      <c r="AF38" t="inlineStr"/>
+      <c r="AG38" t="inlineStr"/>
+      <c r="AH38" t="inlineStr"/>
+      <c r="AI38" t="inlineStr"/>
+      <c r="AJ38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>4fhOZC23</t>
+          <t>xWhUjnPs</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -4178,119 +4358,59 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>SCOTLAND - PREMIERSHIP</t>
+          <t>PARAGUAY - DIVISION INTERMEDIA</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Dundee FC</t>
+          <t>Independiente FBC</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Ross County</t>
-        </is>
-      </c>
-      <c r="G39" t="n">
-        <v>2</v>
-      </c>
-      <c r="H39" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I39" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="K39" t="n">
-        <v>11</v>
-      </c>
-      <c r="L39" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M39" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="N39" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="O39" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="P39" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="R39" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S39" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="T39" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="U39" t="n">
-        <v>10</v>
-      </c>
-      <c r="V39" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="W39" t="n">
-        <v>17</v>
-      </c>
-      <c r="X39" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z39" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA39" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>41</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>151</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF39" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG39" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH39" t="n">
-        <v>41</v>
-      </c>
-      <c r="AI39" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ39" t="n">
-        <v>34</v>
-      </c>
+          <t>Tacuary</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="inlineStr"/>
+      <c r="T39" t="inlineStr"/>
+      <c r="U39" t="inlineStr"/>
+      <c r="V39" t="inlineStr"/>
+      <c r="W39" t="inlineStr"/>
+      <c r="X39" t="inlineStr"/>
+      <c r="Y39" t="inlineStr"/>
+      <c r="Z39" t="inlineStr"/>
+      <c r="AA39" t="inlineStr"/>
+      <c r="AB39" t="inlineStr"/>
+      <c r="AC39" t="inlineStr"/>
+      <c r="AD39" t="inlineStr"/>
+      <c r="AE39" t="inlineStr"/>
+      <c r="AF39" t="inlineStr"/>
+      <c r="AG39" t="inlineStr"/>
+      <c r="AH39" t="inlineStr"/>
+      <c r="AI39" t="inlineStr"/>
+      <c r="AJ39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>CKeWXjXF</t>
+          <t>z5gdr8dJ</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -4300,65 +4420,65 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>SCOTLAND - PREMIERSHIP</t>
+          <t>POLAND - EKSTRAKLASA</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Hearts</t>
+          <t>Pogon Szczecin</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>St Johnstone</t>
+          <t>Motor Lublin</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="H40" t="n">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="I40" t="n">
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
       <c r="J40" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="K40" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="L40" t="n">
-        <v>1.29</v>
+        <v>1.17</v>
       </c>
       <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="O40" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="P40" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q40" t="n">
         <v>3.75</v>
       </c>
-      <c r="N40" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="O40" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="P40" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>3</v>
-      </c>
       <c r="R40" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S40" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T40" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="U40" t="n">
         <v>8</v>
@@ -4367,40 +4487,40 @@
         <v>8.5</v>
       </c>
       <c r="W40" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="X40" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Y40" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="Z40" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AA40" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AB40" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC40" t="n">
         <v>51</v>
       </c>
       <c r="AD40" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE40" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AF40" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AG40" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AH40" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI40" t="n">
         <v>41</v>
@@ -4412,7 +4532,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>hU3vWU1S</t>
+          <t>xI9orG3D</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -4422,119 +4542,119 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>SCOTLAND - PREMIERSHIP</t>
+          <t>PORTUGAL - LIGA PORTUGAL 2</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Motherwell</t>
+          <t>Leixoes</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Kilmarnock</t>
+          <t>Feirense</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.8</v>
+        <v>2.32</v>
       </c>
       <c r="H41" t="n">
         <v>3.25</v>
       </c>
       <c r="I41" t="n">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="J41" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K41" t="n">
-        <v>11</v>
+        <v>7.8</v>
       </c>
       <c r="L41" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M41" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="N41" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="O41" t="n">
         <v>1.88</v>
       </c>
-      <c r="O41" t="n">
-        <v>1.98</v>
-      </c>
       <c r="P41" t="n">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="Q41" t="n">
-        <v>3</v>
+        <v>2.72</v>
       </c>
       <c r="R41" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S41" t="n">
         <v>2.1</v>
       </c>
       <c r="T41" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U41" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="V41" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="W41" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="X41" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y41" t="n">
         <v>29</v>
       </c>
       <c r="Z41" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>55</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>400</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AG41" t="n">
         <v>11</v>
       </c>
-      <c r="AA41" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB41" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC41" t="n">
-        <v>41</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>151</v>
-      </c>
-      <c r="AE41" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AF41" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG41" t="n">
-        <v>10</v>
-      </c>
       <c r="AH41" t="n">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="AI41" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AJ41" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>l0kAQ8Pk</t>
+          <t>4fhOZC23</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -4554,109 +4674,109 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Rangers</t>
+          <t>Dundee FC</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Dundee Utd</t>
+          <t>Ross County</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.42</v>
+        <v>1.95</v>
       </c>
       <c r="H42" t="n">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="I42" t="n">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="J42" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="K42" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="L42" t="n">
-        <v>1.14</v>
+        <v>1.29</v>
       </c>
       <c r="M42" t="n">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="N42" t="n">
-        <v>1.44</v>
+        <v>1.88</v>
       </c>
       <c r="O42" t="n">
-        <v>2.75</v>
+        <v>1.98</v>
       </c>
       <c r="P42" t="n">
-        <v>1.22</v>
+        <v>1.36</v>
       </c>
       <c r="Q42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R42" t="n">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="S42" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="T42" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U42" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V42" t="n">
         <v>8.5</v>
       </c>
       <c r="W42" t="n">
+        <v>17</v>
+      </c>
+      <c r="X42" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z42" t="n">
         <v>11</v>
       </c>
-      <c r="X42" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z42" t="n">
-        <v>21</v>
-      </c>
       <c r="AA42" t="n">
-        <v>9.5</v>
+        <v>6.5</v>
       </c>
       <c r="AB42" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC42" t="n">
         <v>41</v>
       </c>
       <c r="AD42" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="AE42" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="AF42" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH42" t="n">
         <v>41</v>
       </c>
-      <c r="AG42" t="n">
-        <v>19</v>
-      </c>
-      <c r="AH42" t="n">
-        <v>67</v>
-      </c>
       <c r="AI42" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AJ42" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>pSrJOnf2</t>
+          <t>CKeWXjXF</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -4676,109 +4796,109 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>St. Mirren</t>
+          <t>Hearts</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Hibernian</t>
+          <t>St Johnstone</t>
         </is>
       </c>
       <c r="G43" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="H43" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I43" t="n">
+        <v>5</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K43" t="n">
+        <v>11</v>
+      </c>
+      <c r="L43" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M43" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="N43" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="O43" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="P43" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q43" t="n">
         <v>3</v>
       </c>
-      <c r="H43" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="I43" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="K43" t="n">
-        <v>10</v>
-      </c>
-      <c r="L43" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M43" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="N43" t="n">
-        <v>2</v>
-      </c>
-      <c r="O43" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="P43" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>2.75</v>
-      </c>
       <c r="R43" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S43" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T43" t="n">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="U43" t="n">
+        <v>8</v>
+      </c>
+      <c r="V43" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W43" t="n">
+        <v>13</v>
+      </c>
+      <c r="X43" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>251</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG43" t="n">
         <v>15</v>
       </c>
-      <c r="V43" t="n">
-        <v>11</v>
-      </c>
-      <c r="W43" t="n">
-        <v>29</v>
-      </c>
-      <c r="X43" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y43" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z43" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA43" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB43" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC43" t="n">
+      <c r="AH43" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI43" t="n">
         <v>41</v>
       </c>
-      <c r="AD43" t="n">
-        <v>201</v>
-      </c>
-      <c r="AE43" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AF43" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG43" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AH43" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI43" t="n">
-        <v>19</v>
-      </c>
       <c r="AJ43" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>ObFyC9Ad</t>
+          <t>hU3vWU1S</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -4788,7 +4908,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -4798,79 +4918,79 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Aberdeen</t>
+          <t>Motherwell</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Celtic</t>
+          <t>Kilmarnock</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>5.5</v>
+        <v>2.8</v>
       </c>
       <c r="H44" t="n">
-        <v>4.1</v>
+        <v>3.25</v>
       </c>
       <c r="I44" t="n">
-        <v>1.57</v>
+        <v>2.55</v>
       </c>
       <c r="J44" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K44" t="n">
+        <v>11</v>
+      </c>
+      <c r="L44" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="O44" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="P44" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>3</v>
+      </c>
+      <c r="R44" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S44" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T44" t="n">
+        <v>10</v>
+      </c>
+      <c r="U44" t="n">
         <v>15</v>
       </c>
-      <c r="L44" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="M44" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="N44" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="O44" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="P44" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="R44" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S44" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="T44" t="n">
-        <v>17</v>
-      </c>
-      <c r="U44" t="n">
+      <c r="V44" t="n">
+        <v>11</v>
+      </c>
+      <c r="W44" t="n">
         <v>29</v>
       </c>
-      <c r="V44" t="n">
-        <v>17</v>
-      </c>
-      <c r="W44" t="n">
-        <v>51</v>
-      </c>
       <c r="X44" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="Y44" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="Z44" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AA44" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AB44" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AC44" t="n">
         <v>41</v>
@@ -4879,28 +4999,28 @@
         <v>151</v>
       </c>
       <c r="AE44" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AF44" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="AG44" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AH44" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="AI44" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AJ44" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>lSDKuqVG</t>
+          <t>l0kAQ8Pk</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -4910,119 +5030,119 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>16:10</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>SCOTLAND - CHAMPIONSHIP</t>
+          <t>SCOTLAND - PREMIERSHIP</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Cove Rangers</t>
+          <t>Rangers</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Airdrieonians</t>
+          <t>Dundee Utd</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.8</v>
+        <v>1.36</v>
       </c>
       <c r="H45" t="n">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="I45" t="n">
-        <v>2.2</v>
+        <v>7.5</v>
       </c>
       <c r="J45" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K45" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L45" t="n">
-        <v>1.2</v>
+        <v>1.14</v>
       </c>
       <c r="M45" t="n">
-        <v>4.33</v>
+        <v>5.5</v>
       </c>
       <c r="N45" t="n">
-        <v>1.7</v>
+        <v>1.44</v>
       </c>
       <c r="O45" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="P45" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>4</v>
+      </c>
+      <c r="R45" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S45" t="n">
         <v>2.1</v>
       </c>
-      <c r="P45" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="R45" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S45" t="n">
-        <v>2.25</v>
-      </c>
       <c r="T45" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="U45" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W45" t="n">
+        <v>10</v>
+      </c>
+      <c r="X45" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB45" t="n">
         <v>17</v>
-      </c>
-      <c r="V45" t="n">
-        <v>11</v>
-      </c>
-      <c r="W45" t="n">
-        <v>29</v>
-      </c>
-      <c r="X45" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y45" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z45" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA45" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB45" t="n">
-        <v>12</v>
       </c>
       <c r="AC45" t="n">
         <v>41</v>
       </c>
       <c r="AD45" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AE45" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="AF45" t="n">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="AG45" t="n">
-        <v>9.5</v>
+        <v>21</v>
       </c>
       <c r="AH45" t="n">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="AI45" t="n">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="AJ45" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>tWe9gspm</t>
+          <t>pSrJOnf2</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -5032,59 +5152,119 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>08:45</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>SINGAPORE - PREMIER LEAGUE</t>
+          <t>SCOTLAND - PREMIERSHIP</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Lion City</t>
+          <t>St. Mirren</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Balestier Khalsa</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="inlineStr"/>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="inlineStr"/>
-      <c r="T46" t="inlineStr"/>
-      <c r="U46" t="inlineStr"/>
-      <c r="V46" t="inlineStr"/>
-      <c r="W46" t="inlineStr"/>
-      <c r="X46" t="inlineStr"/>
-      <c r="Y46" t="inlineStr"/>
-      <c r="Z46" t="inlineStr"/>
-      <c r="AA46" t="inlineStr"/>
-      <c r="AB46" t="inlineStr"/>
-      <c r="AC46" t="inlineStr"/>
-      <c r="AD46" t="inlineStr"/>
-      <c r="AE46" t="inlineStr"/>
-      <c r="AF46" t="inlineStr"/>
-      <c r="AG46" t="inlineStr"/>
-      <c r="AH46" t="inlineStr"/>
-      <c r="AI46" t="inlineStr"/>
-      <c r="AJ46" t="inlineStr"/>
+          <t>Hibernian</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H46" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I46" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="K46" t="n">
+        <v>10</v>
+      </c>
+      <c r="L46" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M46" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="N46" t="n">
+        <v>2</v>
+      </c>
+      <c r="O46" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="P46" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R46" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S46" t="n">
+        <v>2</v>
+      </c>
+      <c r="T46" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="U46" t="n">
+        <v>15</v>
+      </c>
+      <c r="V46" t="n">
+        <v>11</v>
+      </c>
+      <c r="W46" t="n">
+        <v>29</v>
+      </c>
+      <c r="X46" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>201</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>WpEL9hH6</t>
+          <t>ObFyC9Ad</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -5094,119 +5274,119 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>SWEDEN - ALLSVENSKAN</t>
+          <t>SCOTLAND - PREMIERSHIP</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Hacken</t>
+          <t>Aberdeen</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>AIK</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.4</v>
+        <v>5.5</v>
       </c>
       <c r="H47" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="I47" t="n">
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="J47" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="K47" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L47" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="M47" t="n">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="N47" t="n">
-        <v>2.05</v>
+        <v>1.62</v>
       </c>
       <c r="O47" t="n">
-        <v>1.75</v>
+        <v>2.3</v>
       </c>
       <c r="P47" t="n">
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="R47" t="n">
-        <v>1.91</v>
+        <v>1.67</v>
       </c>
       <c r="S47" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="T47" t="n">
-        <v>7.5</v>
+        <v>19</v>
       </c>
       <c r="U47" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="V47" t="n">
-        <v>9.5</v>
+        <v>17</v>
       </c>
       <c r="W47" t="n">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="X47" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>151</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ47" t="n">
         <v>21</v>
-      </c>
-      <c r="Y47" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z47" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA47" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB47" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC47" t="n">
-        <v>51</v>
-      </c>
-      <c r="AD47" t="n">
-        <v>301</v>
-      </c>
-      <c r="AE47" t="n">
-        <v>8</v>
-      </c>
-      <c r="AF47" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG47" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH47" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI47" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ47" t="n">
-        <v>34</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>hjaGVZwQ</t>
+          <t>lSDKuqVG</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -5216,119 +5396,119 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>16:10</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>SWEDEN - ALLSVENSKAN</t>
+          <t>SCOTLAND - CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Halmstad</t>
+          <t>Cove Rangers</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>GAIS</t>
+          <t>Airdrieonians</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="H48" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I48" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="J48" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="K48" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="L48" t="n">
-        <v>1.44</v>
+        <v>1.22</v>
       </c>
       <c r="M48" t="n">
-        <v>2.63</v>
+        <v>4</v>
       </c>
       <c r="N48" t="n">
-        <v>2.35</v>
+        <v>1.7</v>
       </c>
       <c r="O48" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="P48" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R48" t="n">
         <v>1.57</v>
       </c>
-      <c r="P48" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R48" t="n">
-        <v>2.05</v>
-      </c>
       <c r="S48" t="n">
-        <v>1.7</v>
+        <v>2.25</v>
       </c>
       <c r="T48" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="U48" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="V48" t="n">
+        <v>11</v>
+      </c>
+      <c r="W48" t="n">
+        <v>29</v>
+      </c>
+      <c r="X48" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z48" t="n">
         <v>13</v>
       </c>
-      <c r="W48" t="n">
+      <c r="AA48" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC48" t="n">
         <v>41</v>
       </c>
-      <c r="X48" t="n">
-        <v>34</v>
-      </c>
-      <c r="Y48" t="n">
-        <v>41</v>
-      </c>
-      <c r="Z48" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AA48" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB48" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC48" t="n">
-        <v>67</v>
-      </c>
       <c r="AD48" t="n">
-        <v>501</v>
+        <v>126</v>
       </c>
       <c r="AE48" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AF48" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="AG48" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH48" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI48" t="n">
         <v>17</v>
       </c>
-      <c r="AI48" t="n">
-        <v>19</v>
-      </c>
       <c r="AJ48" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>YZ3tJdfK</t>
+          <t>tWe9gspm</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -5338,119 +5518,59 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>08:45</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>SWEDEN - ALLSVENSKAN</t>
+          <t>SINGAPORE - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Hammarby</t>
+          <t>Lion City</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Sirius</t>
-        </is>
-      </c>
-      <c r="G49" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="H49" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="I49" t="n">
-        <v>7</v>
-      </c>
-      <c r="J49" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="K49" t="n">
-        <v>13</v>
-      </c>
-      <c r="L49" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="M49" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="N49" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="O49" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="P49" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="R49" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="S49" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="T49" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="U49" t="n">
-        <v>7</v>
-      </c>
-      <c r="V49" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="W49" t="n">
-        <v>10</v>
-      </c>
-      <c r="X49" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y49" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z49" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA49" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AB49" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC49" t="n">
-        <v>51</v>
-      </c>
-      <c r="AD49" t="n">
-        <v>251</v>
-      </c>
-      <c r="AE49" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF49" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG49" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH49" t="n">
-        <v>81</v>
-      </c>
-      <c r="AI49" t="n">
-        <v>51</v>
-      </c>
-      <c r="AJ49" t="n">
-        <v>51</v>
-      </c>
+          <t>Balestier Khalsa</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr"/>
+      <c r="T49" t="inlineStr"/>
+      <c r="U49" t="inlineStr"/>
+      <c r="V49" t="inlineStr"/>
+      <c r="W49" t="inlineStr"/>
+      <c r="X49" t="inlineStr"/>
+      <c r="Y49" t="inlineStr"/>
+      <c r="Z49" t="inlineStr"/>
+      <c r="AA49" t="inlineStr"/>
+      <c r="AB49" t="inlineStr"/>
+      <c r="AC49" t="inlineStr"/>
+      <c r="AD49" t="inlineStr"/>
+      <c r="AE49" t="inlineStr"/>
+      <c r="AF49" t="inlineStr"/>
+      <c r="AG49" t="inlineStr"/>
+      <c r="AH49" t="inlineStr"/>
+      <c r="AI49" t="inlineStr"/>
+      <c r="AJ49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>zFGUpbFF</t>
+          <t>WpEL9hH6</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -5460,119 +5580,119 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>SWITZERLAND - SUPER LEAGUE</t>
+          <t>SWEDEN - ALLSVENSKAN</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Grasshoppers</t>
+          <t>Hacken</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Yverdon</t>
+          <t>AIK</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="H50" t="n">
-        <v>3.15</v>
+        <v>3.6</v>
       </c>
       <c r="I50" t="n">
-        <v>3.15</v>
+        <v>2.6</v>
       </c>
       <c r="J50" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="K50" t="n">
-        <v>7.1</v>
+        <v>10</v>
       </c>
       <c r="L50" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="M50" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="N50" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="O50" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="P50" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="Q50" t="n">
-        <v>2.85</v>
+        <v>2.75</v>
       </c>
       <c r="R50" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S50" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="T50" t="n">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="U50" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="V50" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W50" t="n">
         <v>26</v>
       </c>
       <c r="X50" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y50" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z50" t="n">
-        <v>7.1</v>
+        <v>10</v>
       </c>
       <c r="AA50" t="n">
-        <v>6.3</v>
+        <v>7</v>
       </c>
       <c r="AB50" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC50" t="n">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AD50" t="n">
-        <v>600</v>
+        <v>301</v>
       </c>
       <c r="AE50" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF50" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AG50" t="n">
-        <v>11.75</v>
+        <v>10</v>
       </c>
       <c r="AH50" t="n">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="AI50" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="AJ50" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>vmNLnKp3</t>
+          <t>hjaGVZwQ</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -5582,119 +5702,119 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>SWITZERLAND - SUPER LEAGUE</t>
+          <t>SWEDEN - ALLSVENSKAN</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Lausanne</t>
+          <t>Halmstad</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Basel</t>
+          <t>GAIS</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2.72</v>
+        <v>3.8</v>
       </c>
       <c r="H51" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I51" t="n">
-        <v>2.42</v>
+        <v>1.95</v>
       </c>
       <c r="J51" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="K51" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="L51" t="n">
-        <v>1.19</v>
+        <v>1.4</v>
       </c>
       <c r="M51" t="n">
-        <v>4.3</v>
+        <v>2.75</v>
       </c>
       <c r="N51" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="O51" t="n">
         <v>1.6</v>
       </c>
-      <c r="O51" t="n">
-        <v>2.27</v>
-      </c>
       <c r="P51" t="n">
-        <v>1.32</v>
+        <v>1.5</v>
       </c>
       <c r="Q51" t="n">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="R51" t="n">
-        <v>1.47</v>
+        <v>2.05</v>
       </c>
       <c r="S51" t="n">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="T51" t="n">
-        <v>11.75</v>
+        <v>9</v>
       </c>
       <c r="U51" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="V51" t="n">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="W51" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="X51" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="Y51" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="Z51" t="n">
-        <v>9.25</v>
+        <v>8</v>
       </c>
       <c r="AA51" t="n">
-        <v>7.4</v>
+        <v>6.5</v>
       </c>
       <c r="AB51" t="n">
-        <v>11.75</v>
+        <v>19</v>
       </c>
       <c r="AC51" t="n">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="AD51" t="n">
-        <v>250</v>
+        <v>501</v>
       </c>
       <c r="AE51" t="n">
-        <v>10.5</v>
+        <v>6</v>
       </c>
       <c r="AF51" t="n">
-        <v>15.5</v>
+        <v>8.5</v>
       </c>
       <c r="AG51" t="n">
-        <v>9.75</v>
+        <v>9</v>
       </c>
       <c r="AH51" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="AI51" t="n">
         <v>19</v>
       </c>
       <c r="AJ51" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>OAuWgltn</t>
+          <t>YZ3tJdfK</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -5704,119 +5824,119 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>USA - MLS</t>
+          <t>SWEDEN - ALLSVENSKAN</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>CF Montreal</t>
+          <t>Hammarby</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Columbus Crew</t>
+          <t>Sirius</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>3.1</v>
+        <v>1.45</v>
       </c>
       <c r="H52" t="n">
-        <v>3.6</v>
+        <v>4.33</v>
       </c>
       <c r="I52" t="n">
-        <v>2.15</v>
+        <v>6.5</v>
       </c>
       <c r="J52" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K52" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L52" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="M52" t="n">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="N52" t="n">
-        <v>1.83</v>
+        <v>1.62</v>
       </c>
       <c r="O52" t="n">
-        <v>2.03</v>
+        <v>2.25</v>
       </c>
       <c r="P52" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="Q52" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="R52" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="S52" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="T52" t="n">
+        <v>8</v>
+      </c>
+      <c r="U52" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W52" t="n">
+        <v>10</v>
+      </c>
+      <c r="X52" t="n">
         <v>11</v>
       </c>
-      <c r="U52" t="n">
+      <c r="Y52" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB52" t="n">
         <v>17</v>
       </c>
-      <c r="V52" t="n">
-        <v>11</v>
-      </c>
-      <c r="W52" t="n">
+      <c r="AC52" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>251</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF52" t="n">
         <v>34</v>
       </c>
-      <c r="X52" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y52" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z52" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA52" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB52" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC52" t="n">
+      <c r="AG52" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>67</v>
+      </c>
+      <c r="AI52" t="n">
         <v>41</v>
       </c>
-      <c r="AD52" t="n">
-        <v>151</v>
-      </c>
-      <c r="AE52" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AF52" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG52" t="n">
-        <v>9</v>
-      </c>
-      <c r="AH52" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI52" t="n">
-        <v>17</v>
-      </c>
       <c r="AJ52" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>KxZvhSAb</t>
+          <t>zFGUpbFF</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -5826,119 +5946,119 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>USA - MLS</t>
+          <t>SWITZERLAND - SUPER LEAGUE</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>DC United</t>
+          <t>Grasshoppers</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>New York City</t>
+          <t>Yverdon</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H53" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="I53" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="J53" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="K53" t="n">
-        <v>15</v>
+        <v>9.5</v>
       </c>
       <c r="L53" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="M53" t="n">
-        <v>4.33</v>
+        <v>3.4</v>
       </c>
       <c r="N53" t="n">
-        <v>1.67</v>
+        <v>2.03</v>
       </c>
       <c r="O53" t="n">
-        <v>2.15</v>
+        <v>1.78</v>
       </c>
       <c r="P53" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="Q53" t="n">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="R53" t="n">
-        <v>1.57</v>
+        <v>1.8</v>
       </c>
       <c r="S53" t="n">
-        <v>2.25</v>
+        <v>1.91</v>
       </c>
       <c r="T53" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U53" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V53" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W53" t="n">
         <v>21</v>
       </c>
       <c r="X53" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y53" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="Z53" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>251</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AF53" t="n">
         <v>15</v>
       </c>
-      <c r="AA53" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB53" t="n">
+      <c r="AG53" t="n">
         <v>12</v>
       </c>
-      <c r="AC53" t="n">
-        <v>41</v>
-      </c>
-      <c r="AD53" t="n">
-        <v>151</v>
-      </c>
-      <c r="AE53" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF53" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG53" t="n">
-        <v>11</v>
-      </c>
       <c r="AH53" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI53" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AJ53" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>fe5MZpeU</t>
+          <t>vmNLnKp3</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -5948,119 +6068,119 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>USA - MLS</t>
+          <t>SWITZERLAND - SUPER LEAGUE</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Orlando City</t>
+          <t>Lausanne</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Charlotte</t>
+          <t>Basel</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.75</v>
+        <v>2.63</v>
       </c>
       <c r="H54" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="I54" t="n">
-        <v>4.2</v>
+        <v>2.45</v>
       </c>
       <c r="J54" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K54" t="n">
+        <v>17</v>
+      </c>
+      <c r="L54" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="O54" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="P54" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R54" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S54" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="T54" t="n">
         <v>13</v>
       </c>
-      <c r="L54" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="M54" t="n">
-        <v>4</v>
-      </c>
-      <c r="N54" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="O54" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="P54" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="R54" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S54" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="T54" t="n">
-        <v>8</v>
-      </c>
       <c r="U54" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="V54" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="W54" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="X54" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Y54" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z54" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AA54" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB54" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AC54" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AD54" t="n">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="AE54" t="n">
         <v>13</v>
       </c>
       <c r="AF54" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AG54" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AH54" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AI54" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="AJ54" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>YuHDy7QH</t>
+          <t>OAuWgltn</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -6080,76 +6200,76 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Philadelphia Union</t>
+          <t>CF Montreal</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Los Angeles Galaxy</t>
+          <t>Columbus Crew</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.65</v>
+        <v>3.1</v>
       </c>
       <c r="H55" t="n">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="I55" t="n">
-        <v>4.5</v>
+        <v>2.15</v>
       </c>
       <c r="J55" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K55" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="L55" t="n">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="M55" t="n">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="N55" t="n">
-        <v>1.57</v>
+        <v>1.85</v>
       </c>
       <c r="O55" t="n">
-        <v>2.35</v>
+        <v>2</v>
       </c>
       <c r="P55" t="n">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="Q55" t="n">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="R55" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="S55" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="T55" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U55" t="n">
-        <v>9.5</v>
+        <v>15</v>
       </c>
       <c r="V55" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="W55" t="n">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="X55" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z55" t="n">
         <v>12</v>
       </c>
-      <c r="Y55" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z55" t="n">
-        <v>17</v>
-      </c>
       <c r="AA55" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="AB55" t="n">
         <v>13</v>
@@ -6158,31 +6278,31 @@
         <v>41</v>
       </c>
       <c r="AD55" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AE55" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI55" t="n">
         <v>17</v>
       </c>
-      <c r="AF55" t="n">
+      <c r="AJ55" t="n">
         <v>26</v>
-      </c>
-      <c r="AG55" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH55" t="n">
-        <v>51</v>
-      </c>
-      <c r="AI55" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ55" t="n">
-        <v>34</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>QFD5wTe5</t>
+          <t>KxZvhSAb</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -6202,100 +6322,100 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Toronto FC</t>
+          <t>DC United</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>FC Cincinnati</t>
+          <t>New York City</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="H56" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I56" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J56" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K56" t="n">
+        <v>15</v>
+      </c>
+      <c r="L56" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="N56" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="O56" t="n">
         <v>2.2</v>
       </c>
-      <c r="J56" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="K56" t="n">
-        <v>12</v>
-      </c>
-      <c r="L56" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M56" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="N56" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="O56" t="n">
-        <v>1.98</v>
-      </c>
       <c r="P56" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="Q56" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="R56" t="n">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="S56" t="n">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="T56" t="n">
         <v>10</v>
       </c>
       <c r="U56" t="n">
+        <v>13</v>
+      </c>
+      <c r="V56" t="n">
+        <v>9</v>
+      </c>
+      <c r="W56" t="n">
+        <v>21</v>
+      </c>
+      <c r="X56" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z56" t="n">
         <v>15</v>
-      </c>
-      <c r="V56" t="n">
-        <v>11</v>
-      </c>
-      <c r="W56" t="n">
-        <v>34</v>
-      </c>
-      <c r="X56" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y56" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z56" t="n">
-        <v>12</v>
       </c>
       <c r="AA56" t="n">
         <v>7</v>
       </c>
       <c r="AB56" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AC56" t="n">
         <v>41</v>
       </c>
       <c r="AD56" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="AE56" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="AF56" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG56" t="n">
         <v>11</v>
       </c>
-      <c r="AG56" t="n">
-        <v>9</v>
-      </c>
       <c r="AH56" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI56" t="n">
         <v>21</v>
-      </c>
-      <c r="AI56" t="n">
-        <v>17</v>
       </c>
       <c r="AJ56" t="n">
         <v>26</v>
@@ -6304,7 +6424,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>pv9D6RPi</t>
+          <t>fe5MZpeU</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -6314,7 +6434,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -6324,40 +6444,40 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Austin FC</t>
+          <t>Orlando City</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Atlanta Utd</t>
+          <t>Charlotte</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="H57" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="I57" t="n">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="J57" t="n">
         <v>1.04</v>
       </c>
       <c r="K57" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L57" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M57" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N57" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="O57" t="n">
-        <v>2.03</v>
+        <v>2.08</v>
       </c>
       <c r="P57" t="n">
         <v>1.33</v>
@@ -6372,28 +6492,28 @@
         <v>2.05</v>
       </c>
       <c r="T57" t="n">
+        <v>8</v>
+      </c>
+      <c r="U57" t="n">
+        <v>9</v>
+      </c>
+      <c r="V57" t="n">
         <v>8.5</v>
       </c>
-      <c r="U57" t="n">
-        <v>11</v>
-      </c>
-      <c r="V57" t="n">
-        <v>9</v>
-      </c>
       <c r="W57" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="X57" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="Y57" t="n">
         <v>23</v>
       </c>
       <c r="Z57" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA57" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB57" t="n">
         <v>15</v>
@@ -6405,28 +6525,28 @@
         <v>201</v>
       </c>
       <c r="AE57" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AF57" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AG57" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AH57" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI57" t="n">
         <v>34</v>
       </c>
-      <c r="AI57" t="n">
-        <v>23</v>
-      </c>
       <c r="AJ57" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>4rWQrOXp</t>
+          <t>YuHDy7QH</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -6436,7 +6556,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -6446,109 +6566,109 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Houston Dynamo</t>
+          <t>Philadelphia Union</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Minnesota United</t>
+          <t>Los Angeles Galaxy</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.5</v>
+        <v>1.65</v>
       </c>
       <c r="H58" t="n">
-        <v>3.25</v>
+        <v>4.1</v>
       </c>
       <c r="I58" t="n">
-        <v>2.8</v>
+        <v>4.75</v>
       </c>
       <c r="J58" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K58" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L58" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="N58" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="O58" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="P58" t="n">
         <v>1.29</v>
       </c>
-      <c r="M58" t="n">
+      <c r="Q58" t="n">
         <v>3.5</v>
       </c>
-      <c r="N58" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="O58" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="P58" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>3</v>
-      </c>
       <c r="R58" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S58" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T58" t="n">
         <v>9</v>
       </c>
       <c r="U58" t="n">
+        <v>9</v>
+      </c>
+      <c r="V58" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W58" t="n">
+        <v>13</v>
+      </c>
+      <c r="X58" t="n">
         <v>12</v>
       </c>
-      <c r="V58" t="n">
-        <v>10</v>
-      </c>
-      <c r="W58" t="n">
-        <v>23</v>
-      </c>
-      <c r="X58" t="n">
-        <v>19</v>
-      </c>
       <c r="Y58" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="Z58" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AA58" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AB58" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC58" t="n">
         <v>41</v>
       </c>
       <c r="AD58" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE58" t="n">
-        <v>9.5</v>
+        <v>17</v>
       </c>
       <c r="AF58" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG58" t="n">
         <v>15</v>
       </c>
-      <c r="AG58" t="n">
-        <v>11</v>
-      </c>
       <c r="AH58" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AI58" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AJ58" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>lIQelpAN</t>
+          <t>QFD5wTe5</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -6558,7 +6678,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -6568,22 +6688,22 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Nashville SC</t>
+          <t>Toronto FC</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>New York Red Bulls</t>
+          <t>FC Cincinnati</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.85</v>
+        <v>2.8</v>
       </c>
       <c r="H59" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="I59" t="n">
-        <v>3.7</v>
+        <v>2.38</v>
       </c>
       <c r="J59" t="n">
         <v>1.05</v>
@@ -6610,67 +6730,67 @@
         <v>3</v>
       </c>
       <c r="R59" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S59" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T59" t="n">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="U59" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="V59" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="W59" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="X59" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Y59" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z59" t="n">
         <v>11</v>
       </c>
       <c r="AA59" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AB59" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AC59" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD59" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE59" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="AF59" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI59" t="n">
         <v>19</v>
       </c>
-      <c r="AG59" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH59" t="n">
-        <v>41</v>
-      </c>
-      <c r="AI59" t="n">
-        <v>29</v>
-      </c>
       <c r="AJ59" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>hjXnj6uB</t>
+          <t>4rWQrOXp</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -6680,7 +6800,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>21:45</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -6690,109 +6810,109 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>St. Louis City</t>
+          <t>Houston Dynamo</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Sporting Kansas City</t>
+          <t>Minnesota United</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="H60" t="n">
-        <v>3.9</v>
+        <v>3.25</v>
       </c>
       <c r="I60" t="n">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="J60" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="K60" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="L60" t="n">
-        <v>1.18</v>
+        <v>1.3</v>
       </c>
       <c r="M60" t="n">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="N60" t="n">
-        <v>1.6</v>
+        <v>2.03</v>
       </c>
       <c r="O60" t="n">
-        <v>2.3</v>
+        <v>1.83</v>
       </c>
       <c r="P60" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="Q60" t="n">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="R60" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="S60" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T60" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="U60" t="n">
+        <v>12</v>
+      </c>
+      <c r="V60" t="n">
         <v>10</v>
       </c>
-      <c r="U60" t="n">
-        <v>11</v>
-      </c>
-      <c r="V60" t="n">
-        <v>9</v>
-      </c>
       <c r="W60" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="X60" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="Y60" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="Z60" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="AA60" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="AB60" t="n">
         <v>13</v>
       </c>
       <c r="AC60" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD60" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="AE60" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF60" t="n">
         <v>13</v>
       </c>
-      <c r="AF60" t="n">
-        <v>19</v>
-      </c>
       <c r="AG60" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH60" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AI60" t="n">
         <v>23</v>
       </c>
       <c r="AJ60" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>h4CL45f4</t>
+          <t>lIQelpAN</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -6802,7 +6922,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>22:30</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -6812,109 +6932,109 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Real Salt Lake</t>
+          <t>Nashville SC</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Portland Timbers</t>
+          <t>New York Red Bulls</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="H61" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="I61" t="n">
         <v>3.7</v>
       </c>
       <c r="J61" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K61" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L61" t="n">
-        <v>1.17</v>
+        <v>1.29</v>
       </c>
       <c r="M61" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="N61" t="n">
-        <v>1.57</v>
+        <v>1.93</v>
       </c>
       <c r="O61" t="n">
-        <v>2.35</v>
+        <v>1.93</v>
       </c>
       <c r="P61" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="Q61" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="R61" t="n">
-        <v>1.53</v>
+        <v>1.8</v>
       </c>
       <c r="S61" t="n">
-        <v>2.38</v>
+        <v>1.95</v>
       </c>
       <c r="T61" t="n">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="U61" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="V61" t="n">
         <v>8.5</v>
       </c>
       <c r="W61" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X61" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y61" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="Z61" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AA61" t="n">
         <v>7.5</v>
       </c>
       <c r="AB61" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>251</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG61" t="n">
         <v>12</v>
-      </c>
-      <c r="AC61" t="n">
-        <v>34</v>
-      </c>
-      <c r="AD61" t="n">
-        <v>126</v>
-      </c>
-      <c r="AE61" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF61" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG61" t="n">
-        <v>13</v>
       </c>
       <c r="AH61" t="n">
         <v>41</v>
       </c>
       <c r="AI61" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ61" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>4471e1Hj</t>
+          <t>hjXnj6uB</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -6924,7 +7044,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>23:30</t>
+          <t>21:45</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -6934,46 +7054,46 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Los Angeles FC</t>
+          <t>St. Louis City</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Seattle Sounders</t>
+          <t>Sporting Kansas City</t>
         </is>
       </c>
       <c r="G62" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H62" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I62" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J62" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K62" t="n">
+        <v>15</v>
+      </c>
+      <c r="L62" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="N62" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="O62" t="n">
         <v>2.25</v>
       </c>
-      <c r="H62" t="n">
+      <c r="P62" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Q62" t="n">
         <v>3.5</v>
-      </c>
-      <c r="I62" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="J62" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="K62" t="n">
-        <v>13</v>
-      </c>
-      <c r="L62" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="M62" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="N62" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="O62" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="P62" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Q62" t="n">
-        <v>3.4</v>
       </c>
       <c r="R62" t="n">
         <v>1.57</v>
@@ -6982,61 +7102,61 @@
         <v>2.25</v>
       </c>
       <c r="T62" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="U62" t="n">
+        <v>11</v>
+      </c>
+      <c r="V62" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W62" t="n">
+        <v>17</v>
+      </c>
+      <c r="X62" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB62" t="n">
         <v>13</v>
-      </c>
-      <c r="V62" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="W62" t="n">
-        <v>21</v>
-      </c>
-      <c r="X62" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y62" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z62" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA62" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB62" t="n">
-        <v>12</v>
       </c>
       <c r="AC62" t="n">
         <v>41</v>
       </c>
       <c r="AD62" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AE62" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AF62" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AG62" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH62" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI62" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ62" t="n">
         <v>29</v>
-      </c>
-      <c r="AI62" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ62" t="n">
-        <v>26</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Mq4x1NgT</t>
+          <t>pv9D6RPi</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -7046,7 +7166,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>23:30</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -7056,100 +7176,100 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>San Diego FC</t>
+          <t>Austin FC</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Colorado Rapids</t>
+          <t>Atlanta Utd</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="H63" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I63" t="n">
+        <v>3</v>
+      </c>
+      <c r="J63" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K63" t="n">
+        <v>13</v>
+      </c>
+      <c r="L63" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M63" t="n">
         <v>4</v>
       </c>
-      <c r="I63" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="K63" t="n">
+      <c r="N63" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="O63" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="P63" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R63" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S63" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T63" t="n">
+        <v>9</v>
+      </c>
+      <c r="U63" t="n">
+        <v>11</v>
+      </c>
+      <c r="V63" t="n">
+        <v>9</v>
+      </c>
+      <c r="W63" t="n">
+        <v>19</v>
+      </c>
+      <c r="X63" t="n">
         <v>17</v>
       </c>
-      <c r="L63" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="M63" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="N63" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="O63" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="P63" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Q63" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="R63" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S63" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="T63" t="n">
-        <v>10</v>
-      </c>
-      <c r="U63" t="n">
-        <v>10</v>
-      </c>
-      <c r="V63" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="W63" t="n">
+      <c r="Y63" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB63" t="n">
         <v>15</v>
       </c>
-      <c r="X63" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y63" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z63" t="n">
+      <c r="AC63" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>151</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF63" t="n">
         <v>17</v>
       </c>
-      <c r="AA63" t="n">
-        <v>8</v>
-      </c>
-      <c r="AB63" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC63" t="n">
+      <c r="AG63" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH63" t="n">
         <v>34</v>
       </c>
-      <c r="AD63" t="n">
-        <v>101</v>
-      </c>
-      <c r="AE63" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF63" t="n">
-        <v>26</v>
-      </c>
-      <c r="AG63" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH63" t="n">
-        <v>51</v>
-      </c>
       <c r="AI63" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AJ63" t="n">
         <v>29</v>
@@ -7158,7 +7278,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>lW5U2qPG</t>
+          <t>h4CL45f4</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -7168,7 +7288,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>23:30</t>
+          <t>22:30</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -7178,166 +7298,592 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>San Jose Earthquakes</t>
+          <t>Real Salt Lake</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Inter Miami</t>
+          <t>Portland Timbers</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.45</v>
+        <v>1.95</v>
       </c>
       <c r="H64" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="I64" t="n">
-        <v>2.55</v>
+        <v>3.6</v>
       </c>
       <c r="J64" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K64" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="L64" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="M64" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="N64" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="O64" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="P64" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="Q64" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="R64" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="S64" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="T64" t="n">
+        <v>10</v>
+      </c>
+      <c r="U64" t="n">
+        <v>11</v>
+      </c>
+      <c r="V64" t="n">
+        <v>9</v>
+      </c>
+      <c r="W64" t="n">
+        <v>19</v>
+      </c>
+      <c r="X64" t="n">
         <v>13</v>
-      </c>
-      <c r="U64" t="n">
-        <v>17</v>
-      </c>
-      <c r="V64" t="n">
-        <v>10</v>
-      </c>
-      <c r="W64" t="n">
-        <v>26</v>
-      </c>
-      <c r="X64" t="n">
-        <v>17</v>
       </c>
       <c r="Y64" t="n">
         <v>21</v>
       </c>
       <c r="Z64" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AA64" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AB64" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC64" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AD64" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AE64" t="n">
         <v>15</v>
       </c>
       <c r="AF64" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AG64" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AH64" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI64" t="n">
         <v>26</v>
       </c>
-      <c r="AI64" t="n">
-        <v>17</v>
-      </c>
       <c r="AJ64" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
+          <t>4471e1Hj</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>14/05/2025</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>23:30</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>USA - MLS</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Los Angeles FC</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Seattle Sounders</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H65" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I65" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J65" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="K65" t="n">
+        <v>10</v>
+      </c>
+      <c r="L65" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M65" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="N65" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="O65" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="P65" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R65" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S65" t="n">
+        <v>2</v>
+      </c>
+      <c r="T65" t="n">
+        <v>8</v>
+      </c>
+      <c r="U65" t="n">
+        <v>11</v>
+      </c>
+      <c r="V65" t="n">
+        <v>9</v>
+      </c>
+      <c r="W65" t="n">
+        <v>21</v>
+      </c>
+      <c r="X65" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB65" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD65" t="n">
+        <v>201</v>
+      </c>
+      <c r="AE65" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF65" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG65" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH65" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI65" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ65" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Mq4x1NgT</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>14/05/2025</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>23:30</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>USA - MLS</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>San Diego FC</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Colorado Rapids</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H66" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I66" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J66" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K66" t="n">
+        <v>19</v>
+      </c>
+      <c r="L66" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="N66" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O66" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="P66" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R66" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S66" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="T66" t="n">
+        <v>10</v>
+      </c>
+      <c r="U66" t="n">
+        <v>10</v>
+      </c>
+      <c r="V66" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W66" t="n">
+        <v>15</v>
+      </c>
+      <c r="X66" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB66" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD66" t="n">
+        <v>126</v>
+      </c>
+      <c r="AE66" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF66" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG66" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH66" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI66" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ66" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>lW5U2qPG</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>14/05/2025</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>23:30</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>USA - MLS</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>San Jose Earthquakes</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Inter Miami</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H67" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I67" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K67" t="n">
+        <v>21</v>
+      </c>
+      <c r="L67" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="N67" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="O67" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="P67" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R67" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S67" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="T67" t="n">
+        <v>13</v>
+      </c>
+      <c r="U67" t="n">
+        <v>17</v>
+      </c>
+      <c r="V67" t="n">
+        <v>10</v>
+      </c>
+      <c r="W67" t="n">
+        <v>26</v>
+      </c>
+      <c r="X67" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB67" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>29</v>
+      </c>
+      <c r="AD67" t="n">
+        <v>81</v>
+      </c>
+      <c r="AE67" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF67" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG67" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH67" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI67" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ67" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
           <t>4OXO4sJU</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B68" t="inlineStr">
         <is>
           <t>14/05/2025</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="C68" t="inlineStr">
         <is>
           <t>21:00</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="D68" t="inlineStr">
         <is>
           <t>USA - USL CHAMPIONSHIP</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>Birmingham</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>Rhode Island</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr"/>
-      <c r="H65" t="inlineStr"/>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="inlineStr"/>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="inlineStr"/>
-      <c r="T65" t="inlineStr"/>
-      <c r="U65" t="inlineStr"/>
-      <c r="V65" t="inlineStr"/>
-      <c r="W65" t="inlineStr"/>
-      <c r="X65" t="inlineStr"/>
-      <c r="Y65" t="inlineStr"/>
-      <c r="Z65" t="inlineStr"/>
-      <c r="AA65" t="inlineStr"/>
-      <c r="AB65" t="inlineStr"/>
-      <c r="AC65" t="inlineStr"/>
-      <c r="AD65" t="inlineStr"/>
-      <c r="AE65" t="inlineStr"/>
-      <c r="AF65" t="inlineStr"/>
-      <c r="AG65" t="inlineStr"/>
-      <c r="AH65" t="inlineStr"/>
-      <c r="AI65" t="inlineStr"/>
-      <c r="AJ65" t="inlineStr"/>
+      <c r="G68" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="H68" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I68" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="J68" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K68" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="L68" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="M68" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="N68" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="O68" t="n">
+        <v>2</v>
+      </c>
+      <c r="P68" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="R68" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S68" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="T68" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="U68" t="n">
+        <v>13</v>
+      </c>
+      <c r="V68" t="n">
+        <v>9</v>
+      </c>
+      <c r="W68" t="n">
+        <v>25</v>
+      </c>
+      <c r="X68" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AA68" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AB68" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC68" t="n">
+        <v>45</v>
+      </c>
+      <c r="AD68" t="n">
+        <v>300</v>
+      </c>
+      <c r="AE68" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AF68" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG68" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH68" t="n">
+        <v>35</v>
+      </c>
+      <c r="AI68" t="n">
+        <v>22</v>
+      </c>
+      <c r="AJ68" t="n">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_2025-05-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-14.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ68"/>
+  <dimension ref="A1:AJ66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -769,13 +769,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H3" t="n">
         <v>3.5</v>
       </c>
       <c r="I3" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J3" t="n">
         <v>1.04</v>
@@ -811,10 +811,10 @@
         <v>10</v>
       </c>
       <c r="U3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W3" t="n">
         <v>21</v>
@@ -838,7 +838,7 @@
         <v>41</v>
       </c>
       <c r="AD3" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AE3" t="n">
         <v>12</v>
@@ -850,7 +850,7 @@
         <v>11</v>
       </c>
       <c r="AH3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI3" t="n">
         <v>21</v>
@@ -1034,10 +1034,10 @@
         <v>5.5</v>
       </c>
       <c r="N5" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="O5" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="P5" t="n">
         <v>1.25</v>
@@ -1135,13 +1135,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="H6" t="n">
         <v>4.2</v>
       </c>
       <c r="I6" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="J6" t="n">
         <v>1.03</v>
@@ -1177,7 +1177,7 @@
         <v>17</v>
       </c>
       <c r="U6" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="V6" t="n">
         <v>15</v>
@@ -1207,10 +1207,10 @@
         <v>151</v>
       </c>
       <c r="AE6" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF6" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AG6" t="n">
         <v>8.5</v>
@@ -1257,7 +1257,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="H7" t="n">
         <v>3.7</v>
@@ -1379,7 +1379,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="H8" t="n">
         <v>12</v>
@@ -1412,10 +1412,10 @@
         <v>6</v>
       </c>
       <c r="R8" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S8" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T8" t="n">
         <v>15</v>
@@ -1454,7 +1454,7 @@
         <v>51</v>
       </c>
       <c r="AF8" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AG8" t="n">
         <v>51</v>
@@ -1463,10 +1463,10 @@
         <v>501</v>
       </c>
       <c r="AI8" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AJ8" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9">
@@ -1501,13 +1501,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="H9" t="n">
         <v>3.5</v>
       </c>
       <c r="I9" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="J9" t="n">
         <v>1.04</v>
@@ -1528,10 +1528,10 @@
         <v>2.1</v>
       </c>
       <c r="P9" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="R9" t="n">
         <v>1.57</v>
@@ -1671,7 +1671,7 @@
         <v>8.5</v>
       </c>
       <c r="W10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X10" t="n">
         <v>13</v>
@@ -1876,10 +1876,10 @@
         <v>3.6</v>
       </c>
       <c r="J12" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L12" t="n">
         <v>1.44</v>
@@ -1888,28 +1888,28 @@
         <v>2.75</v>
       </c>
       <c r="N12" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="O12" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="P12" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R12" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S12" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T12" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U12" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V12" t="n">
         <v>9.5</v>
@@ -1924,7 +1924,7 @@
         <v>34</v>
       </c>
       <c r="Z12" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA12" t="n">
         <v>6</v>
@@ -1933,10 +1933,10 @@
         <v>17</v>
       </c>
       <c r="AC12" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD12" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AE12" t="n">
         <v>9</v>
@@ -1989,10 +1989,10 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="H13" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="I13" t="n">
         <v>9</v>
@@ -2016,10 +2016,10 @@
         <v>2.38</v>
       </c>
       <c r="P13" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="Q13" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="R13" t="n">
         <v>1.95</v>
@@ -2028,7 +2028,7 @@
         <v>1.8</v>
       </c>
       <c r="T13" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U13" t="n">
         <v>7</v>
@@ -2043,10 +2043,10 @@
         <v>11</v>
       </c>
       <c r="Y13" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z13" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA13" t="n">
         <v>10</v>
@@ -2126,10 +2126,10 @@
         <v>15</v>
       </c>
       <c r="L14" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="M14" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N14" t="n">
         <v>1.57</v>
@@ -2138,10 +2138,10 @@
         <v>2.38</v>
       </c>
       <c r="P14" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="Q14" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="R14" t="n">
         <v>1.95</v>
@@ -2156,7 +2156,7 @@
         <v>7</v>
       </c>
       <c r="V14" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W14" t="n">
         <v>8.5</v>
@@ -2165,10 +2165,10 @@
         <v>11</v>
       </c>
       <c r="Y14" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z14" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA14" t="n">
         <v>10</v>
@@ -2233,13 +2233,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="H15" t="n">
         <v>3.3</v>
       </c>
       <c r="I15" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="J15" t="n">
         <v>1.07</v>
@@ -2254,10 +2254,10 @@
         <v>3</v>
       </c>
       <c r="N15" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O15" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="P15" t="n">
         <v>1.44</v>
@@ -2275,13 +2275,13 @@
         <v>7</v>
       </c>
       <c r="U15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V15" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W15" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X15" t="n">
         <v>21</v>
@@ -2305,22 +2305,22 @@
         <v>351</v>
       </c>
       <c r="AE15" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG15" t="n">
         <v>11</v>
       </c>
       <c r="AH15" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI15" t="n">
         <v>26</v>
       </c>
       <c r="AJ15" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16">
@@ -2355,19 +2355,19 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="H16" t="n">
         <v>3.1</v>
       </c>
       <c r="I16" t="n">
-        <v>2.55</v>
+        <v>2.35</v>
       </c>
       <c r="J16" t="n">
         <v>1.08</v>
       </c>
       <c r="K16" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L16" t="n">
         <v>1.4</v>
@@ -2394,19 +2394,19 @@
         <v>1.73</v>
       </c>
       <c r="T16" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W16" t="n">
+        <v>34</v>
+      </c>
+      <c r="X16" t="n">
         <v>29</v>
-      </c>
-      <c r="X16" t="n">
-        <v>26</v>
       </c>
       <c r="Y16" t="n">
         <v>41</v>
@@ -2427,22 +2427,22 @@
         <v>351</v>
       </c>
       <c r="AE16" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AF16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG16" t="n">
         <v>10</v>
       </c>
       <c r="AH16" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AI16" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ16" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17">
@@ -2599,94 +2599,94 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="H18" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="I18" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="J18" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K18" t="n">
-        <v>7.9</v>
+        <v>7.5</v>
       </c>
       <c r="L18" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="M18" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="N18" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="O18" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="P18" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.8</v>
+        <v>2.72</v>
       </c>
       <c r="R18" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S18" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="T18" t="n">
-        <v>6.5</v>
+        <v>6.1</v>
       </c>
       <c r="U18" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="V18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W18" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="X18" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AA18" t="n">
         <v>8.25</v>
       </c>
-      <c r="W18" t="n">
-        <v>9</v>
-      </c>
-      <c r="X18" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AB18" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AC18" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AD18" t="n">
         <v>900</v>
       </c>
       <c r="AE18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF18" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AG18" t="n">
         <v>22</v>
       </c>
       <c r="AH18" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AI18" t="n">
         <v>80</v>
       </c>
       <c r="AJ18" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19">
@@ -2842,36 +2842,90 @@
           <t>Cumbaya</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
+      <c r="G20" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2.6</v>
+      </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr"/>
-      <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr"/>
-      <c r="V20" t="inlineStr"/>
-      <c r="W20" t="inlineStr"/>
-      <c r="X20" t="inlineStr"/>
-      <c r="Y20" t="inlineStr"/>
-      <c r="Z20" t="inlineStr"/>
-      <c r="AA20" t="inlineStr"/>
-      <c r="AB20" t="inlineStr"/>
-      <c r="AC20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="N20" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R20" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="T20" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="U20" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="W20" t="n">
+        <v>40</v>
+      </c>
+      <c r="X20" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>55</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>120</v>
+      </c>
       <c r="AD20" t="inlineStr"/>
-      <c r="AE20" t="inlineStr"/>
-      <c r="AF20" t="inlineStr"/>
-      <c r="AG20" t="inlineStr"/>
-      <c r="AH20" t="inlineStr"/>
-      <c r="AI20" t="inlineStr"/>
-      <c r="AJ20" t="inlineStr"/>
+      <c r="AE20" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>28</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2976,22 +3030,22 @@
         <v>3.8</v>
       </c>
       <c r="J22" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="K22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L22" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="M22" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N22" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="O22" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="P22" t="n">
         <v>1.36</v>
@@ -3151,13 +3205,13 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="H24" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I24" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J24" t="n">
         <v>1.11</v>
@@ -3202,10 +3256,10 @@
         <v>15</v>
       </c>
       <c r="X24" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y24" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z24" t="n">
         <v>7</v>
@@ -3214,7 +3268,7 @@
         <v>6.5</v>
       </c>
       <c r="AB24" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC24" t="n">
         <v>81</v>
@@ -3224,7 +3278,7 @@
         <v>10</v>
       </c>
       <c r="AF24" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG24" t="n">
         <v>17</v>
@@ -3292,10 +3346,10 @@
         <v>3.25</v>
       </c>
       <c r="N25" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="O25" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="P25" t="n">
         <v>1.44</v>
@@ -3322,7 +3376,7 @@
         <v>13</v>
       </c>
       <c r="X25" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y25" t="n">
         <v>26</v>
@@ -3393,92 +3447,92 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="H26" t="n">
-        <v>4.75</v>
+        <v>7</v>
       </c>
       <c r="I26" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="J26" t="n">
         <v>1.05</v>
       </c>
       <c r="K26" t="n">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="L26" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="M26" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="N26" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="O26" t="n">
-        <v>1.95</v>
+        <v>2.08</v>
       </c>
       <c r="P26" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.77</v>
+        <v>2.87</v>
       </c>
       <c r="R26" t="n">
-        <v>2.15</v>
+        <v>2.62</v>
       </c>
       <c r="S26" t="n">
-        <v>1.62</v>
+        <v>1.44</v>
       </c>
       <c r="T26" t="n">
         <v>6</v>
       </c>
       <c r="U26" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="V26" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="W26" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="X26" t="n">
         <v>13</v>
       </c>
       <c r="Y26" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z26" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AA26" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AB26" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AC26" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="AD26" t="inlineStr"/>
       <c r="AE26" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF26" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG26" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AH26" t="n">
+        <v>301</v>
+      </c>
+      <c r="AI26" t="n">
         <v>151</v>
       </c>
-      <c r="AI26" t="n">
-        <v>81</v>
-      </c>
       <c r="AJ26" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27">
@@ -3823,19 +3877,19 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="H32" t="n">
         <v>3.5</v>
       </c>
       <c r="I32" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J32" t="n">
         <v>1.07</v>
       </c>
       <c r="K32" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L32" t="n">
         <v>1.36</v>
@@ -3844,10 +3898,10 @@
         <v>3</v>
       </c>
       <c r="N32" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O32" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="P32" t="n">
         <v>1.44</v>
@@ -3865,7 +3919,7 @@
         <v>6.5</v>
       </c>
       <c r="U32" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="V32" t="n">
         <v>9</v>
@@ -3898,10 +3952,10 @@
         <v>10</v>
       </c>
       <c r="AF32" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG32" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH32" t="n">
         <v>41</v>
@@ -4162,7 +4216,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>zelrN2kn</t>
+          <t>hbHcd81K</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -4172,22 +4226,22 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA MX</t>
+          <t>PARAGUAY - DIVISION INTERMEDIA</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Cruz Azul</t>
+          <t>Dep. Capiata</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Club America</t>
+          <t>Guarani de Fram</t>
         </is>
       </c>
       <c r="G36" t="inlineStr"/>
@@ -4224,7 +4278,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>AD2QZuZi</t>
+          <t>xWhUjnPs</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -4234,22 +4288,22 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA MX</t>
+          <t>PARAGUAY - DIVISION INTERMEDIA</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Tigres UANL</t>
+          <t>Independiente FBC</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Toluca</t>
+          <t>Tacuary</t>
         </is>
       </c>
       <c r="G37" t="inlineStr"/>
@@ -4286,7 +4340,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>hbHcd81K</t>
+          <t>z5gdr8dJ</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -4296,59 +4350,119 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>PARAGUAY - DIVISION INTERMEDIA</t>
+          <t>POLAND - EKSTRAKLASA</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Dep. Capiata</t>
+          <t>Pogon Szczecin</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Guarani de Fram</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr"/>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="inlineStr"/>
-      <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr"/>
-      <c r="V38" t="inlineStr"/>
-      <c r="W38" t="inlineStr"/>
-      <c r="X38" t="inlineStr"/>
-      <c r="Y38" t="inlineStr"/>
-      <c r="Z38" t="inlineStr"/>
-      <c r="AA38" t="inlineStr"/>
-      <c r="AB38" t="inlineStr"/>
-      <c r="AC38" t="inlineStr"/>
-      <c r="AD38" t="inlineStr"/>
-      <c r="AE38" t="inlineStr"/>
-      <c r="AF38" t="inlineStr"/>
-      <c r="AG38" t="inlineStr"/>
-      <c r="AH38" t="inlineStr"/>
-      <c r="AI38" t="inlineStr"/>
-      <c r="AJ38" t="inlineStr"/>
+          <t>Motor Lublin</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="H38" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="I38" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K38" t="n">
+        <v>17</v>
+      </c>
+      <c r="L38" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="O38" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="P38" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S38" t="n">
+        <v>2</v>
+      </c>
+      <c r="T38" t="n">
+        <v>9</v>
+      </c>
+      <c r="U38" t="n">
+        <v>8</v>
+      </c>
+      <c r="V38" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W38" t="n">
+        <v>10</v>
+      </c>
+      <c r="X38" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>201</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>67</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>xWhUjnPs</t>
+          <t>xI9orG3D</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -4358,59 +4472,119 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>PARAGUAY - DIVISION INTERMEDIA</t>
+          <t>PORTUGAL - LIGA PORTUGAL 2</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Independiente FBC</t>
+          <t>Leixoes</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Tacuary</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="inlineStr"/>
-      <c r="T39" t="inlineStr"/>
-      <c r="U39" t="inlineStr"/>
-      <c r="V39" t="inlineStr"/>
-      <c r="W39" t="inlineStr"/>
-      <c r="X39" t="inlineStr"/>
-      <c r="Y39" t="inlineStr"/>
-      <c r="Z39" t="inlineStr"/>
-      <c r="AA39" t="inlineStr"/>
-      <c r="AB39" t="inlineStr"/>
-      <c r="AC39" t="inlineStr"/>
-      <c r="AD39" t="inlineStr"/>
-      <c r="AE39" t="inlineStr"/>
-      <c r="AF39" t="inlineStr"/>
-      <c r="AG39" t="inlineStr"/>
-      <c r="AH39" t="inlineStr"/>
-      <c r="AI39" t="inlineStr"/>
-      <c r="AJ39" t="inlineStr"/>
+          <t>Feirense</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="H39" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I39" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="K39" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="L39" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M39" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="N39" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="R39" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S39" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="T39" t="n">
+        <v>8</v>
+      </c>
+      <c r="U39" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W39" t="n">
+        <v>26</v>
+      </c>
+      <c r="X39" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>55</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>400</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>45</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>z5gdr8dJ</t>
+          <t>4fhOZC23</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -4420,56 +4594,56 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>SCOTLAND - PREMIERSHIP</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Pogon Szczecin</t>
+          <t>Dundee FC</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Motor Lublin</t>
+          <t>Ross County</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="H40" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="I40" t="n">
-        <v>6.5</v>
+        <v>3.9</v>
       </c>
       <c r="J40" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="K40" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="L40" t="n">
-        <v>1.17</v>
+        <v>1.29</v>
       </c>
       <c r="M40" t="n">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="N40" t="n">
-        <v>1.53</v>
+        <v>1.88</v>
       </c>
       <c r="O40" t="n">
-        <v>2.4</v>
+        <v>1.98</v>
       </c>
       <c r="P40" t="n">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="Q40" t="n">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="R40" t="n">
         <v>1.75</v>
@@ -4478,61 +4652,61 @@
         <v>2</v>
       </c>
       <c r="T40" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U40" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="V40" t="n">
         <v>8.5</v>
       </c>
       <c r="W40" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="X40" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z40" t="n">
         <v>11</v>
       </c>
-      <c r="Y40" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z40" t="n">
-        <v>19</v>
-      </c>
       <c r="AA40" t="n">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="AB40" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC40" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD40" t="n">
         <v>201</v>
       </c>
       <c r="AE40" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF40" t="n">
         <v>21</v>
       </c>
-      <c r="AF40" t="n">
+      <c r="AG40" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH40" t="n">
         <v>41</v>
       </c>
-      <c r="AG40" t="n">
-        <v>19</v>
-      </c>
-      <c r="AH40" t="n">
-        <v>67</v>
-      </c>
       <c r="AI40" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AJ40" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>xI9orG3D</t>
+          <t>CKeWXjXF</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -4542,119 +4716,119 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL 2</t>
+          <t>SCOTLAND - PREMIERSHIP</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Leixoes</t>
+          <t>Hearts</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Feirense</t>
+          <t>St Johnstone</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.32</v>
+        <v>1.67</v>
       </c>
       <c r="H41" t="n">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="I41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J41" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K41" t="n">
-        <v>7.8</v>
+        <v>11</v>
       </c>
       <c r="L41" t="n">
         <v>1.29</v>
       </c>
       <c r="M41" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="N41" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="O41" t="n">
-        <v>1.88</v>
+        <v>1.98</v>
       </c>
       <c r="P41" t="n">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.72</v>
+        <v>3</v>
       </c>
       <c r="R41" t="n">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="S41" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="T41" t="n">
+        <v>7</v>
+      </c>
+      <c r="U41" t="n">
         <v>8</v>
       </c>
-      <c r="U41" t="n">
-        <v>12.5</v>
-      </c>
       <c r="V41" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="W41" t="n">
+        <v>13</v>
+      </c>
+      <c r="X41" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y41" t="n">
         <v>26</v>
       </c>
-      <c r="X41" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>29</v>
-      </c>
       <c r="Z41" t="n">
-        <v>7.8</v>
+        <v>11</v>
       </c>
       <c r="AA41" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AB41" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>251</v>
+      </c>
+      <c r="AE41" t="n">
         <v>13</v>
       </c>
-      <c r="AC41" t="n">
-        <v>55</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>400</v>
-      </c>
-      <c r="AE41" t="n">
-        <v>10</v>
-      </c>
       <c r="AF41" t="n">
-        <v>18.5</v>
+        <v>26</v>
       </c>
       <c r="AG41" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AH41" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="AI41" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AJ41" t="n">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>4fhOZC23</t>
+          <t>hU3vWU1S</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -4674,22 +4848,22 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Dundee FC</t>
+          <t>Motherwell</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Ross County</t>
+          <t>Kilmarnock</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.95</v>
+        <v>2.8</v>
       </c>
       <c r="H42" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="I42" t="n">
-        <v>3.75</v>
+        <v>2.55</v>
       </c>
       <c r="J42" t="n">
         <v>1.05</v>
@@ -4698,16 +4872,16 @@
         <v>11</v>
       </c>
       <c r="L42" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M42" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N42" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="O42" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="P42" t="n">
         <v>1.36</v>
@@ -4716,67 +4890,67 @@
         <v>3</v>
       </c>
       <c r="R42" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="S42" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T42" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="U42" t="n">
-        <v>9.5</v>
+        <v>15</v>
       </c>
       <c r="V42" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="W42" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="X42" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="Y42" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="Z42" t="n">
         <v>11</v>
       </c>
       <c r="AA42" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB42" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC42" t="n">
         <v>41</v>
       </c>
       <c r="AD42" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE42" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="AF42" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AG42" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AH42" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AI42" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AJ42" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>CKeWXjXF</t>
+          <t>l0kAQ8Pk</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -4796,100 +4970,100 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Hearts</t>
+          <t>Rangers</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>St Johnstone</t>
+          <t>Dundee Utd</t>
         </is>
       </c>
       <c r="G43" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+      <c r="I43" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K43" t="n">
+        <v>19</v>
+      </c>
+      <c r="L43" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="N43" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="O43" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="P43" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>4</v>
+      </c>
+      <c r="R43" t="n">
         <v>1.67</v>
       </c>
-      <c r="H43" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="I43" t="n">
-        <v>5</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="K43" t="n">
-        <v>11</v>
-      </c>
-      <c r="L43" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M43" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="N43" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="O43" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="P43" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>3</v>
-      </c>
-      <c r="R43" t="n">
-        <v>1.8</v>
-      </c>
       <c r="S43" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="T43" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="U43" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V43" t="n">
         <v>8.5</v>
       </c>
       <c r="W43" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="X43" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="Y43" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="Z43" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AA43" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="AB43" t="n">
         <v>17</v>
       </c>
       <c r="AC43" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>151</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>81</v>
+      </c>
+      <c r="AI43" t="n">
         <v>51</v>
-      </c>
-      <c r="AD43" t="n">
-        <v>251</v>
-      </c>
-      <c r="AE43" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF43" t="n">
-        <v>26</v>
-      </c>
-      <c r="AG43" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH43" t="n">
-        <v>51</v>
-      </c>
-      <c r="AI43" t="n">
-        <v>41</v>
       </c>
       <c r="AJ43" t="n">
         <v>41</v>
@@ -4898,7 +5072,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>hU3vWU1S</t>
+          <t>pSrJOnf2</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -4918,55 +5092,55 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Motherwell</t>
+          <t>St. Mirren</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Kilmarnock</t>
+          <t>Hibernian</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="H44" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I44" t="n">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="J44" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K44" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L44" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="M44" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="N44" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="O44" t="n">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="P44" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q44" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R44" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="S44" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T44" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="U44" t="n">
         <v>15</v>
@@ -4978,34 +5152,34 @@
         <v>29</v>
       </c>
       <c r="X44" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y44" t="n">
         <v>29</v>
       </c>
       <c r="Z44" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA44" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB44" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC44" t="n">
         <v>41</v>
       </c>
       <c r="AD44" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AE44" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG44" t="n">
         <v>9.5</v>
-      </c>
-      <c r="AF44" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG44" t="n">
-        <v>10</v>
       </c>
       <c r="AH44" t="n">
         <v>23</v>
@@ -5014,13 +5188,13 @@
         <v>19</v>
       </c>
       <c r="AJ44" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>l0kAQ8Pk</t>
+          <t>ObFyC9Ad</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -5030,7 +5204,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -5040,46 +5214,46 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Rangers</t>
+          <t>Aberdeen</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Dundee Utd</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.36</v>
+        <v>5.75</v>
       </c>
       <c r="H45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I45" t="n">
-        <v>7.5</v>
+        <v>1.57</v>
       </c>
       <c r="J45" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K45" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="L45" t="n">
-        <v>1.14</v>
+        <v>1.2</v>
       </c>
       <c r="M45" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="N45" t="n">
-        <v>1.44</v>
+        <v>1.62</v>
       </c>
       <c r="O45" t="n">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="P45" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="Q45" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="R45" t="n">
         <v>1.67</v>
@@ -5088,31 +5262,31 @@
         <v>2.1</v>
       </c>
       <c r="T45" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="U45" t="n">
-        <v>8.5</v>
+        <v>29</v>
       </c>
       <c r="V45" t="n">
-        <v>8.5</v>
+        <v>17</v>
       </c>
       <c r="W45" t="n">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="X45" t="n">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="Y45" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="Z45" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AA45" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AB45" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AC45" t="n">
         <v>41</v>
@@ -5121,28 +5295,28 @@
         <v>151</v>
       </c>
       <c r="AE45" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="AF45" t="n">
-        <v>41</v>
+        <v>8.5</v>
       </c>
       <c r="AG45" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ45" t="n">
         <v>21</v>
-      </c>
-      <c r="AH45" t="n">
-        <v>81</v>
-      </c>
-      <c r="AI45" t="n">
-        <v>51</v>
-      </c>
-      <c r="AJ45" t="n">
-        <v>41</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>pSrJOnf2</t>
+          <t>lSDKuqVG</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -5152,68 +5326,68 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>16:10</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>SCOTLAND - PREMIERSHIP</t>
+          <t>SCOTLAND - CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>St. Mirren</t>
+          <t>Cove Rangers</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Hibernian</t>
+          <t>Airdrieonians</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="H46" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I46" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="J46" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="K46" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L46" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="O46" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="P46" t="n">
         <v>1.3</v>
       </c>
-      <c r="M46" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="N46" t="n">
-        <v>2</v>
-      </c>
-      <c r="O46" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="P46" t="n">
-        <v>1.4</v>
-      </c>
       <c r="Q46" t="n">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="R46" t="n">
-        <v>1.75</v>
+        <v>1.57</v>
       </c>
       <c r="S46" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="T46" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="U46" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="V46" t="n">
         <v>11</v>
@@ -5222,28 +5396,28 @@
         <v>29</v>
       </c>
       <c r="X46" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y46" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="Z46" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AA46" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AB46" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC46" t="n">
         <v>41</v>
       </c>
       <c r="AD46" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="AE46" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AF46" t="n">
         <v>12</v>
@@ -5252,19 +5426,19 @@
         <v>9.5</v>
       </c>
       <c r="AH46" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ46" t="n">
         <v>23</v>
-      </c>
-      <c r="AI46" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ46" t="n">
-        <v>29</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ObFyC9Ad</t>
+          <t>tWe9gspm</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -5274,119 +5448,59 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>08:45</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>SCOTLAND - PREMIERSHIP</t>
+          <t>SINGAPORE - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Aberdeen</t>
+          <t>Lion City</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Celtic</t>
-        </is>
-      </c>
-      <c r="G47" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="H47" t="n">
-        <v>4</v>
-      </c>
-      <c r="I47" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="K47" t="n">
-        <v>15</v>
-      </c>
-      <c r="L47" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="M47" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="N47" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="O47" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="P47" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="R47" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S47" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="T47" t="n">
-        <v>19</v>
-      </c>
-      <c r="U47" t="n">
-        <v>29</v>
-      </c>
-      <c r="V47" t="n">
-        <v>17</v>
-      </c>
-      <c r="W47" t="n">
-        <v>51</v>
-      </c>
-      <c r="X47" t="n">
-        <v>41</v>
-      </c>
-      <c r="Y47" t="n">
-        <v>41</v>
-      </c>
-      <c r="Z47" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA47" t="n">
-        <v>8</v>
-      </c>
-      <c r="AB47" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC47" t="n">
-        <v>41</v>
-      </c>
-      <c r="AD47" t="n">
-        <v>151</v>
-      </c>
-      <c r="AE47" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF47" t="n">
-        <v>9</v>
-      </c>
-      <c r="AG47" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AH47" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI47" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ47" t="n">
-        <v>21</v>
-      </c>
+          <t>Balestier Khalsa</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr"/>
+      <c r="S47" t="inlineStr"/>
+      <c r="T47" t="inlineStr"/>
+      <c r="U47" t="inlineStr"/>
+      <c r="V47" t="inlineStr"/>
+      <c r="W47" t="inlineStr"/>
+      <c r="X47" t="inlineStr"/>
+      <c r="Y47" t="inlineStr"/>
+      <c r="Z47" t="inlineStr"/>
+      <c r="AA47" t="inlineStr"/>
+      <c r="AB47" t="inlineStr"/>
+      <c r="AC47" t="inlineStr"/>
+      <c r="AD47" t="inlineStr"/>
+      <c r="AE47" t="inlineStr"/>
+      <c r="AF47" t="inlineStr"/>
+      <c r="AG47" t="inlineStr"/>
+      <c r="AH47" t="inlineStr"/>
+      <c r="AI47" t="inlineStr"/>
+      <c r="AJ47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>lSDKuqVG</t>
+          <t>WpEL9hH6</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -5396,119 +5510,119 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>16:10</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>SCOTLAND - CHAMPIONSHIP</t>
+          <t>SWEDEN - ALLSVENSKAN</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Cove Rangers</t>
+          <t>Hacken</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Airdrieonians</t>
+          <t>AIK</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="H48" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="I48" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="J48" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="K48" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L48" t="n">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="M48" t="n">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="N48" t="n">
-        <v>1.7</v>
+        <v>2.08</v>
       </c>
       <c r="O48" t="n">
-        <v>2.1</v>
+        <v>1.73</v>
       </c>
       <c r="P48" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="Q48" t="n">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="R48" t="n">
-        <v>1.57</v>
+        <v>1.8</v>
       </c>
       <c r="S48" t="n">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="T48" t="n">
+        <v>8</v>
+      </c>
+      <c r="U48" t="n">
         <v>12</v>
       </c>
-      <c r="U48" t="n">
-        <v>17</v>
-      </c>
       <c r="V48" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W48" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="X48" t="n">
         <v>21</v>
       </c>
       <c r="Y48" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z48" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AA48" t="n">
         <v>7</v>
       </c>
       <c r="AB48" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AC48" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD48" t="n">
-        <v>126</v>
+        <v>301</v>
       </c>
       <c r="AE48" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG48" t="n">
         <v>10</v>
       </c>
-      <c r="AF48" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG48" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AH48" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI48" t="n">
         <v>21</v>
       </c>
-      <c r="AI48" t="n">
-        <v>17</v>
-      </c>
       <c r="AJ48" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>tWe9gspm</t>
+          <t>hjaGVZwQ</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -5518,59 +5632,119 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>08:45</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>SINGAPORE - PREMIER LEAGUE</t>
+          <t>SWEDEN - ALLSVENSKAN</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Lion City</t>
+          <t>Halmstad</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Balestier Khalsa</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="inlineStr"/>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="inlineStr"/>
-      <c r="T49" t="inlineStr"/>
-      <c r="U49" t="inlineStr"/>
-      <c r="V49" t="inlineStr"/>
-      <c r="W49" t="inlineStr"/>
-      <c r="X49" t="inlineStr"/>
-      <c r="Y49" t="inlineStr"/>
-      <c r="Z49" t="inlineStr"/>
-      <c r="AA49" t="inlineStr"/>
-      <c r="AB49" t="inlineStr"/>
-      <c r="AC49" t="inlineStr"/>
-      <c r="AD49" t="inlineStr"/>
-      <c r="AE49" t="inlineStr"/>
-      <c r="AF49" t="inlineStr"/>
-      <c r="AG49" t="inlineStr"/>
-      <c r="AH49" t="inlineStr"/>
-      <c r="AI49" t="inlineStr"/>
-      <c r="AJ49" t="inlineStr"/>
+          <t>GAIS</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H49" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I49" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="J49" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="K49" t="n">
+        <v>9</v>
+      </c>
+      <c r="L49" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M49" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="N49" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="O49" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="P49" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S49" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="T49" t="n">
+        <v>9</v>
+      </c>
+      <c r="U49" t="n">
+        <v>19</v>
+      </c>
+      <c r="V49" t="n">
+        <v>13</v>
+      </c>
+      <c r="W49" t="n">
+        <v>41</v>
+      </c>
+      <c r="X49" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>67</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>501</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>WpEL9hH6</t>
+          <t>YZ3tJdfK</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -5590,46 +5764,46 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Hacken</t>
+          <t>Hammarby</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>AIK</t>
+          <t>Sirius</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.5</v>
+        <v>1.45</v>
       </c>
       <c r="H50" t="n">
-        <v>3.6</v>
+        <v>4.33</v>
       </c>
       <c r="I50" t="n">
-        <v>2.6</v>
+        <v>6.5</v>
       </c>
       <c r="J50" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="K50" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L50" t="n">
-        <v>1.33</v>
+        <v>1.18</v>
       </c>
       <c r="M50" t="n">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="N50" t="n">
-        <v>2.08</v>
+        <v>1.62</v>
       </c>
       <c r="O50" t="n">
-        <v>1.73</v>
+        <v>2.25</v>
       </c>
       <c r="P50" t="n">
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="Q50" t="n">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="R50" t="n">
         <v>1.8</v>
@@ -5641,58 +5815,58 @@
         <v>8</v>
       </c>
       <c r="U50" t="n">
-        <v>12</v>
+        <v>7.5</v>
       </c>
       <c r="V50" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W50" t="n">
         <v>10</v>
       </c>
-      <c r="W50" t="n">
-        <v>26</v>
-      </c>
       <c r="X50" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Y50" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="Z50" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AA50" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AB50" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC50" t="n">
         <v>51</v>
       </c>
       <c r="AD50" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AE50" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="AF50" t="n">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="AG50" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AH50" t="n">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="AI50" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AJ50" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>hjaGVZwQ</t>
+          <t>zFGUpbFF</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -5702,110 +5876,110 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>SWEDEN - ALLSVENSKAN</t>
+          <t>SWITZERLAND - SUPER LEAGUE</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Halmstad</t>
+          <t>Grasshoppers</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>GAIS</t>
+          <t>Yverdon</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>3.8</v>
+        <v>2.3</v>
       </c>
       <c r="H51" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I51" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J51" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="K51" t="n">
+        <v>10</v>
+      </c>
+      <c r="L51" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M51" t="n">
         <v>3.4</v>
       </c>
-      <c r="I51" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="J51" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="K51" t="n">
-        <v>9</v>
-      </c>
-      <c r="L51" t="n">
+      <c r="N51" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="O51" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="P51" t="n">
         <v>1.4</v>
       </c>
-      <c r="M51" t="n">
+      <c r="Q51" t="n">
         <v>2.75</v>
       </c>
-      <c r="N51" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="O51" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="P51" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>2.5</v>
-      </c>
       <c r="R51" t="n">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="S51" t="n">
-        <v>1.7</v>
+        <v>1.91</v>
       </c>
       <c r="T51" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U51" t="n">
+        <v>11</v>
+      </c>
+      <c r="V51" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W51" t="n">
+        <v>21</v>
+      </c>
+      <c r="X51" t="n">
         <v>19</v>
       </c>
-      <c r="V51" t="n">
+      <c r="Y51" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB51" t="n">
         <v>13</v>
       </c>
-      <c r="W51" t="n">
-        <v>41</v>
-      </c>
-      <c r="X51" t="n">
+      <c r="AC51" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>251</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH51" t="n">
         <v>34</v>
       </c>
-      <c r="Y51" t="n">
-        <v>41</v>
-      </c>
-      <c r="Z51" t="n">
-        <v>8</v>
-      </c>
-      <c r="AA51" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB51" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC51" t="n">
-        <v>67</v>
-      </c>
-      <c r="AD51" t="n">
-        <v>501</v>
-      </c>
-      <c r="AE51" t="n">
-        <v>6</v>
-      </c>
-      <c r="AF51" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AG51" t="n">
-        <v>9</v>
-      </c>
-      <c r="AH51" t="n">
-        <v>17</v>
-      </c>
       <c r="AI51" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AJ51" t="n">
         <v>34</v>
@@ -5814,7 +5988,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>YZ3tJdfK</t>
+          <t>vmNLnKp3</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -5824,119 +5998,119 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>SWEDEN - ALLSVENSKAN</t>
+          <t>SWITZERLAND - SUPER LEAGUE</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Hammarby</t>
+          <t>Lausanne</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Sirius</t>
+          <t>Basel</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.45</v>
+        <v>2.63</v>
       </c>
       <c r="H52" t="n">
-        <v>4.33</v>
+        <v>3.6</v>
       </c>
       <c r="I52" t="n">
-        <v>6.5</v>
+        <v>2.45</v>
       </c>
       <c r="J52" t="n">
         <v>1.03</v>
       </c>
       <c r="K52" t="n">
+        <v>17</v>
+      </c>
+      <c r="L52" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="O52" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="P52" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R52" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S52" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="T52" t="n">
+        <v>13</v>
+      </c>
+      <c r="U52" t="n">
+        <v>17</v>
+      </c>
+      <c r="V52" t="n">
+        <v>10</v>
+      </c>
+      <c r="W52" t="n">
+        <v>26</v>
+      </c>
+      <c r="X52" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>29</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF52" t="n">
         <v>15</v>
       </c>
-      <c r="L52" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="M52" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="N52" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="O52" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="P52" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="R52" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S52" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="T52" t="n">
-        <v>8</v>
-      </c>
-      <c r="U52" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="V52" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="W52" t="n">
+      <c r="AG52" t="n">
         <v>10</v>
       </c>
-      <c r="X52" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y52" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z52" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA52" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AB52" t="n">
+      <c r="AH52" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI52" t="n">
         <v>17</v>
       </c>
-      <c r="AC52" t="n">
-        <v>51</v>
-      </c>
-      <c r="AD52" t="n">
-        <v>251</v>
-      </c>
-      <c r="AE52" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF52" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG52" t="n">
-        <v>19</v>
-      </c>
-      <c r="AH52" t="n">
-        <v>67</v>
-      </c>
-      <c r="AI52" t="n">
-        <v>41</v>
-      </c>
       <c r="AJ52" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>zFGUpbFF</t>
+          <t>OAuWgltn</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -5946,119 +6120,119 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>SWITZERLAND - SUPER LEAGUE</t>
+          <t>USA - MLS</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Grasshoppers</t>
+          <t>CF Montreal</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Yverdon</t>
+          <t>Columbus Crew</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="H53" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="I53" t="n">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="J53" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="K53" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="L53" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="M53" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="N53" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="O53" t="n">
         <v>2.03</v>
       </c>
-      <c r="O53" t="n">
-        <v>1.78</v>
-      </c>
       <c r="P53" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q53" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R53" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="S53" t="n">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="T53" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="U53" t="n">
+        <v>15</v>
+      </c>
+      <c r="V53" t="n">
         <v>11</v>
       </c>
-      <c r="V53" t="n">
-        <v>9.5</v>
-      </c>
       <c r="W53" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="X53" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Y53" t="n">
         <v>29</v>
       </c>
       <c r="Z53" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="AA53" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AB53" t="n">
         <v>13</v>
       </c>
       <c r="AC53" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD53" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE53" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AF53" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AG53" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AH53" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AI53" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ53" t="n">
         <v>26</v>
-      </c>
-      <c r="AJ53" t="n">
-        <v>34</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>vmNLnKp3</t>
+          <t>KxZvhSAb</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -6068,119 +6242,119 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>SWITZERLAND - SUPER LEAGUE</t>
+          <t>USA - MLS</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Lausanne</t>
+          <t>DC United</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Basel</t>
+          <t>New York City</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.63</v>
+        <v>2.25</v>
       </c>
       <c r="H54" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I54" t="n">
-        <v>2.45</v>
+        <v>2.9</v>
       </c>
       <c r="J54" t="n">
         <v>1.03</v>
       </c>
       <c r="K54" t="n">
+        <v>15</v>
+      </c>
+      <c r="L54" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="N54" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="O54" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="P54" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R54" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S54" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="T54" t="n">
+        <v>10</v>
+      </c>
+      <c r="U54" t="n">
+        <v>13</v>
+      </c>
+      <c r="V54" t="n">
+        <v>9</v>
+      </c>
+      <c r="W54" t="n">
+        <v>21</v>
+      </c>
+      <c r="X54" t="n">
         <v>17</v>
-      </c>
-      <c r="L54" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="M54" t="n">
-        <v>5</v>
-      </c>
-      <c r="N54" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="O54" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="P54" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="R54" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S54" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="T54" t="n">
-        <v>13</v>
-      </c>
-      <c r="U54" t="n">
-        <v>17</v>
-      </c>
-      <c r="V54" t="n">
-        <v>11</v>
-      </c>
-      <c r="W54" t="n">
-        <v>29</v>
-      </c>
-      <c r="X54" t="n">
-        <v>19</v>
       </c>
       <c r="Y54" t="n">
         <v>21</v>
       </c>
       <c r="Z54" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA54" t="n">
         <v>7</v>
       </c>
       <c r="AB54" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>126</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG54" t="n">
         <v>11</v>
       </c>
-      <c r="AC54" t="n">
+      <c r="AH54" t="n">
         <v>34</v>
       </c>
-      <c r="AD54" t="n">
-        <v>101</v>
-      </c>
-      <c r="AE54" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF54" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG54" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH54" t="n">
+      <c r="AI54" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ54" t="n">
         <v>26</v>
-      </c>
-      <c r="AI54" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ54" t="n">
-        <v>21</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>OAuWgltn</t>
+          <t>fe5MZpeU</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -6200,46 +6374,46 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>CF Montreal</t>
+          <t>Orlando City</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Columbus Crew</t>
+          <t>Charlotte</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>3.1</v>
+        <v>1.75</v>
       </c>
       <c r="H55" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="I55" t="n">
-        <v>2.15</v>
+        <v>4.2</v>
       </c>
       <c r="J55" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K55" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L55" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M55" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N55" t="n">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
       <c r="O55" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="P55" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="Q55" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="R55" t="n">
         <v>1.7</v>
@@ -6248,31 +6422,31 @@
         <v>2.05</v>
       </c>
       <c r="T55" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="U55" t="n">
+        <v>9</v>
+      </c>
+      <c r="V55" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W55" t="n">
         <v>15</v>
       </c>
-      <c r="V55" t="n">
-        <v>11</v>
-      </c>
-      <c r="W55" t="n">
-        <v>34</v>
-      </c>
       <c r="X55" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y55" t="n">
         <v>23</v>
       </c>
-      <c r="Y55" t="n">
-        <v>29</v>
-      </c>
       <c r="Z55" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA55" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB55" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC55" t="n">
         <v>41</v>
@@ -6281,28 +6455,28 @@
         <v>201</v>
       </c>
       <c r="AE55" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="AF55" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="AG55" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AH55" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AI55" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AJ55" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>KxZvhSAb</t>
+          <t>YuHDy7QH</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -6322,22 +6496,22 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>DC United</t>
+          <t>Philadelphia Union</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>New York City</t>
+          <t>Los Angeles Galaxy</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.25</v>
+        <v>1.65</v>
       </c>
       <c r="H56" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="I56" t="n">
-        <v>2.9</v>
+        <v>4.75</v>
       </c>
       <c r="J56" t="n">
         <v>1.03</v>
@@ -6346,43 +6520,43 @@
         <v>15</v>
       </c>
       <c r="L56" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="M56" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N56" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="O56" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="P56" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="Q56" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R56" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="S56" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="T56" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="U56" t="n">
+        <v>9</v>
+      </c>
+      <c r="V56" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W56" t="n">
         <v>13</v>
       </c>
-      <c r="V56" t="n">
-        <v>9</v>
-      </c>
-      <c r="W56" t="n">
-        <v>21</v>
-      </c>
       <c r="X56" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="Y56" t="n">
         <v>21</v>
@@ -6391,40 +6565,40 @@
         <v>15</v>
       </c>
       <c r="AA56" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AB56" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC56" t="n">
         <v>41</v>
       </c>
       <c r="AD56" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AE56" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AF56" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AG56" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AH56" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AI56" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AJ56" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>fe5MZpeU</t>
+          <t>QFD5wTe5</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -6444,79 +6618,79 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Orlando City</t>
+          <t>Toronto FC</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Charlotte</t>
+          <t>FC Cincinnati</t>
         </is>
       </c>
       <c r="G57" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H57" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I57" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K57" t="n">
+        <v>11</v>
+      </c>
+      <c r="L57" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M57" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="N57" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="O57" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="P57" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>3</v>
+      </c>
+      <c r="R57" t="n">
         <v>1.75</v>
       </c>
-      <c r="H57" t="n">
-        <v>4</v>
-      </c>
-      <c r="I57" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="K57" t="n">
+      <c r="S57" t="n">
+        <v>2</v>
+      </c>
+      <c r="T57" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="U57" t="n">
+        <v>15</v>
+      </c>
+      <c r="V57" t="n">
+        <v>10</v>
+      </c>
+      <c r="W57" t="n">
+        <v>29</v>
+      </c>
+      <c r="X57" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB57" t="n">
         <v>13</v>
-      </c>
-      <c r="L57" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="M57" t="n">
-        <v>4</v>
-      </c>
-      <c r="N57" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="O57" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="P57" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="R57" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S57" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="T57" t="n">
-        <v>8</v>
-      </c>
-      <c r="U57" t="n">
-        <v>9</v>
-      </c>
-      <c r="V57" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="W57" t="n">
-        <v>15</v>
-      </c>
-      <c r="X57" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y57" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z57" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA57" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AB57" t="n">
-        <v>15</v>
       </c>
       <c r="AC57" t="n">
         <v>41</v>
@@ -6525,28 +6699,28 @@
         <v>201</v>
       </c>
       <c r="AE57" t="n">
-        <v>13</v>
+        <v>8.5</v>
       </c>
       <c r="AF57" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH57" t="n">
         <v>23</v>
       </c>
-      <c r="AG57" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH57" t="n">
-        <v>41</v>
-      </c>
       <c r="AI57" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AJ57" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>YuHDy7QH</t>
+          <t>4rWQrOXp</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -6556,7 +6730,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -6566,109 +6740,109 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Philadelphia Union</t>
+          <t>Houston Dynamo</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Los Angeles Galaxy</t>
+          <t>Minnesota United</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.65</v>
+        <v>2.55</v>
       </c>
       <c r="H58" t="n">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="I58" t="n">
-        <v>4.75</v>
+        <v>2.75</v>
       </c>
       <c r="J58" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K58" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L58" t="n">
-        <v>1.18</v>
+        <v>1.29</v>
       </c>
       <c r="M58" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="N58" t="n">
-        <v>1.62</v>
+        <v>2</v>
       </c>
       <c r="O58" t="n">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="P58" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="Q58" t="n">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="R58" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="S58" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T58" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U58" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="V58" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="W58" t="n">
+        <v>26</v>
+      </c>
+      <c r="X58" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB58" t="n">
         <v>13</v>
-      </c>
-      <c r="X58" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y58" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z58" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA58" t="n">
-        <v>8</v>
-      </c>
-      <c r="AB58" t="n">
-        <v>15</v>
       </c>
       <c r="AC58" t="n">
         <v>41</v>
       </c>
       <c r="AD58" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AE58" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="AF58" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="AG58" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AH58" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="AI58" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AJ58" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>QFD5wTe5</t>
+          <t>lIQelpAN</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -6678,7 +6852,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -6688,22 +6862,22 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Toronto FC</t>
+          <t>Nashville SC</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>FC Cincinnati</t>
+          <t>New York Red Bulls</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2.8</v>
+        <v>1.85</v>
       </c>
       <c r="H59" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="I59" t="n">
-        <v>2.38</v>
+        <v>3.7</v>
       </c>
       <c r="J59" t="n">
         <v>1.05</v>
@@ -6730,67 +6904,67 @@
         <v>3</v>
       </c>
       <c r="R59" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S59" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T59" t="n">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="U59" t="n">
+        <v>9</v>
+      </c>
+      <c r="V59" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W59" t="n">
         <v>15</v>
       </c>
-      <c r="V59" t="n">
-        <v>11</v>
-      </c>
-      <c r="W59" t="n">
-        <v>29</v>
-      </c>
       <c r="X59" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="Y59" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z59" t="n">
         <v>11</v>
       </c>
       <c r="AA59" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AB59" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AC59" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>251</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH59" t="n">
         <v>41</v>
       </c>
-      <c r="AD59" t="n">
-        <v>201</v>
-      </c>
-      <c r="AE59" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AF59" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG59" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AH59" t="n">
-        <v>23</v>
-      </c>
       <c r="AI59" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AJ59" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>4rWQrOXp</t>
+          <t>hjXnj6uB</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -6800,7 +6974,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>21:45</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -6810,109 +6984,109 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Houston Dynamo</t>
+          <t>St. Louis City</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Minnesota United</t>
+          <t>Sporting Kansas City</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.5</v>
+        <v>1.95</v>
       </c>
       <c r="H60" t="n">
-        <v>3.25</v>
+        <v>3.9</v>
       </c>
       <c r="I60" t="n">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="J60" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="K60" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="L60" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="M60" t="n">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="N60" t="n">
-        <v>2.03</v>
+        <v>1.62</v>
       </c>
       <c r="O60" t="n">
-        <v>1.83</v>
+        <v>2.25</v>
       </c>
       <c r="P60" t="n">
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="Q60" t="n">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="R60" t="n">
-        <v>1.75</v>
+        <v>1.57</v>
       </c>
       <c r="S60" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="T60" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="U60" t="n">
+        <v>11</v>
+      </c>
+      <c r="V60" t="n">
         <v>8.5</v>
       </c>
-      <c r="U60" t="n">
-        <v>12</v>
-      </c>
-      <c r="V60" t="n">
-        <v>10</v>
-      </c>
       <c r="W60" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="X60" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y60" t="n">
         <v>21</v>
       </c>
-      <c r="Y60" t="n">
-        <v>29</v>
-      </c>
       <c r="Z60" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AA60" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AB60" t="n">
         <v>13</v>
       </c>
       <c r="AC60" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD60" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE60" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AF60" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AG60" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH60" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AI60" t="n">
         <v>23</v>
       </c>
       <c r="AJ60" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>lIQelpAN</t>
+          <t>pv9D6RPi</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -6922,7 +7096,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -6932,109 +7106,109 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Nashville SC</t>
+          <t>Austin FC</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>New York Red Bulls</t>
+          <t>Atlanta Utd</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="H61" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I61" t="n">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="J61" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K61" t="n">
+        <v>13</v>
+      </c>
+      <c r="L61" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="O61" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="P61" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R61" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S61" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T61" t="n">
+        <v>9</v>
+      </c>
+      <c r="U61" t="n">
         <v>11</v>
       </c>
-      <c r="L61" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M61" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="N61" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="O61" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="P61" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Q61" t="n">
-        <v>3</v>
-      </c>
-      <c r="R61" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S61" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="T61" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="U61" t="n">
+      <c r="V61" t="n">
         <v>9</v>
       </c>
-      <c r="V61" t="n">
-        <v>8.5</v>
-      </c>
       <c r="W61" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="X61" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y61" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z61" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AA61" t="n">
         <v>7.5</v>
       </c>
       <c r="AB61" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AC61" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD61" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="AE61" t="n">
         <v>11</v>
       </c>
       <c r="AF61" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG61" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH61" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI61" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ61" t="n">
         <v>29</v>
-      </c>
-      <c r="AJ61" t="n">
-        <v>34</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>hjXnj6uB</t>
+          <t>h4CL45f4</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -7044,7 +7218,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>21:45</t>
+          <t>22:30</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -7054,19 +7228,19 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>St. Louis City</t>
+          <t>Real Salt Lake</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Sporting Kansas City</t>
+          <t>Portland Timbers</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H62" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="I62" t="n">
         <v>3.4</v>
@@ -7078,16 +7252,16 @@
         <v>15</v>
       </c>
       <c r="L62" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="M62" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N62" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="O62" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="P62" t="n">
         <v>1.29</v>
@@ -7096,22 +7270,22 @@
         <v>3.5</v>
       </c>
       <c r="R62" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S62" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="T62" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="U62" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V62" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W62" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X62" t="n">
         <v>15</v>
@@ -7126,16 +7300,16 @@
         <v>7.5</v>
       </c>
       <c r="AB62" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC62" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AD62" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AE62" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF62" t="n">
         <v>21</v>
@@ -7147,16 +7321,16 @@
         <v>41</v>
       </c>
       <c r="AI62" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ62" t="n">
         <v>26</v>
-      </c>
-      <c r="AJ62" t="n">
-        <v>29</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>pv9D6RPi</t>
+          <t>4471e1Hj</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -7166,7 +7340,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>23:30</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -7176,55 +7350,55 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Austin FC</t>
+          <t>Los Angeles FC</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Atlanta Utd</t>
+          <t>Seattle Sounders</t>
         </is>
       </c>
       <c r="G63" t="n">
         <v>2.1</v>
       </c>
       <c r="H63" t="n">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="I63" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="J63" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K63" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L63" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="M63" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="N63" t="n">
-        <v>1.73</v>
+        <v>2</v>
       </c>
       <c r="O63" t="n">
-        <v>2.08</v>
+        <v>1.85</v>
       </c>
       <c r="P63" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="Q63" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="R63" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="S63" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T63" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U63" t="n">
         <v>11</v>
@@ -7233,31 +7407,31 @@
         <v>9</v>
       </c>
       <c r="W63" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X63" t="n">
         <v>17</v>
       </c>
       <c r="Y63" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z63" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB63" t="n">
         <v>13</v>
-      </c>
-      <c r="AA63" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AB63" t="n">
-        <v>15</v>
       </c>
       <c r="AC63" t="n">
         <v>41</v>
       </c>
       <c r="AD63" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AE63" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF63" t="n">
         <v>17</v>
@@ -7269,16 +7443,16 @@
         <v>34</v>
       </c>
       <c r="AI63" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ63" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>h4CL45f4</t>
+          <t>Mq4x1NgT</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -7288,7 +7462,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>22:30</t>
+          <t>23:30</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -7298,100 +7472,100 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Real Salt Lake</t>
+          <t>San Diego FC</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Portland Timbers</t>
+          <t>Colorado Rapids</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.95</v>
+        <v>1.67</v>
       </c>
       <c r="H64" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="I64" t="n">
-        <v>3.6</v>
+        <v>4.33</v>
       </c>
       <c r="J64" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K64" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L64" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="M64" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="N64" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="O64" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="P64" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="Q64" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="R64" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S64" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="T64" t="n">
         <v>10</v>
       </c>
       <c r="U64" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V64" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W64" t="n">
+        <v>15</v>
+      </c>
+      <c r="X64" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y64" t="n">
         <v>19</v>
       </c>
-      <c r="X64" t="n">
+      <c r="Z64" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB64" t="n">
         <v>13</v>
       </c>
-      <c r="Y64" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z64" t="n">
+      <c r="AC64" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>126</v>
+      </c>
+      <c r="AE64" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF64" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG64" t="n">
         <v>15</v>
       </c>
-      <c r="AA64" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB64" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC64" t="n">
-        <v>34</v>
-      </c>
-      <c r="AD64" t="n">
-        <v>101</v>
-      </c>
-      <c r="AE64" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF64" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG64" t="n">
-        <v>13</v>
-      </c>
       <c r="AH64" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI64" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ64" t="n">
         <v>29</v>
@@ -7400,7 +7574,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>4471e1Hj</t>
+          <t>lW5U2qPG</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -7420,109 +7594,109 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Los Angeles FC</t>
+          <t>San Jose Earthquakes</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Seattle Sounders</t>
+          <t>Inter Miami</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="H65" t="n">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="I65" t="n">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="J65" t="n">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="K65" t="n">
+        <v>19</v>
+      </c>
+      <c r="L65" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="N65" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="O65" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="P65" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R65" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S65" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="T65" t="n">
+        <v>13</v>
+      </c>
+      <c r="U65" t="n">
+        <v>17</v>
+      </c>
+      <c r="V65" t="n">
         <v>10</v>
       </c>
-      <c r="L65" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M65" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="N65" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="O65" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="P65" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q65" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="R65" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S65" t="n">
-        <v>2</v>
-      </c>
-      <c r="T65" t="n">
-        <v>8</v>
-      </c>
-      <c r="U65" t="n">
-        <v>11</v>
-      </c>
-      <c r="V65" t="n">
-        <v>9</v>
-      </c>
       <c r="W65" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="X65" t="n">
         <v>17</v>
       </c>
       <c r="Y65" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="Z65" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="AA65" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="AB65" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>29</v>
+      </c>
+      <c r="AD65" t="n">
+        <v>81</v>
+      </c>
+      <c r="AE65" t="n">
         <v>13</v>
-      </c>
-      <c r="AC65" t="n">
-        <v>41</v>
-      </c>
-      <c r="AD65" t="n">
-        <v>201</v>
-      </c>
-      <c r="AE65" t="n">
-        <v>10</v>
       </c>
       <c r="AF65" t="n">
         <v>17</v>
       </c>
       <c r="AG65" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH65" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AI65" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AJ65" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Mq4x1NgT</t>
+          <t>4OXO4sJU</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -7532,357 +7706,113 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>23:30</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>USA - MLS</t>
+          <t>USA - USL CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>San Diego FC</t>
+          <t>Birmingham</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Colorado Rapids</t>
+          <t>Rhode Island</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.7</v>
+        <v>2.92</v>
       </c>
       <c r="H66" t="n">
-        <v>4.2</v>
+        <v>3.35</v>
       </c>
       <c r="I66" t="n">
-        <v>4.2</v>
+        <v>2.27</v>
       </c>
       <c r="J66" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="K66" t="n">
-        <v>19</v>
+        <v>7.6</v>
       </c>
       <c r="L66" t="n">
-        <v>1.14</v>
+        <v>1.26</v>
       </c>
       <c r="M66" t="n">
-        <v>5.5</v>
+        <v>3.45</v>
       </c>
       <c r="N66" t="n">
-        <v>1.5</v>
+        <v>1.78</v>
       </c>
       <c r="O66" t="n">
-        <v>2.5</v>
+        <v>1.93</v>
       </c>
       <c r="P66" t="n">
-        <v>1.25</v>
+        <v>1.39</v>
       </c>
       <c r="Q66" t="n">
-        <v>3.75</v>
+        <v>2.77</v>
       </c>
       <c r="R66" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="S66" t="n">
-        <v>2.38</v>
+        <v>2.15</v>
       </c>
       <c r="T66" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="U66" t="n">
-        <v>10</v>
+        <v>15.5</v>
       </c>
       <c r="V66" t="n">
-        <v>8.5</v>
+        <v>10.5</v>
       </c>
       <c r="W66" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="X66" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="Y66" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Z66" t="n">
-        <v>19</v>
+        <v>7.6</v>
       </c>
       <c r="AA66" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="AB66" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC66" t="n">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AD66" t="n">
-        <v>126</v>
+        <v>350</v>
       </c>
       <c r="AE66" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF66" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG66" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AH66" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI66" t="n">
         <v>17</v>
       </c>
-      <c r="AF66" t="n">
-        <v>26</v>
-      </c>
-      <c r="AG66" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH66" t="n">
-        <v>41</v>
-      </c>
-      <c r="AI66" t="n">
-        <v>29</v>
-      </c>
       <c r="AJ66" t="n">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>lW5U2qPG</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>14/05/2025</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>23:30</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>USA - MLS</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>San Jose Earthquakes</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Inter Miami</t>
-        </is>
-      </c>
-      <c r="G67" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="H67" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="I67" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="K67" t="n">
-        <v>21</v>
-      </c>
-      <c r="L67" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="M67" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="N67" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="O67" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="P67" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Q67" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="R67" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S67" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="T67" t="n">
-        <v>13</v>
-      </c>
-      <c r="U67" t="n">
-        <v>17</v>
-      </c>
-      <c r="V67" t="n">
-        <v>10</v>
-      </c>
-      <c r="W67" t="n">
-        <v>26</v>
-      </c>
-      <c r="X67" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y67" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z67" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA67" t="n">
-        <v>8</v>
-      </c>
-      <c r="AB67" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC67" t="n">
-        <v>29</v>
-      </c>
-      <c r="AD67" t="n">
-        <v>81</v>
-      </c>
-      <c r="AE67" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF67" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG67" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH67" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI67" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ67" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>4OXO4sJU</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>14/05/2025</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>21:00</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>USA - USL CHAMPIONSHIP</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>Birmingham</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Rhode Island</t>
-        </is>
-      </c>
-      <c r="G68" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="H68" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="I68" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="J68" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="K68" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="L68" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="M68" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="N68" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="O68" t="n">
-        <v>2</v>
-      </c>
-      <c r="P68" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="Q68" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="R68" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S68" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="T68" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="U68" t="n">
-        <v>13</v>
-      </c>
-      <c r="V68" t="n">
-        <v>9</v>
-      </c>
-      <c r="W68" t="n">
-        <v>25</v>
-      </c>
-      <c r="X68" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="Y68" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z68" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AA68" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AB68" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC68" t="n">
-        <v>45</v>
-      </c>
-      <c r="AD68" t="n">
-        <v>300</v>
-      </c>
-      <c r="AE68" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AF68" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AG68" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH68" t="n">
-        <v>35</v>
-      </c>
-      <c r="AI68" t="n">
-        <v>22</v>
-      </c>
-      <c r="AJ68" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-05-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-14.xlsx
@@ -647,94 +647,94 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="H2" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I2" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J2" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="K2" t="n">
-        <v>8.25</v>
+        <v>9.5</v>
       </c>
       <c r="L2" t="n">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="M2" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="N2" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="O2" t="n">
         <v>1.8</v>
       </c>
       <c r="P2" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.92</v>
+        <v>2.75</v>
       </c>
       <c r="R2" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="S2" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T2" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="U2" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="V2" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="W2" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="X2" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="Y2" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Z2" t="n">
-        <v>8.25</v>
+        <v>9.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="AB2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AC2" t="n">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="AD2" t="n">
-        <v>500</v>
+        <v>201</v>
       </c>
       <c r="AE2" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AF2" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="AG2" t="n">
         <v>11</v>
       </c>
       <c r="AH2" t="n">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="AI2" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AJ2" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3">
@@ -1989,13 +1989,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="H13" t="n">
         <v>5.75</v>
       </c>
       <c r="I13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J13" t="n">
         <v>1.03</v>
@@ -2028,7 +2028,7 @@
         <v>1.8</v>
       </c>
       <c r="T13" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U13" t="n">
         <v>7</v>
@@ -2043,13 +2043,13 @@
         <v>11</v>
       </c>
       <c r="Y13" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z13" t="n">
         <v>17</v>
       </c>
       <c r="AA13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB13" t="n">
         <v>21</v>
@@ -2067,7 +2067,7 @@
         <v>41</v>
       </c>
       <c r="AG13" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH13" t="n">
         <v>101</v>
@@ -2843,88 +2843,88 @@
         </is>
       </c>
       <c r="G20" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H20" t="n">
         <v>2.95</v>
       </c>
-      <c r="H20" t="n">
-        <v>2.72</v>
-      </c>
       <c r="I20" t="n">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="N20" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P20" t="n">
         <v>1.53</v>
       </c>
-      <c r="M20" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="N20" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P20" t="n">
+      <c r="Q20" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R20" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="S20" t="n">
         <v>1.57</v>
       </c>
-      <c r="Q20" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="R20" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1.6</v>
-      </c>
       <c r="T20" t="n">
-        <v>6.6</v>
+        <v>9.5</v>
       </c>
       <c r="U20" t="n">
-        <v>13.5</v>
+        <v>24</v>
       </c>
       <c r="V20" t="n">
-        <v>11.5</v>
+        <v>15.5</v>
       </c>
       <c r="W20" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="X20" t="n">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="Y20" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="Z20" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="AA20" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AB20" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AC20" t="n">
         <v>120</v>
       </c>
       <c r="AD20" t="inlineStr"/>
       <c r="AE20" t="n">
-        <v>6.1</v>
+        <v>5</v>
       </c>
       <c r="AF20" t="n">
-        <v>11.5</v>
+        <v>7.5</v>
       </c>
       <c r="AG20" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="AH20" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="AI20" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="AJ20" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21">
@@ -2958,36 +2958,92 @@
           <t>Imbabura</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
+      <c r="G21" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="I21" t="n">
+        <v>3.75</v>
+      </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr"/>
-      <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr"/>
-      <c r="V21" t="inlineStr"/>
-      <c r="W21" t="inlineStr"/>
-      <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="inlineStr"/>
-      <c r="Z21" t="inlineStr"/>
-      <c r="AA21" t="inlineStr"/>
-      <c r="AB21" t="inlineStr"/>
-      <c r="AC21" t="inlineStr"/>
-      <c r="AD21" t="inlineStr"/>
-      <c r="AE21" t="inlineStr"/>
-      <c r="AF21" t="inlineStr"/>
-      <c r="AG21" t="inlineStr"/>
-      <c r="AH21" t="inlineStr"/>
-      <c r="AI21" t="inlineStr"/>
-      <c r="AJ21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="N21" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="T21" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="U21" t="n">
+        <v>9</v>
+      </c>
+      <c r="V21" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="W21" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="X21" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>35</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>90</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>800</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>60</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3030,13 +3086,13 @@
         <v>3.8</v>
       </c>
       <c r="J22" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K22" t="n">
         <v>11</v>
       </c>
       <c r="L22" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="M22" t="n">
         <v>3.4</v>
@@ -3142,9 +3198,15 @@
           <t>KaPa</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
+      <c r="G23" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+      <c r="I23" t="n">
+        <v>10.5</v>
+      </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
@@ -3153,25 +3215,63 @@
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="inlineStr"/>
-      <c r="T23" t="inlineStr"/>
-      <c r="U23" t="inlineStr"/>
-      <c r="V23" t="inlineStr"/>
-      <c r="W23" t="inlineStr"/>
-      <c r="X23" t="inlineStr"/>
-      <c r="Y23" t="inlineStr"/>
-      <c r="Z23" t="inlineStr"/>
-      <c r="AA23" t="inlineStr"/>
-      <c r="AB23" t="inlineStr"/>
-      <c r="AC23" t="inlineStr"/>
-      <c r="AD23" t="inlineStr"/>
-      <c r="AE23" t="inlineStr"/>
-      <c r="AF23" t="inlineStr"/>
-      <c r="AG23" t="inlineStr"/>
-      <c r="AH23" t="inlineStr"/>
-      <c r="AI23" t="inlineStr"/>
-      <c r="AJ23" t="inlineStr"/>
+      <c r="R23" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="T23" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="U23" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="V23" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="W23" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="X23" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>35</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>16</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>45</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>175</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>150</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>37</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>400</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>110</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3456,16 +3556,16 @@
         <v>17</v>
       </c>
       <c r="J26" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K26" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="L26" t="n">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="M26" t="n">
-        <v>3.65</v>
+        <v>4.05</v>
       </c>
       <c r="N26" t="n">
         <v>1.73</v>
@@ -3474,16 +3574,16 @@
         <v>2.08</v>
       </c>
       <c r="P26" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.87</v>
+        <v>3</v>
       </c>
       <c r="R26" t="n">
-        <v>2.62</v>
+        <v>2.27</v>
       </c>
       <c r="S26" t="n">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="T26" t="n">
         <v>6</v>
@@ -3504,7 +3604,7 @@
         <v>41</v>
       </c>
       <c r="Z26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA26" t="n">
         <v>13</v>
@@ -3517,7 +3617,7 @@
       </c>
       <c r="AD26" t="inlineStr"/>
       <c r="AE26" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF26" t="n">
         <v>67</v>
@@ -3526,13 +3626,13 @@
         <v>41</v>
       </c>
       <c r="AH26" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AI26" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AJ26" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27">
@@ -4011,7 +4111,7 @@
         <v>1.06</v>
       </c>
       <c r="K33" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L33" t="n">
         <v>1.33</v>
@@ -4491,19 +4591,19 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.32</v>
+        <v>2.27</v>
       </c>
       <c r="H39" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="I39" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="J39" t="n">
         <v>1.06</v>
       </c>
       <c r="K39" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="L39" t="n">
         <v>1.29</v>
@@ -4521,16 +4621,16 @@
         <v>1.42</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="R39" t="n">
         <v>1.65</v>
       </c>
       <c r="S39" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="T39" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="U39" t="n">
         <v>12.5</v>
@@ -4539,43 +4639,43 @@
         <v>9.5</v>
       </c>
       <c r="W39" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X39" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Y39" t="n">
         <v>29</v>
       </c>
       <c r="Z39" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AA39" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="AB39" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AC39" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AD39" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AE39" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AF39" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AG39" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AH39" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AI39" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ39" t="n">
         <v>32</v>
@@ -5773,13 +5873,13 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="H50" t="n">
         <v>4.33</v>
       </c>
       <c r="I50" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="J50" t="n">
         <v>1.03</v>
@@ -5794,10 +5894,10 @@
         <v>4.5</v>
       </c>
       <c r="N50" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="O50" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="P50" t="n">
         <v>1.29</v>
@@ -5806,28 +5906,28 @@
         <v>3.5</v>
       </c>
       <c r="R50" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S50" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T50" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="U50" t="n">
         <v>8</v>
-      </c>
-      <c r="U50" t="n">
-        <v>7.5</v>
       </c>
       <c r="V50" t="n">
         <v>8.5</v>
       </c>
       <c r="W50" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X50" t="n">
         <v>11</v>
       </c>
       <c r="Y50" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z50" t="n">
         <v>15</v>
@@ -5836,10 +5936,10 @@
         <v>8.5</v>
       </c>
       <c r="AB50" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC50" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD50" t="n">
         <v>201</v>
@@ -7725,91 +7825,91 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2.92</v>
+        <v>3.8</v>
       </c>
       <c r="H66" t="n">
-        <v>3.35</v>
+        <v>3.7</v>
       </c>
       <c r="I66" t="n">
-        <v>2.27</v>
+        <v>1.83</v>
       </c>
       <c r="J66" t="n">
         <v>1.05</v>
       </c>
       <c r="K66" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="L66" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="M66" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="N66" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="O66" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="P66" t="n">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="Q66" t="n">
-        <v>2.77</v>
+        <v>2.87</v>
       </c>
       <c r="R66" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="S66" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="T66" t="n">
-        <v>9.75</v>
+        <v>12.5</v>
       </c>
       <c r="U66" t="n">
-        <v>15.5</v>
+        <v>22</v>
       </c>
       <c r="V66" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="W66" t="n">
+        <v>55</v>
+      </c>
+      <c r="X66" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y66" t="n">
         <v>35</v>
       </c>
-      <c r="X66" t="n">
-        <v>24</v>
-      </c>
-      <c r="Y66" t="n">
-        <v>30</v>
-      </c>
       <c r="Z66" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="AA66" t="n">
-        <v>6.5</v>
+        <v>7.2</v>
       </c>
       <c r="AB66" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AC66" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AD66" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AE66" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AF66" t="n">
         <v>9</v>
       </c>
-      <c r="AF66" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AG66" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="AH66" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="AI66" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AJ66" t="n">
         <v>24</v>

--- a/Jogos_da_Semana_FlashScore_2025-05-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-14.xlsx
@@ -769,31 +769,31 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H3" t="n">
         <v>3.5</v>
       </c>
       <c r="I3" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J3" t="n">
         <v>1.04</v>
       </c>
       <c r="K3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L3" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M3" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="N3" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="O3" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="P3" t="n">
         <v>1.33</v>
@@ -802,19 +802,19 @@
         <v>3.25</v>
       </c>
       <c r="R3" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S3" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="T3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="U3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W3" t="n">
         <v>21</v>
@@ -826,7 +826,7 @@
         <v>23</v>
       </c>
       <c r="Z3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA3" t="n">
         <v>6.5</v>
@@ -838,10 +838,10 @@
         <v>41</v>
       </c>
       <c r="AD3" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AE3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF3" t="n">
         <v>17</v>
@@ -850,13 +850,13 @@
         <v>11</v>
       </c>
       <c r="AH3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ3" t="n">
         <v>29</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>26</v>
       </c>
     </row>
     <row r="4">
@@ -891,13 +891,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="I4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J4" t="n">
         <v>1.01</v>
@@ -924,28 +924,28 @@
         <v>5</v>
       </c>
       <c r="R4" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S4" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T4" t="n">
         <v>12</v>
       </c>
       <c r="U4" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="V4" t="n">
         <v>11</v>
       </c>
       <c r="W4" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z4" t="n">
         <v>29</v>
@@ -954,28 +954,28 @@
         <v>19</v>
       </c>
       <c r="AB4" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC4" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AD4" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE4" t="n">
         <v>41</v>
       </c>
       <c r="AF4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>201</v>
+      </c>
+      <c r="AI4" t="n">
         <v>81</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>251</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>101</v>
       </c>
       <c r="AJ4" t="n">
         <v>67</v>
@@ -1379,7 +1379,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="H8" t="n">
         <v>12</v>
@@ -1412,10 +1412,10 @@
         <v>6</v>
       </c>
       <c r="R8" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S8" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="T8" t="n">
         <v>15</v>
@@ -1436,13 +1436,13 @@
         <v>34</v>
       </c>
       <c r="Z8" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AA8" t="n">
         <v>23</v>
       </c>
       <c r="AB8" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC8" t="n">
         <v>81</v>
@@ -1454,7 +1454,7 @@
         <v>51</v>
       </c>
       <c r="AF8" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AG8" t="n">
         <v>51</v>
@@ -1463,10 +1463,10 @@
         <v>501</v>
       </c>
       <c r="AI8" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AJ8" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9">
@@ -1623,13 +1623,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="H10" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I10" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J10" t="n">
         <v>1.03</v>
@@ -1662,16 +1662,16 @@
         <v>2.25</v>
       </c>
       <c r="T10" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V10" t="n">
         <v>8.5</v>
       </c>
       <c r="W10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X10" t="n">
         <v>13</v>
@@ -1689,7 +1689,7 @@
         <v>12</v>
       </c>
       <c r="AC10" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AD10" t="n">
         <v>126</v>
@@ -1701,7 +1701,7 @@
         <v>23</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH10" t="n">
         <v>41</v>
@@ -1710,7 +1710,7 @@
         <v>29</v>
       </c>
       <c r="AJ10" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11">
@@ -1745,13 +1745,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="H11" t="n">
         <v>3.4</v>
       </c>
       <c r="I11" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="J11" t="n">
         <v>1.05</v>
@@ -1832,7 +1832,7 @@
         <v>21</v>
       </c>
       <c r="AJ11" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12">
@@ -1870,10 +1870,10 @@
         <v>2.1</v>
       </c>
       <c r="H12" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I12" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J12" t="n">
         <v>1.1</v>
@@ -2111,19 +2111,19 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="H14" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="I14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J14" t="n">
         <v>1.03</v>
       </c>
       <c r="K14" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L14" t="n">
         <v>1.2</v>
@@ -2138,16 +2138,16 @@
         <v>2.38</v>
       </c>
       <c r="P14" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="Q14" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="R14" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="S14" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="T14" t="n">
         <v>8</v>
@@ -2159,7 +2159,7 @@
         <v>8.5</v>
       </c>
       <c r="W14" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X14" t="n">
         <v>11</v>
@@ -2180,10 +2180,10 @@
         <v>51</v>
       </c>
       <c r="AD14" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE14" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF14" t="n">
         <v>41</v>
@@ -2192,13 +2192,13 @@
         <v>21</v>
       </c>
       <c r="AH14" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AI14" t="n">
         <v>51</v>
       </c>
       <c r="AJ14" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15">
@@ -2599,94 +2599,94 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="H18" t="n">
         <v>4.2</v>
       </c>
       <c r="I18" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="J18" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K18" t="n">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="L18" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="M18" t="n">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="N18" t="n">
         <v>1.85</v>
       </c>
       <c r="O18" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="P18" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.72</v>
+        <v>3</v>
       </c>
       <c r="R18" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S18" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="T18" t="n">
-        <v>6.1</v>
+        <v>6.5</v>
       </c>
       <c r="U18" t="n">
-        <v>6.2</v>
+        <v>6.5</v>
       </c>
       <c r="V18" t="n">
         <v>8.5</v>
       </c>
       <c r="W18" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="X18" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Y18" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Z18" t="n">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="AA18" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AB18" t="n">
         <v>21</v>
       </c>
       <c r="AC18" t="n">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="AD18" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AE18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF18" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AG18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH18" t="n">
-        <v>150</v>
+        <v>81</v>
       </c>
       <c r="AI18" t="n">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="AJ18" t="n">
-        <v>80</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19">
@@ -2721,31 +2721,31 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="H19" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I19" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="J19" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K19" t="n">
-        <v>6.6</v>
+        <v>9</v>
       </c>
       <c r="L19" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="M19" t="n">
-        <v>2.95</v>
+        <v>3.25</v>
       </c>
       <c r="N19" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="O19" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="P19" t="n">
         <v>1.4</v>
@@ -2754,22 +2754,22 @@
         <v>2.75</v>
       </c>
       <c r="R19" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="S19" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="T19" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="U19" t="n">
         <v>11</v>
       </c>
       <c r="V19" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W19" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X19" t="n">
         <v>19</v>
@@ -2778,37 +2778,37 @@
         <v>29</v>
       </c>
       <c r="Z19" t="n">
-        <v>6.6</v>
+        <v>9</v>
       </c>
       <c r="AA19" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AB19" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AC19" t="n">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="AD19" t="n">
-        <v>500</v>
+        <v>251</v>
       </c>
       <c r="AE19" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AF19" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AG19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH19" t="n">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="AI19" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AJ19" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20">
@@ -2843,13 +2843,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>4.5</v>
+        <v>4.35</v>
       </c>
       <c r="H20" t="n">
         <v>2.95</v>
       </c>
       <c r="I20" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -2869,7 +2869,7 @@
         <v>1.53</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="R20" t="n">
         <v>2.12</v>
@@ -2878,16 +2878,16 @@
         <v>1.57</v>
       </c>
       <c r="T20" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="U20" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V20" t="n">
         <v>15.5</v>
       </c>
       <c r="W20" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="X20" t="n">
         <v>55</v>
@@ -2905,23 +2905,23 @@
         <v>19.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AD20" t="inlineStr"/>
       <c r="AE20" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="AF20" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="AG20" t="n">
         <v>9</v>
       </c>
       <c r="AH20" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AI20" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AJ20" t="n">
         <v>45</v>
@@ -2962,10 +2962,10 @@
         <v>2.07</v>
       </c>
       <c r="H21" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="I21" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -2976,46 +2976,46 @@
         <v>2.52</v>
       </c>
       <c r="N21" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="O21" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="P21" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="R21" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S21" t="n">
         <v>1.72</v>
       </c>
       <c r="T21" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="U21" t="n">
         <v>9</v>
       </c>
       <c r="V21" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="W21" t="n">
         <v>19.5</v>
       </c>
       <c r="X21" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="Y21" t="n">
         <v>35</v>
       </c>
       <c r="Z21" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="AA21" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AB21" t="n">
         <v>16</v>
@@ -3030,19 +3030,19 @@
         <v>9</v>
       </c>
       <c r="AF21" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AG21" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AI21" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AJ21" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22">
@@ -3199,13 +3199,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="H23" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="I23" t="n">
-        <v>10.5</v>
+        <v>9.25</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -3222,13 +3222,13 @@
         <v>2.27</v>
       </c>
       <c r="T23" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="U23" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="V23" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="W23" t="n">
         <v>10.25</v>
@@ -3237,13 +3237,13 @@
         <v>9.75</v>
       </c>
       <c r="Y23" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AA23" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AB23" t="n">
         <v>18</v>
@@ -3252,22 +3252,22 @@
         <v>45</v>
       </c>
       <c r="AD23" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AE23" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="AF23" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="AG23" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AH23" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="AI23" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AJ23" t="n">
         <v>55</v>
@@ -3425,13 +3425,13 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H25" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I25" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J25" t="n">
         <v>1.07</v>
@@ -3464,19 +3464,19 @@
         <v>1.93</v>
       </c>
       <c r="T25" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U25" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V25" t="n">
         <v>8.5</v>
       </c>
       <c r="W25" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X25" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y25" t="n">
         <v>26</v>
@@ -3488,7 +3488,7 @@
         <v>7</v>
       </c>
       <c r="AB25" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC25" t="n">
         <v>51</v>
@@ -3547,25 +3547,25 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="H26" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="I26" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J26" t="n">
         <v>1.04</v>
       </c>
       <c r="K26" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="L26" t="n">
         <v>1.2</v>
       </c>
       <c r="M26" t="n">
-        <v>4.05</v>
+        <v>4</v>
       </c>
       <c r="N26" t="n">
         <v>1.73</v>
@@ -3574,16 +3574,16 @@
         <v>2.08</v>
       </c>
       <c r="P26" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="Q26" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="R26" t="n">
-        <v>2.27</v>
+        <v>2.67</v>
       </c>
       <c r="S26" t="n">
-        <v>1.57</v>
+        <v>1.42</v>
       </c>
       <c r="T26" t="n">
         <v>6</v>
@@ -3592,10 +3592,10 @@
         <v>5</v>
       </c>
       <c r="V26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W26" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="X26" t="n">
         <v>13</v>
@@ -3604,20 +3604,20 @@
         <v>41</v>
       </c>
       <c r="Z26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA26" t="n">
         <v>12</v>
       </c>
-      <c r="AA26" t="n">
-        <v>13</v>
-      </c>
       <c r="AB26" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC26" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AD26" t="inlineStr"/>
       <c r="AE26" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF26" t="n">
         <v>67</v>
@@ -3728,36 +3728,94 @@
           <t>Giana Erminio</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="inlineStr"/>
-      <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr"/>
-      <c r="V28" t="inlineStr"/>
-      <c r="W28" t="inlineStr"/>
-      <c r="X28" t="inlineStr"/>
-      <c r="Y28" t="inlineStr"/>
-      <c r="Z28" t="inlineStr"/>
-      <c r="AA28" t="inlineStr"/>
-      <c r="AB28" t="inlineStr"/>
-      <c r="AC28" t="inlineStr"/>
+      <c r="G28" t="n">
+        <v>2</v>
+      </c>
+      <c r="H28" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I28" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K28" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M28" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="N28" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R28" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="T28" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="U28" t="n">
+        <v>8</v>
+      </c>
+      <c r="V28" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="W28" t="n">
+        <v>17</v>
+      </c>
+      <c r="X28" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>120</v>
+      </c>
       <c r="AD28" t="inlineStr"/>
-      <c r="AE28" t="inlineStr"/>
-      <c r="AF28" t="inlineStr"/>
-      <c r="AG28" t="inlineStr"/>
-      <c r="AH28" t="inlineStr"/>
-      <c r="AI28" t="inlineStr"/>
-      <c r="AJ28" t="inlineStr"/>
+      <c r="AE28" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>55</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3790,36 +3848,96 @@
           <t>Catania</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="inlineStr"/>
-      <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr"/>
-      <c r="W29" t="inlineStr"/>
-      <c r="X29" t="inlineStr"/>
-      <c r="Y29" t="inlineStr"/>
-      <c r="Z29" t="inlineStr"/>
-      <c r="AA29" t="inlineStr"/>
-      <c r="AB29" t="inlineStr"/>
-      <c r="AC29" t="inlineStr"/>
-      <c r="AD29" t="inlineStr"/>
-      <c r="AE29" t="inlineStr"/>
-      <c r="AF29" t="inlineStr"/>
-      <c r="AG29" t="inlineStr"/>
-      <c r="AH29" t="inlineStr"/>
-      <c r="AI29" t="inlineStr"/>
-      <c r="AJ29" t="inlineStr"/>
+      <c r="G29" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="H29" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I29" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="K29" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="N29" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="T29" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="U29" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>9</v>
+      </c>
+      <c r="W29" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="X29" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>80</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>700</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>45</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3852,36 +3970,96 @@
           <t>Vis Pesaro</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="inlineStr"/>
-      <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr"/>
-      <c r="W30" t="inlineStr"/>
-      <c r="X30" t="inlineStr"/>
-      <c r="Y30" t="inlineStr"/>
-      <c r="Z30" t="inlineStr"/>
-      <c r="AA30" t="inlineStr"/>
-      <c r="AB30" t="inlineStr"/>
-      <c r="AC30" t="inlineStr"/>
-      <c r="AD30" t="inlineStr"/>
-      <c r="AE30" t="inlineStr"/>
-      <c r="AF30" t="inlineStr"/>
-      <c r="AG30" t="inlineStr"/>
-      <c r="AH30" t="inlineStr"/>
-      <c r="AI30" t="inlineStr"/>
-      <c r="AJ30" t="inlineStr"/>
+      <c r="G30" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H30" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="K30" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M30" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="N30" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="T30" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="U30" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="V30" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W30" t="n">
+        <v>27</v>
+      </c>
+      <c r="X30" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>35</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>80</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>700</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3914,36 +4092,96 @@
           <t>Atalanta U23</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="inlineStr"/>
-      <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr"/>
-      <c r="W31" t="inlineStr"/>
-      <c r="X31" t="inlineStr"/>
-      <c r="Y31" t="inlineStr"/>
-      <c r="Z31" t="inlineStr"/>
-      <c r="AA31" t="inlineStr"/>
-      <c r="AB31" t="inlineStr"/>
-      <c r="AC31" t="inlineStr"/>
-      <c r="AD31" t="inlineStr"/>
-      <c r="AE31" t="inlineStr"/>
-      <c r="AF31" t="inlineStr"/>
-      <c r="AG31" t="inlineStr"/>
-      <c r="AH31" t="inlineStr"/>
-      <c r="AI31" t="inlineStr"/>
-      <c r="AJ31" t="inlineStr"/>
+      <c r="G31" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H31" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I31" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K31" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="N31" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S31" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="T31" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="U31" t="n">
+        <v>13</v>
+      </c>
+      <c r="V31" t="n">
+        <v>9</v>
+      </c>
+      <c r="W31" t="n">
+        <v>26</v>
+      </c>
+      <c r="X31" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>50</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>350</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>22</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4099,31 +4337,31 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="H33" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I33" t="n">
         <v>2.55</v>
       </c>
       <c r="J33" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K33" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L33" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M33" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N33" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="O33" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="P33" t="n">
         <v>1.4</v>
@@ -4150,10 +4388,10 @@
         <v>26</v>
       </c>
       <c r="X33" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y33" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z33" t="n">
         <v>9.5</v>
@@ -4171,7 +4409,7 @@
         <v>251</v>
       </c>
       <c r="AE33" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF33" t="n">
         <v>12</v>
@@ -4591,94 +4829,94 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="H39" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I39" t="n">
         <v>3</v>
       </c>
       <c r="J39" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K39" t="n">
-        <v>7.9</v>
+        <v>11</v>
       </c>
       <c r="L39" t="n">
         <v>1.29</v>
       </c>
       <c r="M39" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N39" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="O39" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="P39" t="n">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R39" t="n">
-        <v>1.65</v>
+        <v>1.73</v>
       </c>
       <c r="S39" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T39" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="U39" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="V39" t="n">
         <v>9.5</v>
       </c>
       <c r="W39" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="X39" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="Y39" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>201</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ39" t="n">
         <v>29</v>
-      </c>
-      <c r="Z39" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AA39" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>14</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>60</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>450</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AF39" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AG39" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AH39" t="n">
-        <v>40</v>
-      </c>
-      <c r="AI39" t="n">
-        <v>27</v>
-      </c>
-      <c r="AJ39" t="n">
-        <v>32</v>
       </c>
     </row>
     <row r="40">
@@ -4713,13 +4951,13 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="H40" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I40" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="J40" t="n">
         <v>1.05</v>
@@ -4746,22 +4984,22 @@
         <v>3</v>
       </c>
       <c r="R40" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="S40" t="n">
         <v>2</v>
       </c>
       <c r="T40" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U40" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V40" t="n">
         <v>8.5</v>
       </c>
       <c r="W40" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X40" t="n">
         <v>15</v>
@@ -4773,7 +5011,7 @@
         <v>11</v>
       </c>
       <c r="AA40" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB40" t="n">
         <v>15</v>
@@ -4797,7 +5035,7 @@
         <v>41</v>
       </c>
       <c r="AI40" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ40" t="n">
         <v>34</v>
@@ -4868,10 +5106,10 @@
         <v>3</v>
       </c>
       <c r="R41" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="S41" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="T41" t="n">
         <v>7</v>
@@ -4990,7 +5228,7 @@
         <v>3</v>
       </c>
       <c r="R42" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="S42" t="n">
         <v>2.1</v>
@@ -5091,7 +5329,7 @@
         <v>1.02</v>
       </c>
       <c r="K43" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L43" t="n">
         <v>1.14</v>
@@ -5115,7 +5353,7 @@
         <v>1.67</v>
       </c>
       <c r="S43" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T43" t="n">
         <v>10</v>
@@ -5234,7 +5472,7 @@
         <v>2.75</v>
       </c>
       <c r="R44" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="S44" t="n">
         <v>2</v>
@@ -5338,10 +5576,10 @@
         <v>15</v>
       </c>
       <c r="L45" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="M45" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N45" t="n">
         <v>1.62</v>
@@ -5356,7 +5594,7 @@
         <v>3.5</v>
       </c>
       <c r="R45" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="S45" t="n">
         <v>2.1</v>
@@ -5478,7 +5716,7 @@
         <v>3.4</v>
       </c>
       <c r="R46" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="S46" t="n">
         <v>2.25</v>
@@ -5629,13 +5867,13 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H48" t="n">
         <v>3.6</v>
       </c>
       <c r="I48" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="J48" t="n">
         <v>1.06</v>
@@ -5644,55 +5882,55 @@
         <v>10</v>
       </c>
       <c r="L48" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M48" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N48" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="O48" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="P48" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R48" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="S48" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="T48" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U48" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V48" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W48" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X48" t="n">
         <v>21</v>
       </c>
       <c r="Y48" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z48" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA48" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB48" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC48" t="n">
         <v>51</v>
@@ -5710,13 +5948,13 @@
         <v>10</v>
       </c>
       <c r="AH48" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI48" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ48" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49">
@@ -5751,13 +5989,13 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="H49" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I49" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="J49" t="n">
         <v>1.07</v>
@@ -5772,16 +6010,16 @@
         <v>2.75</v>
       </c>
       <c r="N49" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="O49" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="P49" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R49" t="n">
         <v>2.05</v>
@@ -5790,19 +6028,19 @@
         <v>1.7</v>
       </c>
       <c r="T49" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U49" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="V49" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="W49" t="n">
         <v>41</v>
       </c>
       <c r="X49" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Y49" t="n">
         <v>41</v>
@@ -5826,16 +6064,16 @@
         <v>6</v>
       </c>
       <c r="AF49" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AG49" t="n">
         <v>9</v>
       </c>
       <c r="AH49" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI49" t="n">
         <v>17</v>
-      </c>
-      <c r="AI49" t="n">
-        <v>19</v>
       </c>
       <c r="AJ49" t="n">
         <v>34</v>
@@ -5873,13 +6111,13 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="H50" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I50" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="J50" t="n">
         <v>1.03</v>
@@ -5888,16 +6126,16 @@
         <v>15</v>
       </c>
       <c r="L50" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="M50" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N50" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="O50" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="P50" t="n">
         <v>1.29</v>
@@ -5906,10 +6144,10 @@
         <v>3.5</v>
       </c>
       <c r="R50" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S50" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T50" t="n">
         <v>8.5</v>
@@ -5918,7 +6156,7 @@
         <v>8</v>
       </c>
       <c r="V50" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="W50" t="n">
         <v>11</v>
@@ -6016,10 +6254,10 @@
         <v>3.4</v>
       </c>
       <c r="N51" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="O51" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="P51" t="n">
         <v>1.4</v>
@@ -6117,13 +6355,13 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.63</v>
+        <v>2.45</v>
       </c>
       <c r="H52" t="n">
         <v>3.6</v>
       </c>
       <c r="I52" t="n">
-        <v>2.45</v>
+        <v>2.63</v>
       </c>
       <c r="J52" t="n">
         <v>1.03</v>
@@ -6159,7 +6397,7 @@
         <v>13</v>
       </c>
       <c r="U52" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="V52" t="n">
         <v>10</v>
@@ -6168,7 +6406,7 @@
         <v>26</v>
       </c>
       <c r="X52" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y52" t="n">
         <v>21</v>
@@ -6183,7 +6421,7 @@
         <v>11</v>
       </c>
       <c r="AC52" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AD52" t="n">
         <v>101</v>
@@ -6192,16 +6430,16 @@
         <v>13</v>
       </c>
       <c r="AF52" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG52" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH52" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI52" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ52" t="n">
         <v>21</v>
@@ -6376,16 +6614,16 @@
         <v>15</v>
       </c>
       <c r="L54" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="M54" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N54" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="O54" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="P54" t="n">
         <v>1.3</v>
@@ -6858,22 +7096,22 @@
         <v>2.75</v>
       </c>
       <c r="J58" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K58" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L58" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M58" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N58" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="O58" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="P58" t="n">
         <v>1.4</v>
@@ -7049,7 +7287,7 @@
         <v>19</v>
       </c>
       <c r="AG59" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH59" t="n">
         <v>41</v>
@@ -7105,7 +7343,7 @@
         <v>1.03</v>
       </c>
       <c r="K60" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L60" t="n">
         <v>1.18</v>
@@ -7150,10 +7388,10 @@
         <v>21</v>
       </c>
       <c r="Z60" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA60" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB60" t="n">
         <v>13</v>
@@ -7236,10 +7474,10 @@
         <v>4</v>
       </c>
       <c r="N61" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="O61" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="P61" t="n">
         <v>1.33</v>
@@ -7825,13 +8063,13 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="H66" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I66" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="J66" t="n">
         <v>1.05</v>

--- a/Jogos_da_Semana_FlashScore_2025-05-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-14.xlsx
@@ -659,7 +659,7 @@
         <v>1.06</v>
       </c>
       <c r="K2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L2" t="n">
         <v>1.3</v>
@@ -781,7 +781,7 @@
         <v>1.04</v>
       </c>
       <c r="K3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L3" t="n">
         <v>1.22</v>
@@ -906,10 +906,10 @@
         <v>29</v>
       </c>
       <c r="L4" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="M4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N4" t="n">
         <v>1.29</v>
@@ -951,7 +951,7 @@
         <v>29</v>
       </c>
       <c r="AA4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB4" t="n">
         <v>29</v>
@@ -1135,13 +1135,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="H6" t="n">
         <v>4.2</v>
       </c>
       <c r="I6" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="J6" t="n">
         <v>1.03</v>
@@ -1177,7 +1177,7 @@
         <v>17</v>
       </c>
       <c r="U6" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="V6" t="n">
         <v>15</v>
@@ -1207,10 +1207,10 @@
         <v>151</v>
       </c>
       <c r="AE6" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AG6" t="n">
         <v>8.5</v>
@@ -1623,13 +1623,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="H10" t="n">
         <v>3.5</v>
       </c>
       <c r="I10" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J10" t="n">
         <v>1.03</v>
@@ -1662,7 +1662,7 @@
         <v>2.25</v>
       </c>
       <c r="T10" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="U10" t="n">
         <v>11</v>
@@ -1745,13 +1745,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="H11" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="I11" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="J11" t="n">
         <v>1.05</v>
@@ -1766,10 +1766,10 @@
         <v>3.75</v>
       </c>
       <c r="N11" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="O11" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="P11" t="n">
         <v>1.36</v>
@@ -1784,7 +1784,7 @@
         <v>2.1</v>
       </c>
       <c r="T11" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U11" t="n">
         <v>13</v>
@@ -1799,7 +1799,7 @@
         <v>21</v>
       </c>
       <c r="Y11" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z11" t="n">
         <v>11</v>
@@ -2843,13 +2843,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>4.35</v>
+        <v>3.85</v>
       </c>
       <c r="H20" t="n">
-        <v>2.95</v>
+        <v>2.82</v>
       </c>
       <c r="I20" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -2857,71 +2857,71 @@
         <v>1.5</v>
       </c>
       <c r="M20" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="N20" t="n">
-        <v>2.42</v>
+        <v>2.47</v>
       </c>
       <c r="O20" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="P20" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="R20" t="n">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="S20" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="T20" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U20" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="V20" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="W20" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="X20" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="Y20" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="Z20" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AA20" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="AB20" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AD20" t="inlineStr"/>
       <c r="AE20" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="AF20" t="n">
-        <v>7.7</v>
+        <v>8.5</v>
       </c>
       <c r="AG20" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>16.5</v>
+        <v>19.5</v>
       </c>
       <c r="AI20" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="AJ20" t="n">
         <v>45</v>
@@ -3086,13 +3086,13 @@
         <v>3.8</v>
       </c>
       <c r="J22" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L22" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="M22" t="n">
         <v>3.4</v>
@@ -3104,19 +3104,19 @@
         <v>1.83</v>
       </c>
       <c r="P22" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q22" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R22" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="S22" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="T22" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U22" t="n">
         <v>9</v>
@@ -3125,19 +3125,19 @@
         <v>8.5</v>
       </c>
       <c r="W22" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X22" t="n">
         <v>15</v>
       </c>
       <c r="Y22" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z22" t="n">
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB22" t="n">
         <v>15</v>
@@ -3146,7 +3146,7 @@
         <v>51</v>
       </c>
       <c r="AD22" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE22" t="n">
         <v>11</v>
@@ -3568,10 +3568,10 @@
         <v>4</v>
       </c>
       <c r="N26" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="O26" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="P26" t="n">
         <v>1.33</v>
@@ -3580,10 +3580,10 @@
         <v>3.05</v>
       </c>
       <c r="R26" t="n">
-        <v>2.67</v>
+        <v>2.42</v>
       </c>
       <c r="S26" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="T26" t="n">
         <v>6</v>
@@ -3666,36 +3666,96 @@
           <t>Crotone</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="inlineStr"/>
-      <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr"/>
-      <c r="V27" t="inlineStr"/>
-      <c r="W27" t="inlineStr"/>
-      <c r="X27" t="inlineStr"/>
-      <c r="Y27" t="inlineStr"/>
-      <c r="Z27" t="inlineStr"/>
-      <c r="AA27" t="inlineStr"/>
-      <c r="AB27" t="inlineStr"/>
-      <c r="AC27" t="inlineStr"/>
-      <c r="AD27" t="inlineStr"/>
-      <c r="AE27" t="inlineStr"/>
-      <c r="AF27" t="inlineStr"/>
-      <c r="AG27" t="inlineStr"/>
-      <c r="AH27" t="inlineStr"/>
-      <c r="AI27" t="inlineStr"/>
-      <c r="AJ27" t="inlineStr"/>
+      <c r="G27" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H27" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I27" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="K27" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="N27" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="S27" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="T27" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="U27" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="V27" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="W27" t="n">
+        <v>24</v>
+      </c>
+      <c r="X27" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>28</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>60</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>450</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>45</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>28</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3729,83 +3789,83 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2</v>
+        <v>2.22</v>
       </c>
       <c r="H28" t="n">
-        <v>3.25</v>
+        <v>2.92</v>
       </c>
       <c r="I28" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="J28" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K28" t="n">
-        <v>5.9</v>
+        <v>5.5</v>
       </c>
       <c r="L28" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="M28" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="N28" t="n">
-        <v>2.37</v>
+        <v>2.42</v>
       </c>
       <c r="O28" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="P28" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="R28" t="n">
-        <v>2.12</v>
+        <v>2.05</v>
       </c>
       <c r="S28" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="T28" t="n">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="U28" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="V28" t="n">
         <v>9.25</v>
       </c>
       <c r="W28" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="X28" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="Y28" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Z28" t="n">
-        <v>5.9</v>
+        <v>5.5</v>
       </c>
       <c r="AA28" t="n">
-        <v>6.4</v>
+        <v>5.7</v>
       </c>
       <c r="AB28" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AC28" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AD28" t="inlineStr"/>
       <c r="AE28" t="n">
-        <v>8.25</v>
+        <v>7.6</v>
       </c>
       <c r="AF28" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AG28" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH28" t="n">
         <v>55</v>
@@ -3849,19 +3909,19 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="H29" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I29" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="J29" t="n">
         <v>1.08</v>
       </c>
       <c r="K29" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="L29" t="n">
         <v>1.37</v>
@@ -3882,22 +3942,22 @@
         <v>2.5</v>
       </c>
       <c r="R29" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="S29" t="n">
         <v>1.83</v>
       </c>
       <c r="T29" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="U29" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="V29" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="W29" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="X29" t="n">
         <v>18</v>
@@ -3906,10 +3966,10 @@
         <v>32</v>
       </c>
       <c r="Z29" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AA29" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AB29" t="n">
         <v>15.5</v>
@@ -3921,22 +3981,22 @@
         <v>700</v>
       </c>
       <c r="AE29" t="n">
-        <v>8.75</v>
+        <v>9.5</v>
       </c>
       <c r="AF29" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AG29" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AH29" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AI29" t="n">
         <v>32</v>
       </c>
       <c r="AJ29" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30">
@@ -3971,91 +4031,91 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="H30" t="n">
-        <v>3.1</v>
+        <v>2.95</v>
       </c>
       <c r="I30" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="J30" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="K30" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="L30" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="M30" t="n">
-        <v>2.77</v>
+        <v>2.72</v>
       </c>
       <c r="N30" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="O30" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="P30" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.42</v>
+        <v>2.37</v>
       </c>
       <c r="R30" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="S30" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="T30" t="n">
         <v>7.4</v>
       </c>
       <c r="U30" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="V30" t="n">
         <v>9.5</v>
       </c>
       <c r="W30" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="X30" t="n">
         <v>22</v>
       </c>
       <c r="Y30" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Z30" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="AA30" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="AB30" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC30" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AD30" t="n">
         <v>700</v>
       </c>
       <c r="AE30" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AF30" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AG30" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AH30" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AI30" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ30" t="n">
         <v>40</v>
@@ -4093,94 +4153,94 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="H31" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="I31" t="n">
-        <v>2.77</v>
+        <v>3.1</v>
       </c>
       <c r="J31" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K31" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="N31" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S31" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="T31" t="n">
         <v>7.7</v>
       </c>
-      <c r="L31" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="M31" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="N31" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="O31" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="P31" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="R31" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S31" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="T31" t="n">
-        <v>9.5</v>
-      </c>
       <c r="U31" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="V31" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="W31" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X31" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="Y31" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="Z31" t="n">
-        <v>7.7</v>
+        <v>7.1</v>
       </c>
       <c r="AA31" t="n">
-        <v>6.5</v>
+        <v>6.1</v>
       </c>
       <c r="AB31" t="n">
         <v>12.5</v>
       </c>
       <c r="AC31" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AD31" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AE31" t="n">
-        <v>9.75</v>
+        <v>10.5</v>
       </c>
       <c r="AF31" t="n">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="AG31" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AH31" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AI31" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AJ31" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32">
@@ -4458,9 +4518,15 @@
           <t>Riga FC</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
+      <c r="G34" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="H34" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="I34" t="n">
+        <v>1.18</v>
+      </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
@@ -4471,23 +4537,55 @@
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr"/>
-      <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr"/>
-      <c r="W34" t="inlineStr"/>
-      <c r="X34" t="inlineStr"/>
-      <c r="Y34" t="inlineStr"/>
-      <c r="Z34" t="inlineStr"/>
-      <c r="AA34" t="inlineStr"/>
-      <c r="AB34" t="inlineStr"/>
-      <c r="AC34" t="inlineStr"/>
+      <c r="T34" t="n">
+        <v>25</v>
+      </c>
+      <c r="U34" t="n">
+        <v>70</v>
+      </c>
+      <c r="V34" t="n">
+        <v>30</v>
+      </c>
+      <c r="W34" t="n">
+        <v>300</v>
+      </c>
+      <c r="X34" t="n">
+        <v>120</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>90</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>100</v>
+      </c>
       <c r="AD34" t="inlineStr"/>
-      <c r="AE34" t="inlineStr"/>
-      <c r="AF34" t="inlineStr"/>
-      <c r="AG34" t="inlineStr"/>
-      <c r="AH34" t="inlineStr"/>
-      <c r="AI34" t="inlineStr"/>
-      <c r="AJ34" t="inlineStr"/>
+      <c r="AE34" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4520,36 +4618,80 @@
           <t>RFS</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
+      <c r="G35" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="H35" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I35" t="n">
+        <v>1.4</v>
+      </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
-      <c r="O35" t="inlineStr"/>
+      <c r="N35" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="O35" t="n">
+        <v>2</v>
+      </c>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr"/>
       <c r="S35" t="inlineStr"/>
-      <c r="T35" t="inlineStr"/>
-      <c r="U35" t="inlineStr"/>
-      <c r="V35" t="inlineStr"/>
-      <c r="W35" t="inlineStr"/>
-      <c r="X35" t="inlineStr"/>
-      <c r="Y35" t="inlineStr"/>
-      <c r="Z35" t="inlineStr"/>
-      <c r="AA35" t="inlineStr"/>
-      <c r="AB35" t="inlineStr"/>
-      <c r="AC35" t="inlineStr"/>
-      <c r="AD35" t="inlineStr"/>
-      <c r="AE35" t="inlineStr"/>
-      <c r="AF35" t="inlineStr"/>
-      <c r="AG35" t="inlineStr"/>
-      <c r="AH35" t="inlineStr"/>
-      <c r="AI35" t="inlineStr"/>
-      <c r="AJ35" t="inlineStr"/>
+      <c r="T35" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="U35" t="n">
+        <v>32</v>
+      </c>
+      <c r="V35" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="W35" t="n">
+        <v>100</v>
+      </c>
+      <c r="X35" t="n">
+        <v>50</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>50</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>60</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>400</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4844,16 +4986,16 @@
         <v>11</v>
       </c>
       <c r="L39" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M39" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N39" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="O39" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="P39" t="n">
         <v>1.36</v>
@@ -4984,7 +5126,7 @@
         <v>3</v>
       </c>
       <c r="R40" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="S40" t="n">
         <v>2</v>
@@ -5106,10 +5248,10 @@
         <v>3</v>
       </c>
       <c r="R41" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="S41" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="T41" t="n">
         <v>7</v>
@@ -5228,7 +5370,7 @@
         <v>3</v>
       </c>
       <c r="R42" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="S42" t="n">
         <v>2.1</v>
@@ -5350,7 +5492,7 @@
         <v>4</v>
       </c>
       <c r="R43" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S43" t="n">
         <v>2.05</v>
@@ -5472,7 +5614,7 @@
         <v>2.75</v>
       </c>
       <c r="R44" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="S44" t="n">
         <v>2</v>
@@ -5594,7 +5736,7 @@
         <v>3.5</v>
       </c>
       <c r="R45" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="S45" t="n">
         <v>2.1</v>
@@ -5716,7 +5858,7 @@
         <v>3.4</v>
       </c>
       <c r="R46" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="S46" t="n">
         <v>2.25</v>
@@ -5804,36 +5946,84 @@
           <t>Balestier Khalsa</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr"/>
+      <c r="G47" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H47" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I47" t="n">
+        <v>3.8</v>
+      </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr"/>
-      <c r="N47" t="inlineStr"/>
-      <c r="O47" t="inlineStr"/>
+      <c r="N47" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O47" t="n">
+        <v>4.33</v>
+      </c>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="inlineStr"/>
-      <c r="T47" t="inlineStr"/>
-      <c r="U47" t="inlineStr"/>
-      <c r="V47" t="inlineStr"/>
-      <c r="W47" t="inlineStr"/>
-      <c r="X47" t="inlineStr"/>
-      <c r="Y47" t="inlineStr"/>
-      <c r="Z47" t="inlineStr"/>
-      <c r="AA47" t="inlineStr"/>
-      <c r="AB47" t="inlineStr"/>
-      <c r="AC47" t="inlineStr"/>
-      <c r="AD47" t="inlineStr"/>
-      <c r="AE47" t="inlineStr"/>
-      <c r="AF47" t="inlineStr"/>
-      <c r="AG47" t="inlineStr"/>
-      <c r="AH47" t="inlineStr"/>
-      <c r="AI47" t="inlineStr"/>
-      <c r="AJ47" t="inlineStr"/>
+      <c r="R47" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S47" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="T47" t="n">
+        <v>21</v>
+      </c>
+      <c r="U47" t="n">
+        <v>17</v>
+      </c>
+      <c r="V47" t="n">
+        <v>11</v>
+      </c>
+      <c r="W47" t="n">
+        <v>19</v>
+      </c>
+      <c r="X47" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>51</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -6721,13 +6911,13 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H55" t="n">
         <v>4</v>
       </c>
       <c r="I55" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="J55" t="n">
         <v>1.03</v>
@@ -6748,10 +6938,10 @@
         <v>2.08</v>
       </c>
       <c r="P55" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Q55" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="R55" t="n">
         <v>1.7</v>
@@ -6796,7 +6986,7 @@
         <v>13</v>
       </c>
       <c r="AF55" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG55" t="n">
         <v>13</v>
@@ -6805,7 +6995,7 @@
         <v>41</v>
       </c>
       <c r="AI55" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ55" t="n">
         <v>34</v>
@@ -6864,10 +7054,10 @@
         <v>4.5</v>
       </c>
       <c r="N56" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="O56" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="P56" t="n">
         <v>1.29</v>
@@ -6906,7 +7096,7 @@
         <v>8</v>
       </c>
       <c r="AB56" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC56" t="n">
         <v>41</v>
@@ -6915,7 +7105,7 @@
         <v>151</v>
       </c>
       <c r="AE56" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF56" t="n">
         <v>26</v>
@@ -7697,13 +7887,13 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H63" t="n">
         <v>3.3</v>
       </c>
       <c r="I63" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="J63" t="n">
         <v>1.05</v>
@@ -7730,22 +7920,22 @@
         <v>2.75</v>
       </c>
       <c r="R63" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S63" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T63" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U63" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V63" t="n">
         <v>9</v>
       </c>
       <c r="W63" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X63" t="n">
         <v>17</v>
@@ -7760,28 +7950,28 @@
         <v>6.5</v>
       </c>
       <c r="AB63" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC63" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD63" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE63" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF63" t="n">
         <v>17</v>
       </c>
       <c r="AG63" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH63" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI63" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ63" t="n">
         <v>34</v>
@@ -7941,19 +8131,19 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H65" t="n">
         <v>3.75</v>
       </c>
       <c r="I65" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="J65" t="n">
         <v>1.02</v>
       </c>
       <c r="K65" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L65" t="n">
         <v>1.14</v>
@@ -8013,7 +8203,7 @@
         <v>81</v>
       </c>
       <c r="AE65" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF65" t="n">
         <v>17</v>
@@ -8063,13 +8253,13 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="H66" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="I66" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="J66" t="n">
         <v>1.05</v>
@@ -8090,7 +8280,7 @@
         <v>1.98</v>
       </c>
       <c r="P66" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="Q66" t="n">
         <v>2.87</v>
@@ -8102,10 +8292,10 @@
         <v>2.05</v>
       </c>
       <c r="T66" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="U66" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V66" t="n">
         <v>12.5</v>
@@ -8123,7 +8313,7 @@
         <v>8</v>
       </c>
       <c r="AA66" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AB66" t="n">
         <v>14</v>
@@ -8135,22 +8325,22 @@
         <v>400</v>
       </c>
       <c r="AE66" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AF66" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AG66" t="n">
         <v>8.25</v>
       </c>
       <c r="AH66" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AI66" t="n">
         <v>14</v>
       </c>
       <c r="AJ66" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-05-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-14.xlsx
@@ -769,13 +769,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H3" t="n">
         <v>3.5</v>
       </c>
       <c r="I3" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J3" t="n">
         <v>1.04</v>
@@ -784,16 +784,16 @@
         <v>13</v>
       </c>
       <c r="L3" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M3" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N3" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="O3" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="P3" t="n">
         <v>1.33</v>
@@ -802,10 +802,10 @@
         <v>3.25</v>
       </c>
       <c r="R3" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S3" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T3" t="n">
         <v>9.5</v>
@@ -826,10 +826,10 @@
         <v>23</v>
       </c>
       <c r="Z3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB3" t="n">
         <v>12</v>
@@ -841,7 +841,7 @@
         <v>151</v>
       </c>
       <c r="AE3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF3" t="n">
         <v>17</v>
@@ -894,22 +894,22 @@
         <v>1.14</v>
       </c>
       <c r="H4" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="I4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J4" t="n">
         <v>1.01</v>
       </c>
       <c r="K4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L4" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="M4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N4" t="n">
         <v>1.29</v>
@@ -1013,19 +1013,19 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="H5" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I5" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="J5" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L5" t="n">
         <v>1.14</v>
@@ -1079,16 +1079,16 @@
         <v>11</v>
       </c>
       <c r="AC5" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AD5" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AE5" t="n">
         <v>13</v>
       </c>
       <c r="AF5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG5" t="n">
         <v>10</v>
@@ -1097,7 +1097,7 @@
         <v>26</v>
       </c>
       <c r="AI5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ5" t="n">
         <v>21</v>
@@ -1135,13 +1135,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="H6" t="n">
         <v>4.2</v>
       </c>
       <c r="I6" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="J6" t="n">
         <v>1.03</v>
@@ -1207,10 +1207,10 @@
         <v>151</v>
       </c>
       <c r="AE6" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF6" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AG6" t="n">
         <v>8.5</v>
@@ -1644,10 +1644,10 @@
         <v>4.5</v>
       </c>
       <c r="N10" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="O10" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="P10" t="n">
         <v>1.29</v>
@@ -1689,7 +1689,7 @@
         <v>12</v>
       </c>
       <c r="AC10" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AD10" t="n">
         <v>126</v>
@@ -1745,19 +1745,19 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="H11" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="I11" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="J11" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K11" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L11" t="n">
         <v>1.25</v>
@@ -1766,10 +1766,10 @@
         <v>3.75</v>
       </c>
       <c r="N11" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="O11" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="P11" t="n">
         <v>1.36</v>
@@ -1870,16 +1870,16 @@
         <v>2.1</v>
       </c>
       <c r="H12" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I12" t="n">
         <v>3.7</v>
       </c>
       <c r="J12" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K12" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="L12" t="n">
         <v>1.44</v>
@@ -1906,7 +1906,7 @@
         <v>1.75</v>
       </c>
       <c r="T12" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U12" t="n">
         <v>9</v>
@@ -1992,7 +1992,7 @@
         <v>1.33</v>
       </c>
       <c r="H13" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="I13" t="n">
         <v>8</v>
@@ -2028,7 +2028,7 @@
         <v>1.8</v>
       </c>
       <c r="T13" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U13" t="n">
         <v>7</v>
@@ -2043,7 +2043,7 @@
         <v>11</v>
       </c>
       <c r="Y13" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z13" t="n">
         <v>17</v>
@@ -2070,7 +2070,7 @@
         <v>21</v>
       </c>
       <c r="AH13" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AI13" t="n">
         <v>51</v>
@@ -2233,13 +2233,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H15" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I15" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J15" t="n">
         <v>1.07</v>
@@ -2266,10 +2266,10 @@
         <v>2.63</v>
       </c>
       <c r="R15" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="S15" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T15" t="n">
         <v>7</v>
@@ -2370,10 +2370,10 @@
         <v>8</v>
       </c>
       <c r="L16" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M16" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="N16" t="n">
         <v>2.35</v>
@@ -2412,7 +2412,7 @@
         <v>41</v>
       </c>
       <c r="Z16" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA16" t="n">
         <v>6</v>
@@ -2477,49 +2477,49 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H17" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="I17" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="J17" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K17" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L17" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="P17" t="n">
         <v>1.36</v>
       </c>
-      <c r="M17" t="n">
+      <c r="Q17" t="n">
         <v>3</v>
       </c>
-      <c r="N17" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="O17" t="n">
+      <c r="R17" t="n">
         <v>1.67</v>
       </c>
-      <c r="P17" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.83</v>
-      </c>
       <c r="S17" t="n">
-        <v>1.83</v>
+        <v>2.1</v>
       </c>
       <c r="T17" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="U17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="V17" t="n">
         <v>12</v>
@@ -2528,31 +2528,31 @@
         <v>34</v>
       </c>
       <c r="X17" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y17" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC17" t="n">
         <v>41</v>
       </c>
-      <c r="Z17" t="n">
-        <v>8</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>51</v>
-      </c>
       <c r="AD17" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AE17" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AF17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG17" t="n">
         <v>9.5</v>
@@ -2561,10 +2561,10 @@
         <v>21</v>
       </c>
       <c r="AI17" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ17" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18">
@@ -2843,13 +2843,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3.85</v>
+        <v>4.05</v>
       </c>
       <c r="H20" t="n">
-        <v>2.82</v>
+        <v>2.9</v>
       </c>
       <c r="I20" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -2860,49 +2860,49 @@
         <v>2.25</v>
       </c>
       <c r="N20" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="O20" t="n">
         <v>1.42</v>
       </c>
       <c r="P20" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="R20" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="S20" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="T20" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="U20" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="V20" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="W20" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="X20" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="Y20" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="Z20" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AA20" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="AB20" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AC20" t="n">
         <v>120</v>
@@ -2912,19 +2912,19 @@
         <v>5.3</v>
       </c>
       <c r="AF20" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AG20" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH20" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AI20" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AJ20" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21">
@@ -2959,10 +2959,10 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.07</v>
+        <v>2.12</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="I21" t="n">
         <v>3.6</v>
@@ -2970,79 +2970,79 @@
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="M21" t="n">
-        <v>2.52</v>
+        <v>2.35</v>
       </c>
       <c r="N21" t="n">
-        <v>2.15</v>
+        <v>2.32</v>
       </c>
       <c r="O21" t="n">
-        <v>1.55</v>
+        <v>1.47</v>
       </c>
       <c r="P21" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.37</v>
+        <v>2.25</v>
       </c>
       <c r="R21" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S21" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="T21" t="n">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="U21" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="V21" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="W21" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="X21" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="Y21" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="Z21" t="n">
-        <v>7.3</v>
+        <v>6.6</v>
       </c>
       <c r="AA21" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AB21" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AD21" t="n">
         <v>800</v>
       </c>
       <c r="AE21" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF21" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AG21" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH21" t="n">
         <v>55</v>
       </c>
       <c r="AI21" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AJ21" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22">
@@ -3086,13 +3086,13 @@
         <v>3.8</v>
       </c>
       <c r="J22" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="K22" t="n">
         <v>10</v>
       </c>
       <c r="L22" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="M22" t="n">
         <v>3.4</v>
@@ -3199,10 +3199,10 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="H23" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="I23" t="n">
         <v>9.25</v>
@@ -3222,13 +3222,13 @@
         <v>2.27</v>
       </c>
       <c r="T23" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="U23" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="V23" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="W23" t="n">
         <v>10.25</v>
@@ -3243,10 +3243,10 @@
         <v>32</v>
       </c>
       <c r="AA23" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AB23" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AC23" t="n">
         <v>45</v>
@@ -3270,7 +3270,7 @@
         <v>90</v>
       </c>
       <c r="AJ23" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24">
@@ -3568,10 +3568,10 @@
         <v>4</v>
       </c>
       <c r="N26" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="O26" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="P26" t="n">
         <v>1.33</v>
@@ -3667,94 +3667,94 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="H27" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I27" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="J27" t="n">
         <v>1.07</v>
       </c>
       <c r="K27" t="n">
-        <v>6.7</v>
+        <v>7.1</v>
       </c>
       <c r="L27" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="M27" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="N27" t="n">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="O27" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="P27" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.52</v>
+        <v>2.62</v>
       </c>
       <c r="R27" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="S27" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="T27" t="n">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="U27" t="n">
         <v>11.25</v>
       </c>
       <c r="V27" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="W27" t="n">
+        <v>22</v>
+      </c>
+      <c r="X27" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y27" t="n">
         <v>24</v>
       </c>
-      <c r="X27" t="n">
+      <c r="Z27" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>50</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>400</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AF27" t="n">
         <v>19</v>
       </c>
-      <c r="Y27" t="n">
-        <v>28</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>60</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>450</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>17</v>
-      </c>
       <c r="AG27" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="AH27" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AI27" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AJ27" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28">
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="H28" t="n">
         <v>2.92</v>
@@ -3828,7 +3828,7 @@
         <v>1.7</v>
       </c>
       <c r="T28" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="U28" t="n">
         <v>9.5</v>
@@ -3837,19 +3837,19 @@
         <v>9.25</v>
       </c>
       <c r="W28" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X28" t="n">
         <v>21</v>
       </c>
       <c r="Y28" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Z28" t="n">
         <v>5.5</v>
       </c>
       <c r="AA28" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AB28" t="n">
         <v>17.5</v>
@@ -3859,7 +3859,7 @@
       </c>
       <c r="AD28" t="inlineStr"/>
       <c r="AE28" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AF28" t="n">
         <v>16.5</v>
@@ -3868,13 +3868,13 @@
         <v>13</v>
       </c>
       <c r="AH28" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AI28" t="n">
         <v>40</v>
       </c>
       <c r="AJ28" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29">
@@ -4619,75 +4619,75 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>6.3</v>
+        <v>7</v>
       </c>
       <c r="H35" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="I35" t="n">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="O35" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr"/>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="U35" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="V35" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="W35" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="X35" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="Y35" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="Z35" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AA35" t="n">
-        <v>7.4</v>
+        <v>7.7</v>
       </c>
       <c r="AB35" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AC35" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AD35" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AE35" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AF35" t="n">
         <v>5.8</v>
       </c>
       <c r="AG35" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AH35" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AI35" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AJ35" t="n">
         <v>21</v>
@@ -4971,13 +4971,13 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="H39" t="n">
         <v>3.4</v>
       </c>
       <c r="I39" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="J39" t="n">
         <v>1.05</v>
@@ -4992,10 +4992,10 @@
         <v>3.75</v>
       </c>
       <c r="N39" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="O39" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="P39" t="n">
         <v>1.36</v>
@@ -5004,22 +5004,22 @@
         <v>3</v>
       </c>
       <c r="R39" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S39" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T39" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U39" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V39" t="n">
         <v>9.5</v>
       </c>
       <c r="W39" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X39" t="n">
         <v>19</v>
@@ -5040,7 +5040,7 @@
         <v>41</v>
       </c>
       <c r="AD39" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE39" t="n">
         <v>10</v>
@@ -5052,10 +5052,10 @@
         <v>11</v>
       </c>
       <c r="AH39" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI39" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ39" t="n">
         <v>29</v>
@@ -5215,13 +5215,13 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="H41" t="n">
         <v>3.8</v>
       </c>
       <c r="I41" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="J41" t="n">
         <v>1.05</v>
@@ -5358,10 +5358,10 @@
         <v>4</v>
       </c>
       <c r="N42" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="O42" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="P42" t="n">
         <v>1.36</v>
@@ -5947,13 +5947,13 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="H47" t="n">
         <v>4.5</v>
       </c>
       <c r="I47" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
@@ -5989,7 +5989,7 @@
         <v>12</v>
       </c>
       <c r="Y47" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Z47" t="n">
         <v>34</v>
@@ -6010,7 +6010,7 @@
         <v>34</v>
       </c>
       <c r="AF47" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG47" t="n">
         <v>17</v>
@@ -6057,31 +6057,31 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="H48" t="n">
         <v>3.6</v>
       </c>
       <c r="I48" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="J48" t="n">
         <v>1.06</v>
       </c>
       <c r="K48" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L48" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M48" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N48" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="O48" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="P48" t="n">
         <v>1.44</v>
@@ -6096,16 +6096,16 @@
         <v>1.91</v>
       </c>
       <c r="T48" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U48" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V48" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W48" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X48" t="n">
         <v>21</v>
@@ -6117,7 +6117,7 @@
         <v>9.5</v>
       </c>
       <c r="AA48" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB48" t="n">
         <v>17</v>
@@ -6129,19 +6129,19 @@
         <v>301</v>
       </c>
       <c r="AE48" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF48" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG48" t="n">
         <v>10</v>
       </c>
       <c r="AH48" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI48" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ48" t="n">
         <v>34</v>
@@ -6301,19 +6301,19 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="H50" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I50" t="n">
-        <v>6.25</v>
+        <v>5.75</v>
       </c>
       <c r="J50" t="n">
         <v>1.03</v>
       </c>
       <c r="K50" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L50" t="n">
         <v>1.17</v>
@@ -6423,19 +6423,19 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H51" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I51" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J51" t="n">
         <v>1.06</v>
       </c>
       <c r="K51" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L51" t="n">
         <v>1.3</v>
@@ -6456,10 +6456,10 @@
         <v>2.75</v>
       </c>
       <c r="R51" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="S51" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="T51" t="n">
         <v>8</v>
@@ -6471,7 +6471,7 @@
         <v>9.5</v>
       </c>
       <c r="W51" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X51" t="n">
         <v>19</v>
@@ -6492,7 +6492,7 @@
         <v>51</v>
       </c>
       <c r="AD51" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE51" t="n">
         <v>9.5</v>
@@ -6501,13 +6501,13 @@
         <v>15</v>
       </c>
       <c r="AG51" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH51" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI51" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ51" t="n">
         <v>34</v>
@@ -6792,10 +6792,10 @@
         <v>2.25</v>
       </c>
       <c r="H54" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I54" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J54" t="n">
         <v>1.03</v>
@@ -6816,19 +6816,19 @@
         <v>2.25</v>
       </c>
       <c r="P54" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="Q54" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R54" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S54" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="T54" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U54" t="n">
         <v>13</v>
@@ -6855,13 +6855,13 @@
         <v>12</v>
       </c>
       <c r="AC54" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AD54" t="n">
         <v>126</v>
       </c>
       <c r="AE54" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF54" t="n">
         <v>17</v>
@@ -6914,16 +6914,16 @@
         <v>1.8</v>
       </c>
       <c r="H55" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I55" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="J55" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K55" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L55" t="n">
         <v>1.22</v>
@@ -6980,13 +6980,13 @@
         <v>41</v>
       </c>
       <c r="AD55" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE55" t="n">
         <v>13</v>
       </c>
       <c r="AF55" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG55" t="n">
         <v>13</v>
@@ -6995,7 +6995,7 @@
         <v>41</v>
       </c>
       <c r="AI55" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ55" t="n">
         <v>34</v>
@@ -7155,13 +7155,13 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="H57" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="I57" t="n">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="J57" t="n">
         <v>1.05</v>
@@ -7200,13 +7200,13 @@
         <v>15</v>
       </c>
       <c r="V57" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W57" t="n">
         <v>29</v>
       </c>
       <c r="X57" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y57" t="n">
         <v>29</v>
@@ -7218,7 +7218,7 @@
         <v>6.5</v>
       </c>
       <c r="AB57" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC57" t="n">
         <v>41</v>
@@ -7286,22 +7286,22 @@
         <v>2.75</v>
       </c>
       <c r="J58" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K58" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L58" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M58" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N58" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="O58" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="P58" t="n">
         <v>1.4</v>
@@ -7643,13 +7643,13 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H61" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="I61" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="J61" t="n">
         <v>1.04</v>
@@ -7691,7 +7691,7 @@
         <v>9</v>
       </c>
       <c r="W61" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X61" t="n">
         <v>17</v>
@@ -7703,7 +7703,7 @@
         <v>13</v>
       </c>
       <c r="AA61" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB61" t="n">
         <v>13</v>
@@ -8253,13 +8253,13 @@
         </is>
       </c>
       <c r="G66" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="H66" t="n">
         <v>3.65</v>
       </c>
-      <c r="H66" t="n">
-        <v>3.55</v>
-      </c>
       <c r="I66" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="J66" t="n">
         <v>1.05</v>
@@ -8289,58 +8289,58 @@
         <v>1.7</v>
       </c>
       <c r="S66" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="T66" t="n">
         <v>12</v>
       </c>
       <c r="U66" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="V66" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="W66" t="n">
         <v>55</v>
       </c>
       <c r="X66" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Y66" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Z66" t="n">
         <v>8</v>
       </c>
       <c r="AA66" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AB66" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AC66" t="n">
         <v>60</v>
       </c>
       <c r="AD66" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AE66" t="n">
         <v>8</v>
       </c>
       <c r="AF66" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AG66" t="n">
         <v>8.25</v>
       </c>
       <c r="AH66" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AI66" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AJ66" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-05-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-14.xlsx
@@ -659,7 +659,7 @@
         <v>1.06</v>
       </c>
       <c r="K2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L2" t="n">
         <v>1.3</v>
@@ -686,10 +686,10 @@
         <v>2</v>
       </c>
       <c r="T2" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V2" t="n">
         <v>9.5</v>
@@ -713,7 +713,7 @@
         <v>13</v>
       </c>
       <c r="AC2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD2" t="n">
         <v>201</v>
@@ -906,16 +906,16 @@
         <v>26</v>
       </c>
       <c r="L4" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="M4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N4" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="O4" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P4" t="n">
         <v>1.17</v>
@@ -1385,7 +1385,7 @@
         <v>12</v>
       </c>
       <c r="I8" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J8" t="n">
         <v>1.01</v>
@@ -1412,10 +1412,10 @@
         <v>6</v>
       </c>
       <c r="R8" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S8" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="T8" t="n">
         <v>15</v>
@@ -1424,22 +1424,22 @@
         <v>8.5</v>
       </c>
       <c r="V8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="W8" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y8" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z8" t="n">
         <v>34</v>
       </c>
       <c r="AA8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB8" t="n">
         <v>34</v>
@@ -1448,7 +1448,7 @@
         <v>81</v>
       </c>
       <c r="AD8" t="n">
-        <v>501</v>
+        <v>351</v>
       </c>
       <c r="AE8" t="n">
         <v>51</v>
@@ -1501,13 +1501,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.38</v>
+        <v>2.45</v>
       </c>
       <c r="H9" t="n">
         <v>3.5</v>
       </c>
       <c r="I9" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="J9" t="n">
         <v>1.04</v>
@@ -1528,10 +1528,10 @@
         <v>2.1</v>
       </c>
       <c r="P9" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R9" t="n">
         <v>1.57</v>
@@ -1772,10 +1772,10 @@
         <v>2.03</v>
       </c>
       <c r="P11" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q11" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R11" t="n">
         <v>1.67</v>
@@ -1802,7 +1802,7 @@
         <v>26</v>
       </c>
       <c r="Z11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA11" t="n">
         <v>6.5</v>
@@ -1817,7 +1817,7 @@
         <v>151</v>
       </c>
       <c r="AE11" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF11" t="n">
         <v>13</v>
@@ -1829,7 +1829,7 @@
         <v>26</v>
       </c>
       <c r="AI11" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ11" t="n">
         <v>26</v>
@@ -1867,19 +1867,19 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H12" t="n">
         <v>3.2</v>
       </c>
       <c r="I12" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="J12" t="n">
         <v>1.08</v>
       </c>
       <c r="K12" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L12" t="n">
         <v>1.44</v>
@@ -1888,10 +1888,10 @@
         <v>2.75</v>
       </c>
       <c r="N12" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="O12" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="P12" t="n">
         <v>1.5</v>
@@ -1939,7 +1939,7 @@
         <v>451</v>
       </c>
       <c r="AE12" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF12" t="n">
         <v>17</v>
@@ -2001,13 +2001,13 @@
         <v>1.03</v>
       </c>
       <c r="K13" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L13" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="M13" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N13" t="n">
         <v>1.57</v>
@@ -2111,19 +2111,19 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="H14" t="n">
         <v>5.25</v>
       </c>
       <c r="I14" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="J14" t="n">
         <v>1.03</v>
       </c>
       <c r="K14" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L14" t="n">
         <v>1.2</v>
@@ -2132,10 +2132,10 @@
         <v>4.5</v>
       </c>
       <c r="N14" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="O14" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="P14" t="n">
         <v>1.29</v>
@@ -2174,7 +2174,7 @@
         <v>10</v>
       </c>
       <c r="AB14" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC14" t="n">
         <v>51</v>
@@ -2183,7 +2183,7 @@
         <v>251</v>
       </c>
       <c r="AE14" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF14" t="n">
         <v>41</v>
@@ -2245,7 +2245,7 @@
         <v>1.07</v>
       </c>
       <c r="K15" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L15" t="n">
         <v>1.36</v>
@@ -2266,10 +2266,10 @@
         <v>2.63</v>
       </c>
       <c r="R15" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="S15" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T15" t="n">
         <v>7</v>
@@ -2364,10 +2364,10 @@
         <v>2.35</v>
       </c>
       <c r="J16" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L16" t="n">
         <v>1.44</v>
@@ -2421,7 +2421,7 @@
         <v>17</v>
       </c>
       <c r="AC16" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD16" t="n">
         <v>351</v>
@@ -2486,22 +2486,22 @@
         <v>2.3</v>
       </c>
       <c r="J17" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L17" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M17" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N17" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="O17" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="P17" t="n">
         <v>1.36</v>
@@ -2599,13 +2599,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="H18" t="n">
         <v>4.2</v>
       </c>
       <c r="I18" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J18" t="n">
         <v>1.05</v>
@@ -2671,7 +2671,7 @@
         <v>1000</v>
       </c>
       <c r="AE18" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF18" t="n">
         <v>34</v>
@@ -2796,7 +2796,7 @@
         <v>9.5</v>
       </c>
       <c r="AF19" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG19" t="n">
         <v>12</v>
@@ -2959,78 +2959,78 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="H21" t="n">
-        <v>2.95</v>
+        <v>2.85</v>
       </c>
       <c r="I21" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
       <c r="M21" t="n">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="N21" t="n">
-        <v>2.32</v>
+        <v>2.5</v>
       </c>
       <c r="O21" t="n">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="P21" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="R21" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S21" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="T21" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="U21" t="n">
         <v>8.75</v>
       </c>
       <c r="V21" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="W21" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="X21" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y21" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="Z21" t="n">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="AA21" t="n">
         <v>5.8</v>
       </c>
       <c r="AB21" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AC21" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AD21" t="n">
         <v>800</v>
       </c>
       <c r="AE21" t="n">
-        <v>8.5</v>
+        <v>7.8</v>
       </c>
       <c r="AF21" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AG21" t="n">
         <v>13</v>
@@ -3039,10 +3039,10 @@
         <v>55</v>
       </c>
       <c r="AI21" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ21" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22">
@@ -3077,19 +3077,19 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="H22" t="n">
         <v>3.6</v>
       </c>
       <c r="I22" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="J22" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L22" t="n">
         <v>1.3</v>
@@ -3098,10 +3098,10 @@
         <v>3.4</v>
       </c>
       <c r="N22" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="O22" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="P22" t="n">
         <v>1.4</v>
@@ -3119,7 +3119,7 @@
         <v>7</v>
       </c>
       <c r="U22" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V22" t="n">
         <v>8.5</v>
@@ -3137,7 +3137,7 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB22" t="n">
         <v>15</v>
@@ -3347,13 +3347,13 @@
         <v>5.5</v>
       </c>
       <c r="U24" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="V24" t="n">
         <v>9</v>
       </c>
       <c r="W24" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X24" t="n">
         <v>17</v>
@@ -3670,34 +3670,34 @@
         <v>2.15</v>
       </c>
       <c r="H27" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I27" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="J27" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K27" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="L27" t="n">
         <v>1.29</v>
       </c>
       <c r="M27" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="N27" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="O27" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="P27" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="R27" t="n">
         <v>1.65</v>
@@ -3706,7 +3706,7 @@
         <v>2.1</v>
       </c>
       <c r="T27" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="U27" t="n">
         <v>11.25</v>
@@ -3724,31 +3724,31 @@
         <v>24</v>
       </c>
       <c r="Z27" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AA27" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AB27" t="n">
         <v>12.5</v>
       </c>
       <c r="AC27" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AD27" t="n">
         <v>400</v>
       </c>
       <c r="AE27" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AF27" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG27" t="n">
         <v>11.25</v>
       </c>
       <c r="AH27" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AI27" t="n">
         <v>30</v>
@@ -3789,13 +3789,13 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="H28" t="n">
         <v>2.92</v>
       </c>
       <c r="I28" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J28" t="n">
         <v>1.11</v>
@@ -3831,19 +3831,19 @@
         <v>5.9</v>
       </c>
       <c r="U28" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="V28" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="W28" t="n">
         <v>21</v>
       </c>
       <c r="X28" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y28" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Z28" t="n">
         <v>5.5</v>
@@ -3859,22 +3859,22 @@
       </c>
       <c r="AD28" t="inlineStr"/>
       <c r="AE28" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AF28" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AG28" t="n">
         <v>13</v>
       </c>
       <c r="AH28" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AI28" t="n">
         <v>40</v>
       </c>
       <c r="AJ28" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29">
@@ -3912,10 +3912,10 @@
         <v>2.07</v>
       </c>
       <c r="H29" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I29" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="J29" t="n">
         <v>1.08</v>
@@ -3960,7 +3960,7 @@
         <v>19</v>
       </c>
       <c r="X29" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Y29" t="n">
         <v>32</v>
@@ -3981,10 +3981,10 @@
         <v>700</v>
       </c>
       <c r="AE29" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AF29" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AG29" t="n">
         <v>12</v>
@@ -3996,7 +3996,7 @@
         <v>32</v>
       </c>
       <c r="AJ29" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30">
@@ -4031,19 +4031,19 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="H30" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="I30" t="n">
         <v>2.95</v>
-      </c>
-      <c r="I30" t="n">
-        <v>2.9</v>
       </c>
       <c r="J30" t="n">
         <v>1.09</v>
       </c>
       <c r="K30" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="L30" t="n">
         <v>1.4</v>
@@ -4058,19 +4058,19 @@
         <v>1.6</v>
       </c>
       <c r="P30" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="R30" t="n">
         <v>1.85</v>
       </c>
       <c r="S30" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="T30" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="U30" t="n">
         <v>12</v>
@@ -4088,7 +4088,7 @@
         <v>32</v>
       </c>
       <c r="Z30" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AA30" t="n">
         <v>5.7</v>
@@ -4103,10 +4103,10 @@
         <v>700</v>
       </c>
       <c r="AE30" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="AF30" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AG30" t="n">
         <v>10.75</v>
@@ -4156,7 +4156,7 @@
         <v>2.25</v>
       </c>
       <c r="H31" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I31" t="n">
         <v>3.1</v>
@@ -4165,7 +4165,7 @@
         <v>1.06</v>
       </c>
       <c r="K31" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="L31" t="n">
         <v>1.3</v>
@@ -4174,10 +4174,10 @@
         <v>3.25</v>
       </c>
       <c r="N31" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="O31" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="P31" t="n">
         <v>1.42</v>
@@ -4186,16 +4186,16 @@
         <v>2.65</v>
       </c>
       <c r="R31" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="S31" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T31" t="n">
-        <v>7.7</v>
+        <v>8.5</v>
       </c>
       <c r="U31" t="n">
-        <v>11</v>
+        <v>11.75</v>
       </c>
       <c r="V31" t="n">
         <v>8.75</v>
@@ -4204,13 +4204,13 @@
         <v>23</v>
       </c>
       <c r="X31" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y31" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Z31" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AA31" t="n">
         <v>6.1</v>
@@ -4225,22 +4225,22 @@
         <v>400</v>
       </c>
       <c r="AE31" t="n">
-        <v>10.5</v>
+        <v>9.5</v>
       </c>
       <c r="AF31" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AG31" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AH31" t="n">
         <v>40</v>
       </c>
       <c r="AI31" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AJ31" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32">
@@ -4284,16 +4284,16 @@
         <v>4.1</v>
       </c>
       <c r="J32" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K32" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="L32" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M32" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N32" t="n">
         <v>2.1</v>
@@ -4397,13 +4397,13 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="H33" t="n">
         <v>3.4</v>
       </c>
       <c r="I33" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="J33" t="n">
         <v>1.05</v>
@@ -4418,10 +4418,10 @@
         <v>3.4</v>
       </c>
       <c r="N33" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="O33" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="P33" t="n">
         <v>1.4</v>
@@ -4436,7 +4436,7 @@
         <v>1.95</v>
       </c>
       <c r="T33" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U33" t="n">
         <v>13</v>
@@ -4445,7 +4445,7 @@
         <v>10</v>
       </c>
       <c r="W33" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="X33" t="n">
         <v>21</v>
@@ -4454,7 +4454,7 @@
         <v>29</v>
       </c>
       <c r="Z33" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA33" t="n">
         <v>6.5</v>
@@ -4478,7 +4478,7 @@
         <v>10</v>
       </c>
       <c r="AH33" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI33" t="n">
         <v>21</v>
@@ -4864,10 +4864,10 @@
         <v>17</v>
       </c>
       <c r="L38" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="M38" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="N38" t="n">
         <v>1.53</v>
@@ -4971,13 +4971,13 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.38</v>
+        <v>2.45</v>
       </c>
       <c r="H39" t="n">
         <v>3.4</v>
       </c>
       <c r="I39" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="J39" t="n">
         <v>1.05</v>
@@ -5013,7 +5013,7 @@
         <v>9</v>
       </c>
       <c r="U39" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V39" t="n">
         <v>9.5</v>
@@ -5093,13 +5093,13 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="H40" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I40" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J40" t="n">
         <v>1.05</v>
@@ -5132,16 +5132,16 @@
         <v>2</v>
       </c>
       <c r="T40" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U40" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V40" t="n">
         <v>8.5</v>
       </c>
       <c r="W40" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X40" t="n">
         <v>15</v>
@@ -5153,7 +5153,7 @@
         <v>11</v>
       </c>
       <c r="AA40" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB40" t="n">
         <v>15</v>
@@ -5177,7 +5177,7 @@
         <v>41</v>
       </c>
       <c r="AI40" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ40" t="n">
         <v>34</v>
@@ -5337,13 +5337,13 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="H42" t="n">
         <v>3.25</v>
       </c>
       <c r="I42" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="J42" t="n">
         <v>1.05</v>
@@ -5358,31 +5358,31 @@
         <v>4</v>
       </c>
       <c r="N42" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="O42" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="P42" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q42" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R42" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S42" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T42" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U42" t="n">
         <v>15</v>
       </c>
       <c r="V42" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W42" t="n">
         <v>29</v>
@@ -5391,10 +5391,10 @@
         <v>21</v>
       </c>
       <c r="Y42" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z42" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA42" t="n">
         <v>6</v>
@@ -5409,7 +5409,7 @@
         <v>151</v>
       </c>
       <c r="AE42" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF42" t="n">
         <v>13</v>
@@ -5418,7 +5418,7 @@
         <v>10</v>
       </c>
       <c r="AH42" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI42" t="n">
         <v>19</v>
@@ -5459,19 +5459,19 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="H43" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="I43" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="J43" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K43" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="L43" t="n">
         <v>1.14</v>
@@ -5480,10 +5480,10 @@
         <v>5.5</v>
       </c>
       <c r="N43" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="O43" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="P43" t="n">
         <v>1.22</v>
@@ -5492,10 +5492,10 @@
         <v>4</v>
       </c>
       <c r="R43" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S43" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T43" t="n">
         <v>10</v>
@@ -5510,16 +5510,16 @@
         <v>10</v>
       </c>
       <c r="X43" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y43" t="n">
         <v>21</v>
       </c>
       <c r="Z43" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA43" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB43" t="n">
         <v>17</v>
@@ -5543,7 +5543,7 @@
         <v>81</v>
       </c>
       <c r="AI43" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ43" t="n">
         <v>41</v>
@@ -5724,10 +5724,10 @@
         <v>5</v>
       </c>
       <c r="N45" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="O45" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="P45" t="n">
         <v>1.29</v>
@@ -5846,10 +5846,10 @@
         <v>4</v>
       </c>
       <c r="N46" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="O46" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="P46" t="n">
         <v>1.3</v>
@@ -5947,13 +5947,13 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="H47" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I47" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
@@ -5968,22 +5968,22 @@
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="S47" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T47" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="U47" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="V47" t="n">
         <v>11</v>
       </c>
       <c r="W47" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X47" t="n">
         <v>12</v>
@@ -5998,7 +5998,7 @@
         <v>13</v>
       </c>
       <c r="AB47" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC47" t="n">
         <v>21</v>
@@ -6069,7 +6069,7 @@
         <v>1.06</v>
       </c>
       <c r="K48" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L48" t="n">
         <v>1.33</v>
@@ -6545,31 +6545,31 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="H52" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="I52" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="J52" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K52" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L52" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="M52" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="N52" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="O52" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="P52" t="n">
         <v>1.25</v>
@@ -6593,7 +6593,7 @@
         <v>10</v>
       </c>
       <c r="W52" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X52" t="n">
         <v>17</v>
@@ -6602,13 +6602,13 @@
         <v>21</v>
       </c>
       <c r="Z52" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AA52" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AB52" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC52" t="n">
         <v>34</v>
@@ -6623,7 +6623,7 @@
         <v>17</v>
       </c>
       <c r="AG52" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH52" t="n">
         <v>29</v>
@@ -6932,10 +6932,10 @@
         <v>4</v>
       </c>
       <c r="N55" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="O55" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="P55" t="n">
         <v>1.33</v>
@@ -7277,13 +7277,13 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="H58" t="n">
         <v>3.2</v>
       </c>
       <c r="I58" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="J58" t="n">
         <v>1.05</v>
@@ -7316,7 +7316,7 @@
         <v>2</v>
       </c>
       <c r="T58" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U58" t="n">
         <v>13</v>
@@ -7334,7 +7334,7 @@
         <v>29</v>
       </c>
       <c r="Z58" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA58" t="n">
         <v>6</v>
@@ -7358,7 +7358,7 @@
         <v>10</v>
       </c>
       <c r="AH58" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI58" t="n">
         <v>21</v>

--- a/Jogos_da_Semana_FlashScore_2025-05-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-14.xlsx
@@ -769,13 +769,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H3" t="n">
         <v>3.5</v>
       </c>
       <c r="I3" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J3" t="n">
         <v>1.04</v>
@@ -784,16 +784,16 @@
         <v>13</v>
       </c>
       <c r="L3" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M3" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="N3" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="O3" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="P3" t="n">
         <v>1.33</v>
@@ -802,10 +802,10 @@
         <v>3.25</v>
       </c>
       <c r="R3" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S3" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="T3" t="n">
         <v>9.5</v>
@@ -829,7 +829,7 @@
         <v>13</v>
       </c>
       <c r="AA3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB3" t="n">
         <v>12</v>
@@ -847,7 +847,7 @@
         <v>17</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH3" t="n">
         <v>34</v>
@@ -1379,13 +1379,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="H8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I8" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J8" t="n">
         <v>1.01</v>
@@ -1400,10 +1400,10 @@
         <v>11</v>
       </c>
       <c r="N8" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="O8" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="P8" t="n">
         <v>1.13</v>
@@ -1412,37 +1412,37 @@
         <v>6</v>
       </c>
       <c r="R8" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S8" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="T8" t="n">
+        <v>17</v>
+      </c>
+      <c r="U8" t="n">
+        <v>9</v>
+      </c>
+      <c r="V8" t="n">
         <v>15</v>
       </c>
-      <c r="U8" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="V8" t="n">
-        <v>13</v>
-      </c>
       <c r="W8" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y8" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z8" t="n">
         <v>34</v>
       </c>
       <c r="AA8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB8" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC8" t="n">
         <v>81</v>
@@ -1501,13 +1501,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="H9" t="n">
         <v>3.5</v>
       </c>
       <c r="I9" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="J9" t="n">
         <v>1.04</v>
@@ -1561,7 +1561,7 @@
         <v>13</v>
       </c>
       <c r="AA9" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB9" t="n">
         <v>12</v>
@@ -1573,7 +1573,7 @@
         <v>126</v>
       </c>
       <c r="AE9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF9" t="n">
         <v>15</v>
@@ -1644,10 +1644,10 @@
         <v>4.5</v>
       </c>
       <c r="N10" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="O10" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="P10" t="n">
         <v>1.29</v>
@@ -1745,7 +1745,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="H11" t="n">
         <v>3.4</v>
@@ -1754,10 +1754,10 @@
         <v>2.6</v>
       </c>
       <c r="J11" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K11" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L11" t="n">
         <v>1.25</v>
@@ -1766,10 +1766,10 @@
         <v>3.75</v>
       </c>
       <c r="N11" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="O11" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="P11" t="n">
         <v>1.33</v>
@@ -1867,13 +1867,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H12" t="n">
         <v>3.2</v>
       </c>
       <c r="I12" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J12" t="n">
         <v>1.08</v>
@@ -1909,16 +1909,16 @@
         <v>6.5</v>
       </c>
       <c r="U12" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V12" t="n">
         <v>9.5</v>
       </c>
       <c r="W12" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X12" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y12" t="n">
         <v>34</v>
@@ -1936,7 +1936,7 @@
         <v>67</v>
       </c>
       <c r="AD12" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AE12" t="n">
         <v>8.5</v>
@@ -1989,31 +1989,31 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="H13" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="I13" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="J13" t="n">
         <v>1.03</v>
       </c>
       <c r="K13" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L13" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="M13" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N13" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="O13" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="P13" t="n">
         <v>1.25</v>
@@ -2043,7 +2043,7 @@
         <v>11</v>
       </c>
       <c r="Y13" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z13" t="n">
         <v>17</v>
@@ -2070,7 +2070,7 @@
         <v>21</v>
       </c>
       <c r="AH13" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AI13" t="n">
         <v>51</v>
@@ -2111,13 +2111,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="H14" t="n">
         <v>5.25</v>
       </c>
       <c r="I14" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="J14" t="n">
         <v>1.03</v>
@@ -2132,10 +2132,10 @@
         <v>4.5</v>
       </c>
       <c r="N14" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="O14" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="P14" t="n">
         <v>1.29</v>
@@ -2144,22 +2144,22 @@
         <v>3.5</v>
       </c>
       <c r="R14" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="S14" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="T14" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U14" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="V14" t="n">
         <v>8.5</v>
       </c>
       <c r="W14" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X14" t="n">
         <v>11</v>
@@ -2168,10 +2168,10 @@
         <v>23</v>
       </c>
       <c r="Z14" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA14" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB14" t="n">
         <v>19</v>
@@ -2364,10 +2364,10 @@
         <v>2.35</v>
       </c>
       <c r="J16" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L16" t="n">
         <v>1.44</v>
@@ -2486,10 +2486,10 @@
         <v>2.3</v>
       </c>
       <c r="J17" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L17" t="n">
         <v>1.25</v>
@@ -2599,31 +2599,31 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="H18" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="I18" t="n">
-        <v>7</v>
+        <v>6.25</v>
       </c>
       <c r="J18" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L18" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M18" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N18" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="O18" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="P18" t="n">
         <v>1.36</v>
@@ -2647,7 +2647,7 @@
         <v>8.5</v>
       </c>
       <c r="W18" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X18" t="n">
         <v>13</v>
@@ -2656,22 +2656,22 @@
         <v>29</v>
       </c>
       <c r="Z18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB18" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC18" t="n">
         <v>67</v>
       </c>
       <c r="AD18" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AE18" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF18" t="n">
         <v>34</v>
@@ -2680,7 +2680,7 @@
         <v>21</v>
       </c>
       <c r="AH18" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AI18" t="n">
         <v>51</v>
@@ -2843,45 +2843,45 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>4.05</v>
+        <v>3.9</v>
       </c>
       <c r="H20" t="n">
-        <v>2.9</v>
+        <v>2.82</v>
       </c>
       <c r="I20" t="n">
-        <v>2.02</v>
+        <v>2.07</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="M20" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="N20" t="n">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="O20" t="n">
         <v>1.42</v>
       </c>
       <c r="P20" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="R20" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="S20" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="T20" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="U20" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="V20" t="n">
         <v>14.5</v>
@@ -2896,10 +2896,10 @@
         <v>70</v>
       </c>
       <c r="Z20" t="n">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="AA20" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AB20" t="n">
         <v>19</v>
@@ -2909,22 +2909,22 @@
       </c>
       <c r="AD20" t="inlineStr"/>
       <c r="AE20" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="AF20" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AG20" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AH20" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AI20" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ20" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21">
@@ -3092,16 +3092,16 @@
         <v>11</v>
       </c>
       <c r="L22" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M22" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N22" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="O22" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="P22" t="n">
         <v>1.4</v>
@@ -3199,57 +3199,61 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="H23" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="I23" t="n">
-        <v>9.25</v>
+        <v>10.5</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
+      <c r="N23" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="O23" t="n">
+        <v>3.3</v>
+      </c>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="S23" t="n">
-        <v>2.27</v>
+        <v>2.22</v>
       </c>
       <c r="T23" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="U23" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="V23" t="n">
         <v>9.75</v>
       </c>
       <c r="W23" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="X23" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="Y23" t="n">
         <v>17.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AA23" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AB23" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AC23" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AD23" t="n">
         <v>200</v>
@@ -3258,19 +3262,19 @@
         <v>50</v>
       </c>
       <c r="AF23" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AG23" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AH23" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AI23" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AJ23" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24">
@@ -3718,7 +3722,7 @@
         <v>22</v>
       </c>
       <c r="X27" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Y27" t="n">
         <v>24</v>
@@ -3727,7 +3731,7 @@
         <v>7.2</v>
       </c>
       <c r="AA27" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AB27" t="n">
         <v>12.5</v>
@@ -3739,7 +3743,7 @@
         <v>400</v>
       </c>
       <c r="AE27" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AF27" t="n">
         <v>18</v>
@@ -3789,10 +3793,10 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="H28" t="n">
-        <v>2.92</v>
+        <v>3.05</v>
       </c>
       <c r="I28" t="n">
         <v>3.6</v>
@@ -3801,7 +3805,7 @@
         <v>1.11</v>
       </c>
       <c r="K28" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="L28" t="n">
         <v>1.5</v>
@@ -3816,53 +3820,53 @@
         <v>1.5</v>
       </c>
       <c r="P28" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="R28" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S28" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="T28" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="U28" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="V28" t="n">
         <v>9.25</v>
       </c>
-      <c r="V28" t="n">
-        <v>9</v>
-      </c>
       <c r="W28" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="X28" t="n">
         <v>20</v>
       </c>
       <c r="Y28" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Z28" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AA28" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="AB28" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AC28" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AD28" t="inlineStr"/>
       <c r="AE28" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AF28" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AG28" t="n">
         <v>13</v>
@@ -3948,10 +3952,10 @@
         <v>1.83</v>
       </c>
       <c r="T29" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="U29" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="V29" t="n">
         <v>8.75</v>
@@ -3963,7 +3967,7 @@
         <v>17.5</v>
       </c>
       <c r="Y29" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Z29" t="n">
         <v>6.5</v>
@@ -3981,7 +3985,7 @@
         <v>700</v>
       </c>
       <c r="AE29" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AF29" t="n">
         <v>17.5</v>
@@ -3993,7 +3997,7 @@
         <v>50</v>
       </c>
       <c r="AI29" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AJ29" t="n">
         <v>45</v>
@@ -4031,94 +4035,94 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H30" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="I30" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="J30" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="K30" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="L30" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M30" t="n">
-        <v>2.72</v>
+        <v>2.6</v>
       </c>
       <c r="N30" t="n">
-        <v>2.18</v>
+        <v>2.3</v>
       </c>
       <c r="O30" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="P30" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="R30" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="S30" t="n">
-        <v>1.87</v>
+        <v>1.78</v>
       </c>
       <c r="T30" t="n">
-        <v>7.3</v>
+        <v>6.9</v>
       </c>
       <c r="U30" t="n">
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="V30" t="n">
         <v>9.5</v>
       </c>
       <c r="W30" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="X30" t="n">
         <v>22</v>
       </c>
       <c r="Y30" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Z30" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AA30" t="n">
         <v>5.7</v>
       </c>
       <c r="AB30" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AC30" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AD30" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AE30" t="n">
-        <v>7.7</v>
+        <v>7.3</v>
       </c>
       <c r="AF30" t="n">
         <v>14</v>
       </c>
       <c r="AG30" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AH30" t="n">
         <v>37</v>
       </c>
       <c r="AI30" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AJ30" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31">
@@ -4162,40 +4166,40 @@
         <v>3.1</v>
       </c>
       <c r="J31" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K31" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="L31" t="n">
         <v>1.3</v>
       </c>
       <c r="M31" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="N31" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="O31" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="P31" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="R31" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="S31" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T31" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="U31" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="V31" t="n">
         <v>8.75</v>
@@ -4207,16 +4211,16 @@
         <v>17.5</v>
       </c>
       <c r="Y31" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Z31" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AA31" t="n">
         <v>6.1</v>
       </c>
       <c r="AB31" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC31" t="n">
         <v>55</v>
@@ -4522,23 +4526,27 @@
         <v>11.25</v>
       </c>
       <c r="H34" t="n">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="I34" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr"/>
-      <c r="O34" t="inlineStr"/>
+      <c r="N34" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="O34" t="n">
+        <v>2.22</v>
+      </c>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U34" t="n">
         <v>70</v>
@@ -4556,10 +4564,10 @@
         <v>90</v>
       </c>
       <c r="Z34" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AA34" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AB34" t="n">
         <v>23</v>
@@ -4569,22 +4577,22 @@
       </c>
       <c r="AD34" t="inlineStr"/>
       <c r="AE34" t="n">
-        <v>6.8</v>
+        <v>6.3</v>
       </c>
       <c r="AF34" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="AG34" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AH34" t="n">
         <v>5.8</v>
       </c>
       <c r="AI34" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AJ34" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35">
@@ -4619,78 +4627,78 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="H35" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="I35" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="O35" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr"/>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="U35" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="V35" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="W35" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="X35" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="Y35" t="n">
         <v>55</v>
       </c>
       <c r="Z35" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AA35" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="AB35" t="n">
         <v>16</v>
       </c>
       <c r="AC35" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AD35" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AE35" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="AF35" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="AG35" t="n">
         <v>7.1</v>
       </c>
       <c r="AH35" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AI35" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AJ35" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36">
@@ -4992,10 +5000,10 @@
         <v>3.75</v>
       </c>
       <c r="N39" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="O39" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="P39" t="n">
         <v>1.36</v>
@@ -5358,10 +5366,10 @@
         <v>4</v>
       </c>
       <c r="N42" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="O42" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="P42" t="n">
         <v>1.33</v>
@@ -5834,10 +5842,10 @@
         <v>2.2</v>
       </c>
       <c r="J46" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="K46" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="L46" t="n">
         <v>1.22</v>
@@ -5852,16 +5860,16 @@
         <v>2.08</v>
       </c>
       <c r="P46" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Q46" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="R46" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S46" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="T46" t="n">
         <v>12</v>
@@ -5870,16 +5878,16 @@
         <v>17</v>
       </c>
       <c r="V46" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W46" t="n">
         <v>29</v>
       </c>
       <c r="X46" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y46" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z46" t="n">
         <v>13</v>
@@ -5888,16 +5896,16 @@
         <v>7</v>
       </c>
       <c r="AB46" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC46" t="n">
         <v>41</v>
       </c>
       <c r="AD46" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AE46" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF46" t="n">
         <v>12</v>
@@ -5947,46 +5955,46 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="H47" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I47" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="n">
-        <v>1.2</v>
+        <v>1.14</v>
       </c>
       <c r="O47" t="n">
-        <v>4.33</v>
+        <v>5.5</v>
       </c>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="n">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="S47" t="n">
-        <v>3.35</v>
+        <v>3.65</v>
       </c>
       <c r="T47" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="U47" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="V47" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W47" t="n">
         <v>21</v>
       </c>
       <c r="X47" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y47" t="n">
         <v>13</v>
@@ -5995,25 +6003,25 @@
         <v>34</v>
       </c>
       <c r="AA47" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB47" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC47" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AD47" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AE47" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AF47" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG47" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH47" t="n">
         <v>51</v>
@@ -6066,10 +6074,10 @@
         <v>2.5</v>
       </c>
       <c r="J48" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K48" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L48" t="n">
         <v>1.33</v>
@@ -6078,10 +6086,10 @@
         <v>3.25</v>
       </c>
       <c r="N48" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="O48" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="P48" t="n">
         <v>1.44</v>
@@ -6545,13 +6553,13 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="H52" t="n">
         <v>4</v>
       </c>
       <c r="I52" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="J52" t="n">
         <v>1.02</v>
@@ -6590,7 +6598,7 @@
         <v>15</v>
       </c>
       <c r="V52" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W52" t="n">
         <v>23</v>
@@ -6599,13 +6607,13 @@
         <v>17</v>
       </c>
       <c r="Y52" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Z52" t="n">
         <v>21</v>
       </c>
       <c r="AA52" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB52" t="n">
         <v>12</v>
@@ -6614,16 +6622,16 @@
         <v>34</v>
       </c>
       <c r="AD52" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AE52" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF52" t="n">
         <v>17</v>
       </c>
       <c r="AG52" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH52" t="n">
         <v>29</v>
@@ -6789,13 +6797,13 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H54" t="n">
         <v>3.6</v>
       </c>
       <c r="I54" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J54" t="n">
         <v>1.03</v>
@@ -6840,7 +6848,7 @@
         <v>21</v>
       </c>
       <c r="X54" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y54" t="n">
         <v>21</v>
@@ -8009,13 +8017,13 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="H64" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I64" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J64" t="n">
         <v>1.02</v>
@@ -8051,13 +8059,13 @@
         <v>10</v>
       </c>
       <c r="U64" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="V64" t="n">
         <v>8.5</v>
       </c>
       <c r="W64" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X64" t="n">
         <v>12</v>
@@ -8093,7 +8101,7 @@
         <v>51</v>
       </c>
       <c r="AI64" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ64" t="n">
         <v>29</v>

--- a/Jogos_da_Semana_FlashScore_2025-05-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-14.xlsx
@@ -769,13 +769,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H3" t="n">
         <v>3.5</v>
       </c>
       <c r="I3" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J3" t="n">
         <v>1.04</v>
@@ -784,16 +784,16 @@
         <v>13</v>
       </c>
       <c r="L3" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M3" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N3" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="O3" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="P3" t="n">
         <v>1.33</v>
@@ -802,10 +802,10 @@
         <v>3.25</v>
       </c>
       <c r="R3" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S3" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T3" t="n">
         <v>9.5</v>
@@ -829,7 +829,7 @@
         <v>13</v>
       </c>
       <c r="AA3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB3" t="n">
         <v>12</v>
@@ -847,7 +847,7 @@
         <v>17</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH3" t="n">
         <v>34</v>
@@ -912,10 +912,10 @@
         <v>8</v>
       </c>
       <c r="N4" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="O4" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P4" t="n">
         <v>1.17</v>
@@ -1150,16 +1150,16 @@
         <v>15</v>
       </c>
       <c r="L6" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="M6" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="N6" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="O6" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="P6" t="n">
         <v>1.29</v>
@@ -1379,10 +1379,10 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="H8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I8" t="n">
         <v>29</v>
@@ -1412,10 +1412,10 @@
         <v>6</v>
       </c>
       <c r="R8" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S8" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="T8" t="n">
         <v>17</v>
@@ -1427,7 +1427,7 @@
         <v>15</v>
       </c>
       <c r="W8" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X8" t="n">
         <v>12</v>
@@ -1745,7 +1745,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="H11" t="n">
         <v>3.4</v>
@@ -1754,10 +1754,10 @@
         <v>2.6</v>
       </c>
       <c r="J11" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K11" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L11" t="n">
         <v>1.25</v>
@@ -1766,10 +1766,10 @@
         <v>3.75</v>
       </c>
       <c r="N11" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="O11" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="P11" t="n">
         <v>1.33</v>
@@ -2028,7 +2028,7 @@
         <v>1.8</v>
       </c>
       <c r="T13" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U13" t="n">
         <v>7</v>
@@ -2043,7 +2043,7 @@
         <v>11</v>
       </c>
       <c r="Y13" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z13" t="n">
         <v>17</v>
@@ -2061,13 +2061,13 @@
         <v>301</v>
       </c>
       <c r="AE13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF13" t="n">
         <v>41</v>
       </c>
       <c r="AG13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH13" t="n">
         <v>101</v>
@@ -2111,7 +2111,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="H14" t="n">
         <v>5.25</v>
@@ -2236,10 +2236,10 @@
         <v>2.3</v>
       </c>
       <c r="H15" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I15" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J15" t="n">
         <v>1.07</v>
@@ -2266,10 +2266,10 @@
         <v>2.63</v>
       </c>
       <c r="R15" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="S15" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T15" t="n">
         <v>7</v>
@@ -2293,10 +2293,10 @@
         <v>8.5</v>
       </c>
       <c r="AA15" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB15" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC15" t="n">
         <v>51</v>
@@ -2311,7 +2311,7 @@
         <v>15</v>
       </c>
       <c r="AG15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH15" t="n">
         <v>34</v>
@@ -2361,13 +2361,13 @@
         <v>3.1</v>
       </c>
       <c r="I16" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="J16" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L16" t="n">
         <v>1.44</v>
@@ -2436,7 +2436,7 @@
         <v>10</v>
       </c>
       <c r="AH16" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI16" t="n">
         <v>21</v>
@@ -2477,19 +2477,19 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H17" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I17" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="J17" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L17" t="n">
         <v>1.25</v>
@@ -2516,22 +2516,22 @@
         <v>2.1</v>
       </c>
       <c r="T17" t="n">
+        <v>10</v>
+      </c>
+      <c r="U17" t="n">
+        <v>15</v>
+      </c>
+      <c r="V17" t="n">
         <v>11</v>
       </c>
-      <c r="U17" t="n">
-        <v>17</v>
-      </c>
-      <c r="V17" t="n">
-        <v>12</v>
-      </c>
       <c r="W17" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="X17" t="n">
         <v>23</v>
       </c>
       <c r="Y17" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z17" t="n">
         <v>10</v>
@@ -2549,7 +2549,7 @@
         <v>201</v>
       </c>
       <c r="AE17" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF17" t="n">
         <v>12</v>
@@ -2558,7 +2558,7 @@
         <v>9.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI17" t="n">
         <v>19</v>
@@ -2608,10 +2608,10 @@
         <v>6.25</v>
       </c>
       <c r="J18" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L18" t="n">
         <v>1.29</v>
@@ -2620,10 +2620,10 @@
         <v>3.5</v>
       </c>
       <c r="N18" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="O18" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="P18" t="n">
         <v>1.36</v>
@@ -3077,13 +3077,13 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="H22" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I22" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J22" t="n">
         <v>1.05</v>
@@ -3104,19 +3104,19 @@
         <v>1.9</v>
       </c>
       <c r="P22" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R22" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="S22" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="T22" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U22" t="n">
         <v>8.5</v>
@@ -3131,10 +3131,10 @@
         <v>15</v>
       </c>
       <c r="Y22" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA22" t="n">
         <v>7</v>
@@ -3146,10 +3146,10 @@
         <v>51</v>
       </c>
       <c r="AD22" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF22" t="n">
         <v>21</v>
@@ -3309,13 +3309,13 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="H24" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I24" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J24" t="n">
         <v>1.11</v>
@@ -3351,19 +3351,19 @@
         <v>5.5</v>
       </c>
       <c r="U24" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="V24" t="n">
         <v>9</v>
       </c>
       <c r="W24" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X24" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y24" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z24" t="n">
         <v>7</v>
@@ -3551,13 +3551,13 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="H26" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="I26" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="J26" t="n">
         <v>1.04</v>
@@ -3596,10 +3596,10 @@
         <v>5</v>
       </c>
       <c r="V26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W26" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X26" t="n">
         <v>13</v>
@@ -3608,20 +3608,20 @@
         <v>41</v>
       </c>
       <c r="Z26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA26" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AB26" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC26" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AD26" t="inlineStr"/>
       <c r="AE26" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF26" t="n">
         <v>67</v>
@@ -3630,13 +3630,13 @@
         <v>41</v>
       </c>
       <c r="AH26" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AI26" t="n">
+        <v>151</v>
+      </c>
+      <c r="AJ26" t="n">
         <v>126</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>101</v>
       </c>
     </row>
     <row r="27">
@@ -3683,34 +3683,34 @@
         <v>1.06</v>
       </c>
       <c r="K27" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="L27" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M27" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="N27" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="O27" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="P27" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="R27" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="S27" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T27" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="U27" t="n">
         <v>11.25</v>
@@ -3722,16 +3722,16 @@
         <v>22</v>
       </c>
       <c r="X27" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Y27" t="n">
         <v>24</v>
       </c>
       <c r="Z27" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AA27" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AB27" t="n">
         <v>12.5</v>
@@ -3743,7 +3743,7 @@
         <v>400</v>
       </c>
       <c r="AE27" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AF27" t="n">
         <v>18</v>
@@ -4038,10 +4038,10 @@
         <v>2.45</v>
       </c>
       <c r="H30" t="n">
+        <v>3</v>
+      </c>
+      <c r="I30" t="n">
         <v>2.95</v>
-      </c>
-      <c r="I30" t="n">
-        <v>3</v>
       </c>
       <c r="J30" t="n">
         <v>1.1</v>
@@ -4065,7 +4065,7 @@
         <v>1.55</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="R30" t="n">
         <v>1.93</v>
@@ -4074,28 +4074,28 @@
         <v>1.78</v>
       </c>
       <c r="T30" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="U30" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="V30" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="W30" t="n">
         <v>26</v>
       </c>
       <c r="X30" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Y30" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="Z30" t="n">
         <v>5.9</v>
       </c>
       <c r="AA30" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AB30" t="n">
         <v>15.5</v>
@@ -4107,22 +4107,22 @@
         <v>800</v>
       </c>
       <c r="AE30" t="n">
-        <v>7.3</v>
+        <v>7.8</v>
       </c>
       <c r="AF30" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AG30" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AH30" t="n">
         <v>37</v>
       </c>
       <c r="AI30" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AJ30" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31">
@@ -4157,16 +4157,16 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.25</v>
+        <v>2.32</v>
       </c>
       <c r="H31" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I31" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J31" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K31" t="n">
         <v>7.1</v>
@@ -4199,19 +4199,19 @@
         <v>8.25</v>
       </c>
       <c r="U31" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="V31" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="W31" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="X31" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="Y31" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Z31" t="n">
         <v>7.1</v>
@@ -4220,7 +4220,7 @@
         <v>6.1</v>
       </c>
       <c r="AB31" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC31" t="n">
         <v>55</v>
@@ -4232,19 +4232,19 @@
         <v>9.5</v>
       </c>
       <c r="AF31" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AG31" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AH31" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AI31" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AJ31" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32">
@@ -4422,10 +4422,10 @@
         <v>3.4</v>
       </c>
       <c r="N33" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="O33" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="P33" t="n">
         <v>1.4</v>
@@ -4732,36 +4732,92 @@
           <t>Guarani de Fram</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
+      <c r="G36" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H36" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I36" t="n">
+        <v>4.4</v>
+      </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="inlineStr"/>
-      <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr"/>
-      <c r="W36" t="inlineStr"/>
-      <c r="X36" t="inlineStr"/>
-      <c r="Y36" t="inlineStr"/>
-      <c r="Z36" t="inlineStr"/>
-      <c r="AA36" t="inlineStr"/>
-      <c r="AB36" t="inlineStr"/>
-      <c r="AC36" t="inlineStr"/>
-      <c r="AD36" t="inlineStr"/>
-      <c r="AE36" t="inlineStr"/>
-      <c r="AF36" t="inlineStr"/>
-      <c r="AG36" t="inlineStr"/>
-      <c r="AH36" t="inlineStr"/>
-      <c r="AI36" t="inlineStr"/>
-      <c r="AJ36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M36" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="N36" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S36" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="T36" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="U36" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="V36" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="W36" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="X36" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>90</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>800</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>75</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>45</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4794,36 +4850,92 @@
           <t>Tacuary</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
+      <c r="G37" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="H37" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I37" t="n">
+        <v>2.6</v>
+      </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="inlineStr"/>
-      <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr"/>
-      <c r="W37" t="inlineStr"/>
-      <c r="X37" t="inlineStr"/>
-      <c r="Y37" t="inlineStr"/>
-      <c r="Z37" t="inlineStr"/>
-      <c r="AA37" t="inlineStr"/>
-      <c r="AB37" t="inlineStr"/>
-      <c r="AC37" t="inlineStr"/>
-      <c r="AD37" t="inlineStr"/>
-      <c r="AE37" t="inlineStr"/>
-      <c r="AF37" t="inlineStr"/>
-      <c r="AG37" t="inlineStr"/>
-      <c r="AH37" t="inlineStr"/>
-      <c r="AI37" t="inlineStr"/>
-      <c r="AJ37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M37" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="N37" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S37" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="T37" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="U37" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>10</v>
+      </c>
+      <c r="W37" t="n">
+        <v>27</v>
+      </c>
+      <c r="X37" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>90</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>900</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>24</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4994,16 +5106,16 @@
         <v>11</v>
       </c>
       <c r="L39" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M39" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N39" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="O39" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="P39" t="n">
         <v>1.36</v>
@@ -5223,13 +5335,13 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="H41" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I41" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J41" t="n">
         <v>1.05</v>
@@ -5283,10 +5395,10 @@
         <v>11</v>
       </c>
       <c r="AA41" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB41" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC41" t="n">
         <v>51</v>
@@ -5301,7 +5413,7 @@
         <v>26</v>
       </c>
       <c r="AG41" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH41" t="n">
         <v>51</v>
@@ -5589,13 +5701,13 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="H44" t="n">
         <v>3.3</v>
       </c>
       <c r="I44" t="n">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="J44" t="n">
         <v>1.06</v>
@@ -5610,10 +5722,10 @@
         <v>3.5</v>
       </c>
       <c r="N44" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="O44" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="P44" t="n">
         <v>1.4</v>
@@ -5628,19 +5740,19 @@
         <v>2</v>
       </c>
       <c r="T44" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="U44" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="V44" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W44" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="X44" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y44" t="n">
         <v>29</v>
@@ -5661,19 +5773,19 @@
         <v>201</v>
       </c>
       <c r="AE44" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AF44" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG44" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH44" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AI44" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ44" t="n">
         <v>29</v>
@@ -5711,13 +5823,13 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="H45" t="n">
         <v>4</v>
       </c>
       <c r="I45" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="J45" t="n">
         <v>1.03</v>
@@ -5744,10 +5856,10 @@
         <v>3.5</v>
       </c>
       <c r="R45" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S45" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T45" t="n">
         <v>19</v>
@@ -5765,7 +5877,7 @@
         <v>41</v>
       </c>
       <c r="Y45" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z45" t="n">
         <v>15</v>
@@ -5786,13 +5898,13 @@
         <v>9</v>
       </c>
       <c r="AF45" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AG45" t="n">
         <v>8.5</v>
       </c>
       <c r="AH45" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI45" t="n">
         <v>12</v>
@@ -5955,13 +6067,13 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="H47" t="n">
         <v>4.5</v>
       </c>
       <c r="I47" t="n">
-        <v>3.7</v>
+        <v>3.25</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
@@ -5976,10 +6088,10 @@
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="S47" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="T47" t="n">
         <v>29</v>
@@ -5991,7 +6103,7 @@
         <v>12</v>
       </c>
       <c r="W47" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X47" t="n">
         <v>13</v>
@@ -6021,16 +6133,16 @@
         <v>41</v>
       </c>
       <c r="AG47" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ47" t="n">
         <v>19</v>
-      </c>
-      <c r="AH47" t="n">
-        <v>51</v>
-      </c>
-      <c r="AI47" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ47" t="n">
-        <v>21</v>
       </c>
     </row>
     <row r="48">
@@ -6675,19 +6787,19 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H53" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I53" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="J53" t="n">
         <v>1.04</v>
       </c>
       <c r="K53" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L53" t="n">
         <v>1.25</v>
@@ -6702,22 +6814,22 @@
         <v>2.03</v>
       </c>
       <c r="P53" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q53" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R53" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S53" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T53" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U53" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="V53" t="n">
         <v>11</v>
@@ -6744,7 +6856,7 @@
         <v>41</v>
       </c>
       <c r="AD53" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE53" t="n">
         <v>8.5</v>
@@ -6762,7 +6874,7 @@
         <v>17</v>
       </c>
       <c r="AJ53" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54">
@@ -6818,10 +6930,10 @@
         <v>4.5</v>
       </c>
       <c r="N54" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="O54" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="P54" t="n">
         <v>1.29</v>
@@ -8139,13 +8251,13 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H65" t="n">
         <v>3.75</v>
       </c>
       <c r="I65" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="J65" t="n">
         <v>1.02</v>
@@ -8178,7 +8290,7 @@
         <v>2.63</v>
       </c>
       <c r="T65" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="U65" t="n">
         <v>17</v>

--- a/Jogos_da_Semana_FlashScore_2025-05-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-14.xlsx
@@ -659,7 +659,7 @@
         <v>1.06</v>
       </c>
       <c r="K2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L2" t="n">
         <v>1.3</v>
@@ -1022,10 +1022,10 @@
         <v>2.6</v>
       </c>
       <c r="J5" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L5" t="n">
         <v>1.14</v>
@@ -1156,10 +1156,10 @@
         <v>4.33</v>
       </c>
       <c r="N6" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="O6" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="P6" t="n">
         <v>1.29</v>
@@ -1379,10 +1379,10 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="H8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I8" t="n">
         <v>29</v>
@@ -1412,13 +1412,13 @@
         <v>6</v>
       </c>
       <c r="R8" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S8" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="T8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="U8" t="n">
         <v>9</v>
@@ -1451,10 +1451,10 @@
         <v>351</v>
       </c>
       <c r="AE8" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AF8" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AG8" t="n">
         <v>51</v>
@@ -1463,10 +1463,10 @@
         <v>501</v>
       </c>
       <c r="AI8" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AJ8" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9">
@@ -1644,10 +1644,10 @@
         <v>4.5</v>
       </c>
       <c r="N10" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="O10" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="P10" t="n">
         <v>1.29</v>
@@ -1989,13 +1989,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="H13" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="I13" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="J13" t="n">
         <v>1.03</v>
@@ -2028,7 +2028,7 @@
         <v>1.8</v>
       </c>
       <c r="T13" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U13" t="n">
         <v>7</v>
@@ -2043,7 +2043,7 @@
         <v>11</v>
       </c>
       <c r="Y13" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z13" t="n">
         <v>17</v>
@@ -2061,7 +2061,7 @@
         <v>301</v>
       </c>
       <c r="AE13" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF13" t="n">
         <v>41</v>
@@ -2114,22 +2114,22 @@
         <v>1.38</v>
       </c>
       <c r="H14" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="I14" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="J14" t="n">
         <v>1.03</v>
       </c>
       <c r="K14" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L14" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="M14" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N14" t="n">
         <v>1.57</v>
@@ -2138,10 +2138,10 @@
         <v>2.38</v>
       </c>
       <c r="P14" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="Q14" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="R14" t="n">
         <v>1.8</v>
@@ -2168,7 +2168,7 @@
         <v>23</v>
       </c>
       <c r="Z14" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA14" t="n">
         <v>9.5</v>
@@ -2355,7 +2355,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H16" t="n">
         <v>3.1</v>
@@ -2370,10 +2370,10 @@
         <v>7</v>
       </c>
       <c r="L16" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="M16" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="N16" t="n">
         <v>2.35</v>
@@ -2421,7 +2421,7 @@
         <v>17</v>
       </c>
       <c r="AC16" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD16" t="n">
         <v>351</v>
@@ -2430,7 +2430,7 @@
         <v>6.5</v>
       </c>
       <c r="AF16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG16" t="n">
         <v>10</v>
@@ -2477,13 +2477,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="H17" t="n">
         <v>3.25</v>
       </c>
       <c r="I17" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="J17" t="n">
         <v>1.06</v>
@@ -2492,31 +2492,31 @@
         <v>10</v>
       </c>
       <c r="L17" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M17" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N17" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="O17" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="P17" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q17" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R17" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="S17" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T17" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="U17" t="n">
         <v>15</v>
@@ -2528,7 +2528,7 @@
         <v>29</v>
       </c>
       <c r="X17" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y17" t="n">
         <v>29</v>
@@ -2537,7 +2537,7 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB17" t="n">
         <v>13</v>
@@ -2552,19 +2552,19 @@
         <v>9</v>
       </c>
       <c r="AF17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG17" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH17" t="n">
         <v>23</v>
       </c>
       <c r="AI17" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ17" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18">
@@ -2721,19 +2721,19 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H19" t="n">
         <v>3.2</v>
       </c>
       <c r="I19" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="J19" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K19" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L19" t="n">
         <v>1.33</v>
@@ -2843,13 +2843,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="H20" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="I20" t="n">
-        <v>2.07</v>
+        <v>2.22</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -2878,50 +2878,50 @@
         <v>1.6</v>
       </c>
       <c r="T20" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="U20" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="V20" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="W20" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="X20" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="Y20" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="Z20" t="n">
         <v>5.9</v>
       </c>
       <c r="AA20" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AB20" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AC20" t="n">
         <v>120</v>
       </c>
       <c r="AD20" t="inlineStr"/>
       <c r="AE20" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="AF20" t="n">
-        <v>8.5</v>
+        <v>9.25</v>
       </c>
       <c r="AG20" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="AI20" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ20" t="n">
         <v>45</v>
@@ -3590,13 +3590,13 @@
         <v>1.5</v>
       </c>
       <c r="T26" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U26" t="n">
         <v>5</v>
       </c>
       <c r="V26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W26" t="n">
         <v>6</v>
@@ -3621,7 +3621,7 @@
       </c>
       <c r="AD26" t="inlineStr"/>
       <c r="AE26" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AF26" t="n">
         <v>67</v>
@@ -3680,85 +3680,85 @@
         <v>3.35</v>
       </c>
       <c r="J27" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K27" t="n">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="L27" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M27" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="N27" t="n">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="O27" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="P27" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.62</v>
+        <v>2.55</v>
       </c>
       <c r="R27" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="S27" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="T27" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="U27" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="V27" t="n">
         <v>8.5</v>
       </c>
       <c r="W27" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X27" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="Y27" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Z27" t="n">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="AA27" t="n">
         <v>6.1</v>
       </c>
       <c r="AB27" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC27" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AD27" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AE27" t="n">
-        <v>10</v>
+        <v>9.25</v>
       </c>
       <c r="AF27" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AG27" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AH27" t="n">
         <v>45</v>
       </c>
       <c r="AI27" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AJ27" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28">
@@ -3832,7 +3832,7 @@
         <v>1.65</v>
       </c>
       <c r="T28" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="U28" t="n">
         <v>8.75</v>
@@ -3844,7 +3844,7 @@
         <v>19.5</v>
       </c>
       <c r="X28" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y28" t="n">
         <v>40</v>
@@ -3863,10 +3863,10 @@
       </c>
       <c r="AD28" t="inlineStr"/>
       <c r="AE28" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="AF28" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AG28" t="n">
         <v>13</v>
@@ -3878,7 +3878,7 @@
         <v>40</v>
       </c>
       <c r="AJ28" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29">
@@ -3952,10 +3952,10 @@
         <v>1.83</v>
       </c>
       <c r="T29" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="U29" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="V29" t="n">
         <v>8.75</v>
@@ -3967,7 +3967,7 @@
         <v>17.5</v>
       </c>
       <c r="Y29" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Z29" t="n">
         <v>6.5</v>
@@ -3985,7 +3985,7 @@
         <v>700</v>
       </c>
       <c r="AE29" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AF29" t="n">
         <v>17.5</v>
@@ -3997,7 +3997,7 @@
         <v>50</v>
       </c>
       <c r="AI29" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AJ29" t="n">
         <v>45</v>
@@ -4035,13 +4035,13 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="H30" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="I30" t="n">
         <v>3</v>
-      </c>
-      <c r="I30" t="n">
-        <v>2.95</v>
       </c>
       <c r="J30" t="n">
         <v>1.1</v>
@@ -4065,7 +4065,7 @@
         <v>1.55</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="R30" t="n">
         <v>1.93</v>
@@ -4074,10 +4074,10 @@
         <v>1.78</v>
       </c>
       <c r="T30" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="U30" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="V30" t="n">
         <v>9.75</v>
@@ -4086,16 +4086,16 @@
         <v>26</v>
       </c>
       <c r="X30" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y30" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Z30" t="n">
         <v>5.9</v>
       </c>
       <c r="AA30" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AB30" t="n">
         <v>15.5</v>
@@ -4107,7 +4107,7 @@
         <v>800</v>
       </c>
       <c r="AE30" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="AF30" t="n">
         <v>14.5</v>
@@ -4119,7 +4119,7 @@
         <v>37</v>
       </c>
       <c r="AI30" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AJ30" t="n">
         <v>40</v>
@@ -4196,10 +4196,10 @@
         <v>2.05</v>
       </c>
       <c r="T31" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="U31" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="V31" t="n">
         <v>9</v>
@@ -4208,7 +4208,7 @@
         <v>24</v>
       </c>
       <c r="X31" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="Y31" t="n">
         <v>27</v>
@@ -4229,19 +4229,19 @@
         <v>400</v>
       </c>
       <c r="AE31" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AF31" t="n">
         <v>16</v>
       </c>
       <c r="AG31" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AH31" t="n">
         <v>37</v>
       </c>
       <c r="AI31" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ31" t="n">
         <v>30</v>
@@ -4747,7 +4747,7 @@
         <v>1.33</v>
       </c>
       <c r="M36" t="n">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="N36" t="n">
         <v>1.98</v>
@@ -4865,10 +4865,10 @@
         <v>1.38</v>
       </c>
       <c r="M37" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="N37" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="O37" t="n">
         <v>1.57</v>
@@ -4886,7 +4886,7 @@
         <v>1.72</v>
       </c>
       <c r="T37" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="U37" t="n">
         <v>11.5</v>
@@ -4922,7 +4922,7 @@
         <v>7.3</v>
       </c>
       <c r="AF37" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AG37" t="n">
         <v>10.25</v>
@@ -5335,13 +5335,13 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H41" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I41" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J41" t="n">
         <v>1.05</v>
@@ -5368,22 +5368,22 @@
         <v>3</v>
       </c>
       <c r="R41" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="S41" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="T41" t="n">
         <v>7</v>
       </c>
       <c r="U41" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="V41" t="n">
         <v>8.5</v>
       </c>
       <c r="W41" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X41" t="n">
         <v>13</v>
@@ -5398,7 +5398,7 @@
         <v>7</v>
       </c>
       <c r="AB41" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC41" t="n">
         <v>51</v>
@@ -5407,10 +5407,10 @@
         <v>251</v>
       </c>
       <c r="AE41" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF41" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG41" t="n">
         <v>17</v>
@@ -5588,10 +5588,10 @@
         <v>7</v>
       </c>
       <c r="J43" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K43" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L43" t="n">
         <v>1.14</v>
@@ -5600,10 +5600,10 @@
         <v>5.5</v>
       </c>
       <c r="N43" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="O43" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="P43" t="n">
         <v>1.22</v>
@@ -5701,13 +5701,13 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H44" t="n">
         <v>3.3</v>
       </c>
       <c r="I44" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="J44" t="n">
         <v>1.06</v>
@@ -5740,16 +5740,16 @@
         <v>2</v>
       </c>
       <c r="T44" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U44" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V44" t="n">
         <v>10</v>
       </c>
       <c r="W44" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X44" t="n">
         <v>21</v>
@@ -5773,7 +5773,7 @@
         <v>201</v>
       </c>
       <c r="AE44" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF44" t="n">
         <v>13</v>
@@ -5782,7 +5782,7 @@
         <v>10</v>
       </c>
       <c r="AH44" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI44" t="n">
         <v>21</v>
@@ -5826,7 +5826,7 @@
         <v>5.25</v>
       </c>
       <c r="H45" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I45" t="n">
         <v>1.62</v>
@@ -5844,10 +5844,10 @@
         <v>5</v>
       </c>
       <c r="N45" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="O45" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="P45" t="n">
         <v>1.29</v>
@@ -5874,7 +5874,7 @@
         <v>51</v>
       </c>
       <c r="X45" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Y45" t="n">
         <v>34</v>
@@ -5883,7 +5883,7 @@
         <v>15</v>
       </c>
       <c r="AA45" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB45" t="n">
         <v>13</v>
@@ -5895,7 +5895,7 @@
         <v>151</v>
       </c>
       <c r="AE45" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF45" t="n">
         <v>9</v>
@@ -6555,7 +6555,7 @@
         <v>1.06</v>
       </c>
       <c r="K51" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L51" t="n">
         <v>1.3</v>
@@ -6665,13 +6665,13 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H52" t="n">
         <v>4</v>
       </c>
       <c r="I52" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="J52" t="n">
         <v>1.02</v>
@@ -6716,7 +6716,7 @@
         <v>23</v>
       </c>
       <c r="X52" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y52" t="n">
         <v>19</v>
@@ -6787,19 +6787,19 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H53" t="n">
         <v>3.4</v>
       </c>
       <c r="I53" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="J53" t="n">
         <v>1.04</v>
       </c>
       <c r="K53" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L53" t="n">
         <v>1.25</v>
@@ -6832,7 +6832,7 @@
         <v>17</v>
       </c>
       <c r="V53" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W53" t="n">
         <v>34</v>
@@ -6847,7 +6847,7 @@
         <v>12</v>
       </c>
       <c r="AA53" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB53" t="n">
         <v>13</v>
@@ -6859,7 +6859,7 @@
         <v>151</v>
       </c>
       <c r="AE53" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF53" t="n">
         <v>11</v>
@@ -7052,10 +7052,10 @@
         <v>4</v>
       </c>
       <c r="N55" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="O55" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="P55" t="n">
         <v>1.33</v>
@@ -7412,16 +7412,16 @@
         <v>11</v>
       </c>
       <c r="L58" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M58" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N58" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="O58" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="P58" t="n">
         <v>1.4</v>
@@ -7885,13 +7885,13 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H62" t="n">
         <v>3.6</v>
       </c>
       <c r="I62" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J62" t="n">
         <v>1.03</v>
@@ -7918,10 +7918,10 @@
         <v>3.5</v>
       </c>
       <c r="R62" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S62" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="T62" t="n">
         <v>11</v>
@@ -7933,7 +7933,7 @@
         <v>9</v>
       </c>
       <c r="W62" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X62" t="n">
         <v>15</v>
@@ -7945,10 +7945,10 @@
         <v>15</v>
       </c>
       <c r="AA62" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB62" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC62" t="n">
         <v>34</v>
@@ -7960,13 +7960,13 @@
         <v>15</v>
       </c>
       <c r="AF62" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG62" t="n">
         <v>12</v>
       </c>
       <c r="AH62" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI62" t="n">
         <v>23</v>
@@ -8028,10 +8028,10 @@
         <v>3.5</v>
       </c>
       <c r="N63" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="O63" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="P63" t="n">
         <v>1.4</v>
@@ -8251,19 +8251,19 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="H65" t="n">
         <v>3.75</v>
       </c>
       <c r="I65" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="J65" t="n">
         <v>1.02</v>
       </c>
       <c r="K65" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L65" t="n">
         <v>1.14</v>
@@ -8296,13 +8296,13 @@
         <v>17</v>
       </c>
       <c r="V65" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W65" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="X65" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y65" t="n">
         <v>21</v>
@@ -8323,10 +8323,10 @@
         <v>81</v>
       </c>
       <c r="AE65" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF65" t="n">
         <v>15</v>
-      </c>
-      <c r="AF65" t="n">
-        <v>17</v>
       </c>
       <c r="AG65" t="n">
         <v>10</v>
@@ -8338,7 +8338,7 @@
         <v>17</v>
       </c>
       <c r="AJ65" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="66">

--- a/Jogos_da_Semana_FlashScore_2025-05-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-14.xlsx
@@ -1022,10 +1022,10 @@
         <v>2.6</v>
       </c>
       <c r="J5" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L5" t="n">
         <v>1.14</v>
@@ -2239,7 +2239,7 @@
         <v>3.3</v>
       </c>
       <c r="I15" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J15" t="n">
         <v>1.07</v>
@@ -2284,7 +2284,7 @@
         <v>21</v>
       </c>
       <c r="X15" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y15" t="n">
         <v>34</v>
@@ -2302,10 +2302,10 @@
         <v>51</v>
       </c>
       <c r="AD15" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE15" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF15" t="n">
         <v>15</v>
@@ -2317,7 +2317,7 @@
         <v>34</v>
       </c>
       <c r="AI15" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ15" t="n">
         <v>41</v>
@@ -2364,10 +2364,10 @@
         <v>2.4</v>
       </c>
       <c r="J16" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L16" t="n">
         <v>1.4</v>
@@ -2477,19 +2477,19 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.63</v>
+        <v>2.88</v>
       </c>
       <c r="H17" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I17" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="J17" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L17" t="n">
         <v>1.29</v>
@@ -2528,7 +2528,7 @@
         <v>29</v>
       </c>
       <c r="X17" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y17" t="n">
         <v>29</v>
@@ -2537,7 +2537,7 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB17" t="n">
         <v>13</v>
@@ -2549,19 +2549,19 @@
         <v>201</v>
       </c>
       <c r="AE17" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG17" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH17" t="n">
         <v>23</v>
       </c>
       <c r="AI17" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ17" t="n">
         <v>29</v>
@@ -2602,7 +2602,7 @@
         <v>1.5</v>
       </c>
       <c r="H18" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I18" t="n">
         <v>6.25</v>
@@ -2620,10 +2620,10 @@
         <v>3.5</v>
       </c>
       <c r="N18" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="O18" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="P18" t="n">
         <v>1.36</v>
@@ -2641,7 +2641,7 @@
         <v>6.5</v>
       </c>
       <c r="U18" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="V18" t="n">
         <v>8.5</v>
@@ -2659,16 +2659,16 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB18" t="n">
         <v>19</v>
       </c>
       <c r="AC18" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD18" t="n">
-        <v>900</v>
+        <v>351</v>
       </c>
       <c r="AE18" t="n">
         <v>15</v>
@@ -2677,7 +2677,7 @@
         <v>34</v>
       </c>
       <c r="AG18" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH18" t="n">
         <v>67</v>
@@ -2742,10 +2742,10 @@
         <v>3.25</v>
       </c>
       <c r="N19" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="O19" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="P19" t="n">
         <v>1.4</v>
@@ -3551,7 +3551,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="H26" t="n">
         <v>7.5</v>
@@ -3590,13 +3590,13 @@
         <v>1.5</v>
       </c>
       <c r="T26" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U26" t="n">
         <v>5</v>
       </c>
       <c r="V26" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W26" t="n">
         <v>6</v>
@@ -3621,22 +3621,22 @@
       </c>
       <c r="AD26" t="inlineStr"/>
       <c r="AE26" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AF26" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG26" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AH26" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AI26" t="n">
+        <v>201</v>
+      </c>
+      <c r="AJ26" t="n">
         <v>151</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>126</v>
       </c>
     </row>
     <row r="27">
@@ -3674,46 +3674,46 @@
         <v>2.15</v>
       </c>
       <c r="H27" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I27" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="J27" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K27" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="L27" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M27" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="N27" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="O27" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="P27" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="R27" t="n">
         <v>1.75</v>
       </c>
       <c r="S27" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="T27" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="U27" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="V27" t="n">
         <v>8.5</v>
@@ -3722,16 +3722,16 @@
         <v>21</v>
       </c>
       <c r="X27" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="Y27" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Z27" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AA27" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AB27" t="n">
         <v>13.5</v>
@@ -3752,13 +3752,13 @@
         <v>11.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AI27" t="n">
         <v>32</v>
       </c>
       <c r="AJ27" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28">
@@ -3913,94 +3913,94 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.07</v>
+        <v>2.72</v>
       </c>
       <c r="H29" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="I29" t="n">
-        <v>3.45</v>
+        <v>2.57</v>
       </c>
       <c r="J29" t="n">
         <v>1.08</v>
       </c>
       <c r="K29" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="L29" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="M29" t="n">
-        <v>2.85</v>
+        <v>2.8</v>
       </c>
       <c r="N29" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="O29" t="n">
         <v>1.65</v>
       </c>
       <c r="P29" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="R29" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S29" t="n">
         <v>1.87</v>
       </c>
-      <c r="S29" t="n">
-        <v>1.83</v>
-      </c>
       <c r="T29" t="n">
-        <v>6.6</v>
+        <v>7.8</v>
       </c>
       <c r="U29" t="n">
-        <v>9.25</v>
+        <v>13</v>
       </c>
       <c r="V29" t="n">
-        <v>8.75</v>
+        <v>10</v>
       </c>
       <c r="W29" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="X29" t="n">
-        <v>17.5</v>
+        <v>25</v>
       </c>
       <c r="Y29" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Z29" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AA29" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="AB29" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC29" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AD29" t="n">
         <v>700</v>
       </c>
       <c r="AE29" t="n">
-        <v>9.25</v>
+        <v>7.5</v>
       </c>
       <c r="AF29" t="n">
-        <v>17.5</v>
+        <v>12</v>
       </c>
       <c r="AG29" t="n">
-        <v>12</v>
+        <v>9.75</v>
       </c>
       <c r="AH29" t="n">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="AI29" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="AJ29" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30">
@@ -4035,13 +4035,13 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.47</v>
+        <v>2.6</v>
       </c>
       <c r="H30" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="I30" t="n">
-        <v>3</v>
+        <v>2.82</v>
       </c>
       <c r="J30" t="n">
         <v>1.1</v>
@@ -4068,28 +4068,28 @@
         <v>2.3</v>
       </c>
       <c r="R30" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="S30" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="T30" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="U30" t="n">
-        <v>11</v>
+        <v>11.75</v>
       </c>
       <c r="V30" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="W30" t="n">
+        <v>29</v>
+      </c>
+      <c r="X30" t="n">
         <v>26</v>
       </c>
-      <c r="X30" t="n">
-        <v>23</v>
-      </c>
       <c r="Y30" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Z30" t="n">
         <v>5.9</v>
@@ -4098,31 +4098,31 @@
         <v>5.7</v>
       </c>
       <c r="AB30" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC30" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AD30" t="n">
         <v>800</v>
       </c>
       <c r="AE30" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AF30" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG30" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="AH30" t="n">
+        <v>35</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ30" t="n">
         <v>37</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>40</v>
       </c>
     </row>
     <row r="31">
@@ -4288,10 +4288,10 @@
         <v>4.1</v>
       </c>
       <c r="J32" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K32" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L32" t="n">
         <v>1.33</v>
@@ -4336,7 +4336,7 @@
         <v>29</v>
       </c>
       <c r="Z32" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA32" t="n">
         <v>6.5</v>
@@ -4348,7 +4348,7 @@
         <v>51</v>
       </c>
       <c r="AD32" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AE32" t="n">
         <v>10</v>
@@ -4523,7 +4523,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="H34" t="n">
         <v>5.4</v>
@@ -4546,19 +4546,19 @@
       <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U34" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="V34" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W34" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="X34" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="Y34" t="n">
         <v>90</v>
@@ -4570,7 +4570,7 @@
         <v>10</v>
       </c>
       <c r="AB34" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC34" t="n">
         <v>100</v>
@@ -4733,87 +4733,87 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="H36" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="I36" t="n">
-        <v>4.4</v>
+        <v>3.65</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="M36" t="n">
-        <v>2.77</v>
+        <v>2.52</v>
       </c>
       <c r="N36" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="R36" t="n">
         <v>1.98</v>
       </c>
-      <c r="O36" t="n">
+      <c r="S36" t="n">
         <v>1.65</v>
       </c>
-      <c r="P36" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="R36" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="S36" t="n">
-        <v>1.72</v>
-      </c>
       <c r="T36" t="n">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="U36" t="n">
-        <v>7.6</v>
+        <v>8.25</v>
       </c>
       <c r="V36" t="n">
-        <v>8.25</v>
+        <v>9</v>
       </c>
       <c r="W36" t="n">
-        <v>13.5</v>
+        <v>16.5</v>
       </c>
       <c r="X36" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="Y36" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="Z36" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>110</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE36" t="n">
         <v>8.75</v>
       </c>
-      <c r="AA36" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AB36" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>90</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>800</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>11.25</v>
-      </c>
       <c r="AF36" t="n">
-        <v>24</v>
+        <v>17.5</v>
       </c>
       <c r="AG36" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AH36" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="AI36" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ36" t="n">
         <v>55</v>
@@ -4851,90 +4851,90 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.52</v>
+        <v>2.25</v>
       </c>
       <c r="H37" t="n">
         <v>3.2</v>
       </c>
       <c r="I37" t="n">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="M37" t="n">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="N37" t="n">
-        <v>2.1</v>
+        <v>2.22</v>
       </c>
       <c r="O37" t="n">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="P37" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="R37" t="n">
-        <v>1.88</v>
+        <v>1.98</v>
       </c>
       <c r="S37" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="T37" t="n">
-        <v>7.2</v>
+        <v>6.3</v>
       </c>
       <c r="U37" t="n">
-        <v>11.5</v>
+        <v>9.75</v>
       </c>
       <c r="V37" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W37" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="X37" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y37" t="n">
         <v>40</v>
       </c>
       <c r="Z37" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="AA37" t="n">
         <v>6.2</v>
       </c>
       <c r="AB37" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AC37" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AD37" t="n">
         <v>900</v>
       </c>
       <c r="AE37" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="AF37" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AG37" t="n">
-        <v>10.25</v>
+        <v>11.5</v>
       </c>
       <c r="AH37" t="n">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="AI37" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="AJ37" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38">
@@ -5112,10 +5112,10 @@
         <v>3.5</v>
       </c>
       <c r="N39" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="O39" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="P39" t="n">
         <v>1.36</v>
@@ -5701,13 +5701,13 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="H44" t="n">
         <v>3.3</v>
       </c>
       <c r="I44" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="J44" t="n">
         <v>1.06</v>
@@ -5740,16 +5740,16 @@
         <v>2</v>
       </c>
       <c r="T44" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U44" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V44" t="n">
         <v>10</v>
       </c>
       <c r="W44" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X44" t="n">
         <v>21</v>
@@ -5773,7 +5773,7 @@
         <v>201</v>
       </c>
       <c r="AE44" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF44" t="n">
         <v>13</v>
@@ -5782,7 +5782,7 @@
         <v>10</v>
       </c>
       <c r="AH44" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI44" t="n">
         <v>21</v>
@@ -6796,10 +6796,10 @@
         <v>2.15</v>
       </c>
       <c r="J53" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K53" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L53" t="n">
         <v>1.25</v>
@@ -6808,10 +6808,10 @@
         <v>3.75</v>
       </c>
       <c r="N53" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="O53" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="P53" t="n">
         <v>1.33</v>
@@ -7052,10 +7052,10 @@
         <v>4</v>
       </c>
       <c r="N55" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="O55" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="P55" t="n">
         <v>1.33</v>
@@ -7784,10 +7784,10 @@
         <v>4</v>
       </c>
       <c r="N61" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="O61" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="P61" t="n">
         <v>1.33</v>
@@ -8028,10 +8028,10 @@
         <v>3.5</v>
       </c>
       <c r="N63" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="O63" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="P63" t="n">
         <v>1.4</v>
@@ -8376,10 +8376,10 @@
         <v>3.75</v>
       </c>
       <c r="H66" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="I66" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="J66" t="n">
         <v>1.05</v>
@@ -8388,31 +8388,31 @@
         <v>8</v>
       </c>
       <c r="L66" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="M66" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="N66" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="O66" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="P66" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="Q66" t="n">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="R66" t="n">
         <v>1.7</v>
       </c>
       <c r="S66" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="T66" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="U66" t="n">
         <v>22</v>
@@ -8424,10 +8424,10 @@
         <v>55</v>
       </c>
       <c r="X66" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y66" t="n">
         <v>35</v>
-      </c>
-      <c r="Y66" t="n">
-        <v>37</v>
       </c>
       <c r="Z66" t="n">
         <v>8</v>
@@ -8436,13 +8436,13 @@
         <v>7.2</v>
       </c>
       <c r="AB66" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC66" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AD66" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AE66" t="n">
         <v>8</v>
@@ -8460,7 +8460,7 @@
         <v>13.5</v>
       </c>
       <c r="AJ66" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
